--- a/2018/Thao Phuong/02 QL VatTu-MatHang/CF0050_Danh muc mat hang.xlsx
+++ b/2018/Thao Phuong/02 QL VatTu-MatHang/CF0050_Danh muc mat hang.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phuong\Analyze\Phương\Done\02 QL VatTu-MatHang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\THUCTAP\Thao Phuong\02 QL VatTu-MatHang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -473,6 +473,7 @@
   <authors>
     <author>Le Thi Thu Hien</author>
     <author>vinhphong</author>
+    <author>Phan Thanh Hoàng Vũ</author>
   </authors>
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0">
@@ -755,6 +756,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="K6" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiếu xử lý mô tả</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -812,6 +837,7 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>vinhphong</author>
+    <author>Phan Thanh Hoàng Vũ</author>
   </authors>
   <commentList>
     <comment ref="C4" authorId="0" shapeId="0">
@@ -878,6 +904,30 @@
         </r>
       </text>
     </comment>
+    <comment ref="I12" authorId="1" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiếu check input khi xóa</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -887,6 +937,7 @@
   <authors>
     <author>vinhphong</author>
     <author>Le Thi Thu Hien</author>
+    <author>Phan Thanh Hoàng Vũ</author>
   </authors>
   <commentList>
     <comment ref="D4" authorId="0" shapeId="0">
@@ -1002,6 +1053,45 @@
           </rPr>
           <t xml:space="preserve">
 </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G5" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Thiếu xử lý dùng chung</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G10" authorId="2" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Phan Thanh Hoàng Vũ:
+Phải tách mổi câu SQL ra riêng không viết chung</t>
         </r>
       </text>
     </comment>
@@ -2551,13 +2641,13 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
     <numFmt numFmtId="166" formatCode="&quot;¥&quot;#,##0;[Red]&quot;¥&quot;\-#,##0"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2700,6 +2790,19 @@
       <color theme="1"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -3018,7 +3121,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="178">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3289,12 +3392,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3337,6 +3434,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3364,9 +3464,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3437,6 +3534,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3445,18 +3554,6 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -3479,6 +3576,33 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3511,15 +3635,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>370812</xdr:colOff>
+          <xdr:colOff>371475</xdr:colOff>
           <xdr:row>4</xdr:row>
-          <xdr:rowOff>51954</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>605117</xdr:colOff>
+          <xdr:colOff>609600</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>21202</xdr:rowOff>
+          <xdr:rowOff>19050</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3527,6 +3651,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5142"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3547,23 +3674,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3576,15 +3690,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>347382</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>35</xdr:row>
-          <xdr:rowOff>89648</xdr:rowOff>
+          <xdr:rowOff>85725</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>571700</xdr:colOff>
+          <xdr:colOff>571500</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>44823</xdr:rowOff>
+          <xdr:rowOff>47625</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3592,6 +3706,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5143"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3612,23 +3729,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3641,15 +3745,15 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
-          <xdr:colOff>341779</xdr:colOff>
+          <xdr:colOff>342900</xdr:colOff>
           <xdr:row>67</xdr:row>
-          <xdr:rowOff>132070</xdr:rowOff>
+          <xdr:rowOff>133350</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>7</xdr:col>
-          <xdr:colOff>644802</xdr:colOff>
+          <xdr:colOff>647700</xdr:colOff>
           <xdr:row>114</xdr:row>
-          <xdr:rowOff>13607</xdr:rowOff>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -3657,6 +3761,9 @@
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
                   <a14:compatExt spid="_x0000_s5144"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3677,23 +3784,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -3823,6 +3917,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3858,6 +3969,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4036,8 +4164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1:J2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27:J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -4053,10 +4181,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4083,8 +4211,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4123,14 +4251,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="137" t="s">
+      <c r="E4" s="136" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="137"/>
-      <c r="G4" s="137"/>
-      <c r="H4" s="137"/>
-      <c r="I4" s="137"/>
-      <c r="J4" s="137"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="136"/>
+      <c r="I4" s="136"/>
+      <c r="J4" s="136"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="40">
@@ -4145,14 +4273,14 @@
       <c r="D5" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="138" t="s">
+      <c r="E5" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="139"/>
-      <c r="G5" s="139"/>
-      <c r="H5" s="139"/>
-      <c r="I5" s="139"/>
-      <c r="J5" s="139"/>
+      <c r="F5" s="128"/>
+      <c r="G5" s="128"/>
+      <c r="H5" s="128"/>
+      <c r="I5" s="128"/>
+      <c r="J5" s="128"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="88">
@@ -4163,12 +4291,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="142"/>
+      <c r="E6" s="138"/>
+      <c r="F6" s="139"/>
+      <c r="G6" s="139"/>
+      <c r="H6" s="139"/>
+      <c r="I6" s="139"/>
+      <c r="J6" s="140"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="89">
@@ -4179,12 +4307,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="131"/>
-      <c r="G7" s="131"/>
-      <c r="H7" s="131"/>
-      <c r="I7" s="131"/>
-      <c r="J7" s="132"/>
+      <c r="E7" s="129"/>
+      <c r="F7" s="130"/>
+      <c r="G7" s="130"/>
+      <c r="H7" s="130"/>
+      <c r="I7" s="130"/>
+      <c r="J7" s="131"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="90">
@@ -4195,12 +4323,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="133"/>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
+      <c r="E8" s="132"/>
+      <c r="F8" s="133"/>
+      <c r="G8" s="133"/>
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="91">
@@ -4211,12 +4339,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="130"/>
-      <c r="F9" s="131"/>
-      <c r="G9" s="131"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="131"/>
-      <c r="J9" s="132"/>
+      <c r="E9" s="129"/>
+      <c r="F9" s="130"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="130"/>
+      <c r="I9" s="130"/>
+      <c r="J9" s="131"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="92">
@@ -4227,12 +4355,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="130"/>
-      <c r="F10" s="131"/>
-      <c r="G10" s="131"/>
-      <c r="H10" s="131"/>
-      <c r="I10" s="131"/>
-      <c r="J10" s="132"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="130"/>
+      <c r="G10" s="130"/>
+      <c r="H10" s="130"/>
+      <c r="I10" s="130"/>
+      <c r="J10" s="131"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="93">
@@ -4243,12 +4371,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="130"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="131"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="94">
@@ -4259,12 +4387,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="131"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="131"/>
-      <c r="J12" s="132"/>
+      <c r="E12" s="129"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="95">
@@ -4275,12 +4403,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="130"/>
-      <c r="F13" s="131"/>
-      <c r="G13" s="131"/>
-      <c r="H13" s="131"/>
-      <c r="I13" s="131"/>
-      <c r="J13" s="132"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="130"/>
+      <c r="H13" s="130"/>
+      <c r="I13" s="130"/>
+      <c r="J13" s="131"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="96">
@@ -4291,12 +4419,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="130"/>
-      <c r="F14" s="131"/>
-      <c r="G14" s="131"/>
-      <c r="H14" s="131"/>
-      <c r="I14" s="131"/>
-      <c r="J14" s="132"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="130"/>
+      <c r="H14" s="130"/>
+      <c r="I14" s="130"/>
+      <c r="J14" s="131"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -4307,12 +4435,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="139"/>
-      <c r="F15" s="139"/>
-      <c r="G15" s="139"/>
-      <c r="H15" s="139"/>
-      <c r="I15" s="139"/>
-      <c r="J15" s="139"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="128"/>
+      <c r="G15" s="128"/>
+      <c r="H15" s="128"/>
+      <c r="I15" s="128"/>
+      <c r="J15" s="128"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="88">
@@ -4323,12 +4451,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="139"/>
-      <c r="F16" s="139"/>
-      <c r="G16" s="139"/>
-      <c r="H16" s="139"/>
-      <c r="I16" s="139"/>
-      <c r="J16" s="139"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="89">
@@ -4339,12 +4467,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="139"/>
-      <c r="G17" s="139"/>
-      <c r="H17" s="139"/>
-      <c r="I17" s="139"/>
-      <c r="J17" s="139"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="90">
@@ -4355,12 +4483,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="139"/>
-      <c r="F18" s="139"/>
-      <c r="G18" s="139"/>
-      <c r="H18" s="139"/>
-      <c r="I18" s="139"/>
-      <c r="J18" s="139"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="128"/>
+      <c r="G18" s="128"/>
+      <c r="H18" s="128"/>
+      <c r="I18" s="128"/>
+      <c r="J18" s="128"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="91">
@@ -4371,12 +4499,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="139"/>
-      <c r="F19" s="139"/>
-      <c r="G19" s="139"/>
-      <c r="H19" s="139"/>
-      <c r="I19" s="139"/>
-      <c r="J19" s="139"/>
+      <c r="E19" s="128"/>
+      <c r="F19" s="128"/>
+      <c r="G19" s="128"/>
+      <c r="H19" s="128"/>
+      <c r="I19" s="128"/>
+      <c r="J19" s="128"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="92">
@@ -4387,12 +4515,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="139"/>
-      <c r="F20" s="139"/>
-      <c r="G20" s="139"/>
-      <c r="H20" s="139"/>
-      <c r="I20" s="139"/>
-      <c r="J20" s="139"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="128"/>
+      <c r="G20" s="128"/>
+      <c r="H20" s="128"/>
+      <c r="I20" s="128"/>
+      <c r="J20" s="128"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="93">
@@ -4403,12 +4531,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="139"/>
-      <c r="F21" s="139"/>
-      <c r="G21" s="139"/>
-      <c r="H21" s="139"/>
-      <c r="I21" s="139"/>
-      <c r="J21" s="139"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="128"/>
+      <c r="G21" s="128"/>
+      <c r="H21" s="128"/>
+      <c r="I21" s="128"/>
+      <c r="J21" s="128"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="94">
@@ -4419,12 +4547,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="139"/>
-      <c r="F22" s="139"/>
-      <c r="G22" s="139"/>
-      <c r="H22" s="139"/>
-      <c r="I22" s="139"/>
-      <c r="J22" s="139"/>
+      <c r="E22" s="128"/>
+      <c r="F22" s="128"/>
+      <c r="G22" s="128"/>
+      <c r="H22" s="128"/>
+      <c r="I22" s="128"/>
+      <c r="J22" s="128"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="95">
@@ -4435,12 +4563,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="128"/>
+      <c r="G23" s="128"/>
+      <c r="H23" s="128"/>
+      <c r="I23" s="128"/>
+      <c r="J23" s="128"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="96">
@@ -4451,12 +4579,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="139"/>
-      <c r="F24" s="139"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="139"/>
-      <c r="I24" s="139"/>
-      <c r="J24" s="139"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="128"/>
+      <c r="G24" s="128"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="128"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -4467,12 +4595,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="139"/>
-      <c r="F25" s="139"/>
-      <c r="G25" s="139"/>
-      <c r="H25" s="139"/>
-      <c r="I25" s="139"/>
-      <c r="J25" s="139"/>
+      <c r="E25" s="128"/>
+      <c r="F25" s="128"/>
+      <c r="G25" s="128"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="128"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -4483,12 +4611,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="128"/>
+      <c r="G26" s="128"/>
+      <c r="H26" s="128"/>
+      <c r="I26" s="128"/>
+      <c r="J26" s="128"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="88">
@@ -4499,12 +4627,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="139"/>
-      <c r="F27" s="139"/>
-      <c r="G27" s="139"/>
-      <c r="H27" s="139"/>
-      <c r="I27" s="139"/>
-      <c r="J27" s="139"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="128"/>
+      <c r="G27" s="128"/>
+      <c r="H27" s="128"/>
+      <c r="I27" s="128"/>
+      <c r="J27" s="128"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="89">
@@ -4515,12 +4643,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="128"/>
+      <c r="G28" s="128"/>
+      <c r="H28" s="128"/>
+      <c r="I28" s="128"/>
+      <c r="J28" s="128"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="90">
@@ -4531,12 +4659,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
+      <c r="E29" s="128"/>
+      <c r="F29" s="128"/>
+      <c r="G29" s="128"/>
+      <c r="H29" s="128"/>
+      <c r="I29" s="128"/>
+      <c r="J29" s="128"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="91">
@@ -4547,12 +4675,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="128"/>
+      <c r="G30" s="128"/>
+      <c r="H30" s="128"/>
+      <c r="I30" s="128"/>
+      <c r="J30" s="128"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="92">
@@ -4563,12 +4691,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="128"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="93">
@@ -4579,12 +4707,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="94">
@@ -4595,12 +4723,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="139"/>
-      <c r="F33" s="139"/>
-      <c r="G33" s="139"/>
-      <c r="H33" s="139"/>
-      <c r="I33" s="139"/>
-      <c r="J33" s="139"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="95">
@@ -4611,12 +4739,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="128"/>
+      <c r="G34" s="128"/>
+      <c r="H34" s="128"/>
+      <c r="I34" s="128"/>
+      <c r="J34" s="128"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="96">
@@ -4627,12 +4755,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="139"/>
-      <c r="F35" s="139"/>
-      <c r="G35" s="139"/>
-      <c r="H35" s="139"/>
-      <c r="I35" s="139"/>
-      <c r="J35" s="139"/>
+      <c r="E35" s="128"/>
+      <c r="F35" s="128"/>
+      <c r="G35" s="128"/>
+      <c r="H35" s="128"/>
+      <c r="I35" s="128"/>
+      <c r="J35" s="128"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -4643,12 +4771,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="139"/>
-      <c r="F36" s="139"/>
-      <c r="G36" s="139"/>
-      <c r="H36" s="139"/>
-      <c r="I36" s="139"/>
-      <c r="J36" s="139"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="128"/>
+      <c r="G36" s="128"/>
+      <c r="H36" s="128"/>
+      <c r="I36" s="128"/>
+      <c r="J36" s="128"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="88">
@@ -4659,12 +4787,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="139"/>
-      <c r="F37" s="139"/>
-      <c r="G37" s="139"/>
-      <c r="H37" s="139"/>
-      <c r="I37" s="139"/>
-      <c r="J37" s="139"/>
+      <c r="E37" s="128"/>
+      <c r="F37" s="128"/>
+      <c r="G37" s="128"/>
+      <c r="H37" s="128"/>
+      <c r="I37" s="128"/>
+      <c r="J37" s="128"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="89">
@@ -4675,12 +4803,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="139"/>
-      <c r="F38" s="139"/>
-      <c r="G38" s="139"/>
-      <c r="H38" s="139"/>
-      <c r="I38" s="139"/>
-      <c r="J38" s="139"/>
+      <c r="E38" s="128"/>
+      <c r="F38" s="128"/>
+      <c r="G38" s="128"/>
+      <c r="H38" s="128"/>
+      <c r="I38" s="128"/>
+      <c r="J38" s="128"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="90">
@@ -4691,12 +4819,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="139"/>
-      <c r="F39" s="139"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="139"/>
-      <c r="I39" s="139"/>
-      <c r="J39" s="139"/>
+      <c r="E39" s="128"/>
+      <c r="F39" s="128"/>
+      <c r="G39" s="128"/>
+      <c r="H39" s="128"/>
+      <c r="I39" s="128"/>
+      <c r="J39" s="128"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="91">
@@ -4707,12 +4835,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="139"/>
-      <c r="F40" s="139"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="139"/>
-      <c r="I40" s="139"/>
-      <c r="J40" s="139"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="128"/>
+      <c r="G40" s="128"/>
+      <c r="H40" s="128"/>
+      <c r="I40" s="128"/>
+      <c r="J40" s="128"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="92">
@@ -4723,12 +4851,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="139"/>
-      <c r="F41" s="139"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="139"/>
-      <c r="I41" s="139"/>
-      <c r="J41" s="139"/>
+      <c r="E41" s="128"/>
+      <c r="F41" s="128"/>
+      <c r="G41" s="128"/>
+      <c r="H41" s="128"/>
+      <c r="I41" s="128"/>
+      <c r="J41" s="128"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="93">
@@ -4739,32 +4867,23 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="139"/>
-      <c r="F42" s="139"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="139"/>
-      <c r="I42" s="139"/>
-      <c r="J42" s="139"/>
+      <c r="E42" s="128"/>
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="128"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="E38:J38"/>
-    <mergeCell ref="E39:J39"/>
-    <mergeCell ref="E40:J40"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="E42:J42"/>
-    <mergeCell ref="E37:J37"/>
-    <mergeCell ref="E26:J26"/>
-    <mergeCell ref="E27:J27"/>
-    <mergeCell ref="E28:J28"/>
-    <mergeCell ref="E29:J29"/>
-    <mergeCell ref="E30:J30"/>
-    <mergeCell ref="E36:J36"/>
-    <mergeCell ref="E31:J31"/>
-    <mergeCell ref="E32:J32"/>
-    <mergeCell ref="E33:J33"/>
-    <mergeCell ref="E34:J34"/>
-    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E10:J10"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
     <mergeCell ref="E11:J11"/>
     <mergeCell ref="E12:J12"/>
     <mergeCell ref="E25:J25"/>
@@ -4780,14 +4899,23 @@
     <mergeCell ref="E22:J22"/>
     <mergeCell ref="E23:J23"/>
     <mergeCell ref="E24:J24"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="E37:J37"/>
+    <mergeCell ref="E26:J26"/>
+    <mergeCell ref="E27:J27"/>
+    <mergeCell ref="E28:J28"/>
+    <mergeCell ref="E29:J29"/>
+    <mergeCell ref="E30:J30"/>
+    <mergeCell ref="E36:J36"/>
+    <mergeCell ref="E31:J31"/>
+    <mergeCell ref="E32:J32"/>
+    <mergeCell ref="E33:J33"/>
+    <mergeCell ref="E34:J34"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="E38:J38"/>
+    <mergeCell ref="E39:J39"/>
+    <mergeCell ref="E40:J40"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="E42:J42"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1">
@@ -4913,7 +5041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A42" zoomScale="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="89" zoomScaleSheetLayoutView="89" workbookViewId="0">
       <selection activeCell="N84" sqref="N84"/>
     </sheetView>
   </sheetViews>
@@ -4930,10 +5058,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4964,8 +5092,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4996,20 +5124,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="143" t="s">
+      <c r="A4" s="141" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="144"/>
-      <c r="I4" s="143" t="s">
+      <c r="B4" s="143"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="142"/>
+      <c r="I4" s="141" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="144"/>
+      <c r="J4" s="142"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -5020,10 +5148,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="152" t="s">
+      <c r="I5" s="150" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="153"/>
+      <c r="J5" s="151"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="72" t="s">
@@ -5036,8 +5164,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="154"/>
-      <c r="J6" s="155"/>
+      <c r="I6" s="152"/>
+      <c r="J6" s="153"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -5048,8 +5176,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="154"/>
-      <c r="J7" s="155"/>
+      <c r="I7" s="152"/>
+      <c r="J7" s="153"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -5060,8 +5188,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="155"/>
+      <c r="I8" s="152"/>
+      <c r="J8" s="153"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -5072,8 +5200,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="154"/>
-      <c r="J9" s="155"/>
+      <c r="I9" s="152"/>
+      <c r="J9" s="153"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -5084,8 +5212,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="156"/>
-      <c r="J10" s="157"/>
+      <c r="I10" s="154"/>
+      <c r="J10" s="155"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -5096,10 +5224,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="143" t="s">
+      <c r="I11" s="141" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="144"/>
+      <c r="J11" s="142"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -5110,10 +5238,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="146" t="s">
+      <c r="I12" s="144" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="147"/>
+      <c r="J12" s="145"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -5124,8 +5252,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="148"/>
-      <c r="J13" s="149"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="147"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -5136,8 +5264,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="148"/>
-      <c r="J14" s="149"/>
+      <c r="I14" s="146"/>
+      <c r="J14" s="147"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -5148,8 +5276,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="148"/>
-      <c r="J15" s="149"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="147"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -5160,8 +5288,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="148"/>
-      <c r="J16" s="149"/>
+      <c r="I16" s="146"/>
+      <c r="J16" s="147"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -5172,8 +5300,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="148"/>
-      <c r="J17" s="149"/>
+      <c r="I17" s="146"/>
+      <c r="J17" s="147"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -5184,8 +5312,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="148"/>
-      <c r="J18" s="149"/>
+      <c r="I18" s="146"/>
+      <c r="J18" s="147"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -5196,8 +5324,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="148"/>
-      <c r="J19" s="149"/>
+      <c r="I19" s="146"/>
+      <c r="J19" s="147"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -5208,8 +5336,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="148"/>
-      <c r="J20" s="149"/>
+      <c r="I20" s="146"/>
+      <c r="J20" s="147"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -5220,8 +5348,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="148"/>
-      <c r="J21" s="149"/>
+      <c r="I21" s="146"/>
+      <c r="J21" s="147"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -5232,8 +5360,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="148"/>
-      <c r="J22" s="149"/>
+      <c r="I22" s="146"/>
+      <c r="J22" s="147"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -5244,8 +5372,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="148"/>
-      <c r="J23" s="149"/>
+      <c r="I23" s="146"/>
+      <c r="J23" s="147"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -5256,8 +5384,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="148"/>
-      <c r="J24" s="149"/>
+      <c r="I24" s="146"/>
+      <c r="J24" s="147"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -5268,8 +5396,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="148"/>
-      <c r="J25" s="149"/>
+      <c r="I25" s="146"/>
+      <c r="J25" s="147"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -5280,8 +5408,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="148"/>
-      <c r="J26" s="149"/>
+      <c r="I26" s="146"/>
+      <c r="J26" s="147"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -5292,8 +5420,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="148"/>
-      <c r="J27" s="149"/>
+      <c r="I27" s="146"/>
+      <c r="J27" s="147"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -5304,8 +5432,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="148"/>
-      <c r="J28" s="149"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="147"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -5316,8 +5444,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="148"/>
-      <c r="J29" s="149"/>
+      <c r="I29" s="146"/>
+      <c r="J29" s="147"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -5328,8 +5456,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="148"/>
-      <c r="J30" s="149"/>
+      <c r="I30" s="146"/>
+      <c r="J30" s="147"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -5340,8 +5468,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
+      <c r="I31" s="146"/>
+      <c r="J31" s="147"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -5352,8 +5480,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="148"/>
-      <c r="J32" s="149"/>
+      <c r="I32" s="146"/>
+      <c r="J32" s="147"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -5364,8 +5492,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="148"/>
-      <c r="J33" s="149"/>
+      <c r="I33" s="146"/>
+      <c r="J33" s="147"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -5376,8 +5504,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="149"/>
+      <c r="I34" s="146"/>
+      <c r="J34" s="147"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -5388,8 +5516,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="148"/>
-      <c r="J35" s="149"/>
+      <c r="I35" s="146"/>
+      <c r="J35" s="147"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="72"/>
@@ -5400,8 +5528,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="148"/>
-      <c r="J36" s="149"/>
+      <c r="I36" s="146"/>
+      <c r="J36" s="147"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="72" t="s">
@@ -5414,8 +5542,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="148"/>
-      <c r="J37" s="149"/>
+      <c r="I37" s="146"/>
+      <c r="J37" s="147"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -5426,8 +5554,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="148"/>
-      <c r="J38" s="149"/>
+      <c r="I38" s="146"/>
+      <c r="J38" s="147"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -5438,8 +5566,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="148"/>
-      <c r="J39" s="149"/>
+      <c r="I39" s="146"/>
+      <c r="J39" s="147"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -5450,8 +5578,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="148"/>
-      <c r="J40" s="149"/>
+      <c r="I40" s="146"/>
+      <c r="J40" s="147"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -5462,8 +5590,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="148"/>
-      <c r="J41" s="149"/>
+      <c r="I41" s="146"/>
+      <c r="J41" s="147"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -5474,8 +5602,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="148"/>
-      <c r="J42" s="149"/>
+      <c r="I42" s="146"/>
+      <c r="J42" s="147"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -5486,14 +5614,14 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="150"/>
-      <c r="J43" s="151"/>
+      <c r="I43" s="148"/>
+      <c r="J43" s="149"/>
     </row>
     <row r="68" spans="1:9" ht="12" customHeight="1">
       <c r="B68"/>
     </row>
     <row r="69" spans="1:9" ht="12" customHeight="1">
-      <c r="A69" s="120" t="s">
+      <c r="A69" s="118" t="s">
         <v>160</v>
       </c>
       <c r="C69"/>
@@ -5607,7 +5735,7 @@
       <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C7" sqref="C7"/>
+      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5630,12 +5758,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5643,15 +5771,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="158" t="s">
+      <c r="G1" s="156" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="159"/>
-      <c r="I1" s="160" t="s">
+      <c r="H1" s="157"/>
+      <c r="I1" s="158" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="161"/>
-      <c r="K1" s="162"/>
+      <c r="J1" s="159"/>
+      <c r="K1" s="160"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5668,10 +5796,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5679,16 +5807,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="158" t="s">
+      <c r="G2" s="156" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="159"/>
-      <c r="I2" s="160" t="str">
+      <c r="H2" s="157"/>
+      <c r="I2" s="158" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục mặt hàng</v>
       </c>
-      <c r="J2" s="161"/>
-      <c r="K2" s="162"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="160"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5755,7 +5883,7 @@
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="33"/>
@@ -5774,7 +5902,7 @@
       <c r="H5" s="40"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="40"/>
+      <c r="K5" s="176"/>
       <c r="L5" s="69"/>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
@@ -5784,7 +5912,7 @@
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="33">
@@ -5796,7 +5924,7 @@
       <c r="E6" s="86" t="s">
         <v>180</v>
       </c>
-      <c r="F6" s="118" t="s">
+      <c r="F6" s="116" t="s">
         <v>180</v>
       </c>
       <c r="G6" s="40" t="s">
@@ -5807,7 +5935,7 @@
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
-      <c r="K6" s="40"/>
+      <c r="K6" s="176"/>
       <c r="L6" s="69" t="s">
         <v>181</v>
       </c>
@@ -5823,7 +5951,7 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C7" s="33">
@@ -5835,7 +5963,7 @@
       <c r="E7" s="86" t="s">
         <v>182</v>
       </c>
-      <c r="F7" s="118" t="s">
+      <c r="F7" s="116" t="s">
         <v>182</v>
       </c>
       <c r="G7" s="40" t="s">
@@ -5846,7 +5974,7 @@
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
-      <c r="K7" s="40"/>
+      <c r="K7" s="176"/>
       <c r="L7" s="86"/>
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
@@ -5856,7 +5984,7 @@
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C8" s="33">
@@ -5868,7 +5996,7 @@
       <c r="E8" s="86" t="s">
         <v>183</v>
       </c>
-      <c r="F8" s="118" t="s">
+      <c r="F8" s="116" t="s">
         <v>183</v>
       </c>
       <c r="G8" s="40" t="s">
@@ -5879,7 +6007,7 @@
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="40"/>
+      <c r="K8" s="176"/>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
@@ -5889,7 +6017,7 @@
       <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="33">
@@ -5901,7 +6029,7 @@
       <c r="E9" s="86" t="s">
         <v>184</v>
       </c>
-      <c r="F9" s="118" t="s">
+      <c r="F9" s="116" t="s">
         <v>184</v>
       </c>
       <c r="G9" s="40" t="s">
@@ -5912,7 +6040,7 @@
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="40"/>
+      <c r="K9" s="176"/>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
       <c r="N9" s="86"/>
@@ -5922,7 +6050,7 @@
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C10" s="33">
@@ -5934,7 +6062,7 @@
       <c r="E10" s="86" t="s">
         <v>185</v>
       </c>
-      <c r="F10" s="118" t="s">
+      <c r="F10" s="116" t="s">
         <v>185</v>
       </c>
       <c r="G10" s="40" t="s">
@@ -5945,7 +6073,7 @@
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
-      <c r="K10" s="40"/>
+      <c r="K10" s="176"/>
       <c r="L10" s="69"/>
       <c r="M10" s="69"/>
       <c r="N10" s="69"/>
@@ -5955,7 +6083,7 @@
       <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C11" s="33">
@@ -5967,7 +6095,7 @@
       <c r="E11" s="86" t="s">
         <v>186</v>
       </c>
-      <c r="F11" s="118" t="s">
+      <c r="F11" s="116" t="s">
         <v>186</v>
       </c>
       <c r="G11" s="40" t="s">
@@ -5978,7 +6106,7 @@
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
-      <c r="K11" s="40"/>
+      <c r="K11" s="176"/>
       <c r="L11" s="81"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69"/>
@@ -5988,7 +6116,7 @@
       <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C12" s="33">
@@ -6000,7 +6128,7 @@
       <c r="E12" s="86" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="118" t="s">
+      <c r="F12" s="116" t="s">
         <v>187</v>
       </c>
       <c r="G12" s="40" t="s">
@@ -6011,7 +6139,7 @@
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
-      <c r="K12" s="40"/>
+      <c r="K12" s="176"/>
       <c r="L12" s="87"/>
       <c r="M12" s="69"/>
       <c r="N12" s="69"/>
@@ -6021,7 +6149,7 @@
       <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C13" s="33">
@@ -6033,7 +6161,7 @@
       <c r="E13" s="86" t="s">
         <v>188</v>
       </c>
-      <c r="F13" s="118" t="s">
+      <c r="F13" s="116" t="s">
         <v>188</v>
       </c>
       <c r="G13" s="40" t="s">
@@ -6044,7 +6172,7 @@
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
-      <c r="K13" s="40"/>
+      <c r="K13" s="176"/>
       <c r="L13" s="87"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
@@ -6054,7 +6182,7 @@
       <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C14" s="33">
@@ -6066,7 +6194,7 @@
       <c r="E14" s="86" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="118" t="s">
+      <c r="F14" s="116" t="s">
         <v>189</v>
       </c>
       <c r="G14" s="40" t="s">
@@ -6077,11 +6205,11 @@
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
-      <c r="K14" s="40"/>
+      <c r="K14" s="176"/>
       <c r="L14" s="62"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
-      <c r="O14" s="123" t="s">
+      <c r="O14" s="121" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6089,7 +6217,7 @@
       <c r="A15" s="33">
         <v>11</v>
       </c>
-      <c r="B15" s="121" t="s">
+      <c r="B15" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C15" s="33">
@@ -6101,7 +6229,7 @@
       <c r="E15" s="86" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="118" t="s">
+      <c r="F15" s="116" t="s">
         <v>190</v>
       </c>
       <c r="G15" s="40" t="s">
@@ -6112,11 +6240,11 @@
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
-      <c r="K15" s="40"/>
+      <c r="K15" s="176"/>
       <c r="L15" s="62"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69"/>
-      <c r="O15" s="123" t="s">
+      <c r="O15" s="121" t="s">
         <v>267</v>
       </c>
     </row>
@@ -6124,7 +6252,7 @@
       <c r="A16" s="33">
         <v>12</v>
       </c>
-      <c r="B16" s="121" t="s">
+      <c r="B16" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C16" s="33">
@@ -6136,7 +6264,7 @@
       <c r="E16" s="86" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="118" t="s">
+      <c r="F16" s="116" t="s">
         <v>191</v>
       </c>
       <c r="G16" s="40" t="s">
@@ -6147,7 +6275,7 @@
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
-      <c r="K16" s="40"/>
+      <c r="K16" s="176"/>
       <c r="L16" s="62"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69"/>
@@ -6157,7 +6285,7 @@
       <c r="A17" s="33">
         <v>13</v>
       </c>
-      <c r="B17" s="121" t="s">
+      <c r="B17" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C17" s="33">
@@ -6169,7 +6297,7 @@
       <c r="E17" s="86" t="s">
         <v>192</v>
       </c>
-      <c r="F17" s="118" t="s">
+      <c r="F17" s="116" t="s">
         <v>192</v>
       </c>
       <c r="G17" s="40" t="s">
@@ -6180,7 +6308,7 @@
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="40"/>
+      <c r="K17" s="176"/>
       <c r="L17" s="69"/>
       <c r="M17" s="69"/>
       <c r="N17" s="69"/>
@@ -6190,7 +6318,7 @@
       <c r="A18" s="33">
         <v>14</v>
       </c>
-      <c r="B18" s="121" t="s">
+      <c r="B18" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C18" s="33">
@@ -6202,7 +6330,7 @@
       <c r="E18" s="86" t="s">
         <v>193</v>
       </c>
-      <c r="F18" s="118" t="s">
+      <c r="F18" s="116" t="s">
         <v>193</v>
       </c>
       <c r="G18" s="40" t="s">
@@ -6213,7 +6341,7 @@
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
+      <c r="K18" s="176"/>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="69"/>
@@ -6223,7 +6351,7 @@
       <c r="A19" s="33">
         <v>15</v>
       </c>
-      <c r="B19" s="121" t="s">
+      <c r="B19" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C19" s="33">
@@ -6235,7 +6363,7 @@
       <c r="E19" s="86" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="118" t="s">
+      <c r="F19" s="116" t="s">
         <v>194</v>
       </c>
       <c r="G19" s="40" t="s">
@@ -6246,7 +6374,7 @@
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="40"/>
+      <c r="K19" s="176"/>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="81"/>
@@ -6256,7 +6384,7 @@
       <c r="A20" s="33">
         <v>16</v>
       </c>
-      <c r="B20" s="121" t="s">
+      <c r="B20" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C20" s="33">
@@ -6268,7 +6396,7 @@
       <c r="E20" s="86" t="s">
         <v>195</v>
       </c>
-      <c r="F20" s="118" t="s">
+      <c r="F20" s="116" t="s">
         <v>195</v>
       </c>
       <c r="G20" s="40" t="s">
@@ -6279,7 +6407,7 @@
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="40"/>
+      <c r="K20" s="176"/>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="69"/>
@@ -6289,7 +6417,7 @@
       <c r="A21" s="33">
         <v>17</v>
       </c>
-      <c r="B21" s="121" t="s">
+      <c r="B21" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C21" s="33">
@@ -6301,7 +6429,7 @@
       <c r="E21" s="86" t="s">
         <v>208</v>
       </c>
-      <c r="F21" s="119" t="s">
+      <c r="F21" s="117" t="s">
         <v>208</v>
       </c>
       <c r="G21" s="40" t="s">
@@ -6312,7 +6440,7 @@
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="40"/>
+      <c r="K21" s="176"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="69" t="s">
@@ -6326,7 +6454,7 @@
       <c r="A22" s="33">
         <v>18</v>
       </c>
-      <c r="B22" s="121" t="s">
+      <c r="B22" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C22" s="33">
@@ -6338,14 +6466,14 @@
       <c r="E22" s="86" t="s">
         <v>220</v>
       </c>
-      <c r="F22" s="118"/>
+      <c r="F22" s="116"/>
       <c r="G22" s="40" t="s">
         <v>229</v>
       </c>
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="40"/>
+      <c r="K22" s="176"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="86"/>
@@ -6357,7 +6485,7 @@
       <c r="A23" s="33">
         <v>19</v>
       </c>
-      <c r="B23" s="121" t="s">
+      <c r="B23" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C23" s="33">
@@ -6369,14 +6497,14 @@
       <c r="E23" s="86" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="118"/>
+      <c r="F23" s="116"/>
       <c r="G23" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
+      <c r="K23" s="176"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="69"/>
@@ -6386,7 +6514,7 @@
       <c r="A24" s="33">
         <v>20</v>
       </c>
-      <c r="B24" s="121" t="s">
+      <c r="B24" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C24" s="33">
@@ -6398,14 +6526,14 @@
       <c r="E24" s="82" t="s">
         <v>210</v>
       </c>
-      <c r="F24" s="118"/>
+      <c r="F24" s="116"/>
       <c r="G24" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="61"/>
-      <c r="K24" s="40"/>
+      <c r="K24" s="176"/>
       <c r="L24" s="61"/>
       <c r="M24" s="61"/>
       <c r="N24" s="40"/>
@@ -6415,7 +6543,7 @@
       <c r="A25" s="33">
         <v>21</v>
       </c>
-      <c r="B25" s="121" t="s">
+      <c r="B25" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C25" s="33">
@@ -6427,14 +6555,14 @@
       <c r="E25" s="86" t="s">
         <v>211</v>
       </c>
-      <c r="F25" s="118"/>
+      <c r="F25" s="116"/>
       <c r="G25" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="61"/>
-      <c r="K25" s="40"/>
+      <c r="K25" s="176"/>
       <c r="L25" s="62"/>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
@@ -6444,7 +6572,7 @@
       <c r="A26" s="33">
         <v>22</v>
       </c>
-      <c r="B26" s="121" t="s">
+      <c r="B26" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C26" s="33">
@@ -6456,14 +6584,14 @@
       <c r="E26" s="85" t="s">
         <v>212</v>
       </c>
-      <c r="F26" s="118"/>
+      <c r="F26" s="116"/>
       <c r="G26" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="40"/>
+      <c r="K26" s="176"/>
       <c r="L26" s="62"/>
       <c r="M26" s="61"/>
       <c r="N26" s="61"/>
@@ -6473,7 +6601,7 @@
       <c r="A27" s="33">
         <v>23</v>
       </c>
-      <c r="B27" s="121" t="s">
+      <c r="B27" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C27" s="33">
@@ -6485,14 +6613,14 @@
       <c r="E27" s="69" t="s">
         <v>213</v>
       </c>
-      <c r="F27" s="118"/>
+      <c r="F27" s="116"/>
       <c r="G27" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="61"/>
-      <c r="K27" s="40"/>
+      <c r="K27" s="176"/>
       <c r="L27" s="62"/>
       <c r="M27" s="61"/>
       <c r="N27" s="61"/>
@@ -6502,7 +6630,7 @@
       <c r="A28" s="33">
         <v>24</v>
       </c>
-      <c r="B28" s="121" t="s">
+      <c r="B28" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C28" s="33">
@@ -6514,14 +6642,14 @@
       <c r="E28" s="69" t="s">
         <v>214</v>
       </c>
-      <c r="F28" s="118"/>
+      <c r="F28" s="116"/>
       <c r="G28" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="61"/>
-      <c r="K28" s="40"/>
+      <c r="K28" s="176"/>
       <c r="L28" s="62"/>
       <c r="M28" s="61"/>
       <c r="N28" s="61"/>
@@ -6531,7 +6659,7 @@
       <c r="A29" s="33">
         <v>25</v>
       </c>
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C29" s="33">
@@ -6543,14 +6671,14 @@
       <c r="E29" s="69" t="s">
         <v>215</v>
       </c>
-      <c r="F29" s="118"/>
+      <c r="F29" s="116"/>
       <c r="G29" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="61"/>
-      <c r="K29" s="40"/>
+      <c r="K29" s="176"/>
       <c r="L29" s="62"/>
       <c r="M29" s="61"/>
       <c r="N29" s="61"/>
@@ -6560,7 +6688,7 @@
       <c r="A30" s="33">
         <v>26</v>
       </c>
-      <c r="B30" s="121" t="s">
+      <c r="B30" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C30" s="33">
@@ -6572,14 +6700,14 @@
       <c r="E30" s="69" t="s">
         <v>216</v>
       </c>
-      <c r="F30" s="118"/>
+      <c r="F30" s="116"/>
       <c r="G30" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="61"/>
-      <c r="K30" s="40"/>
+      <c r="K30" s="176"/>
       <c r="L30" s="62"/>
       <c r="M30" s="61"/>
       <c r="N30" s="61"/>
@@ -6591,7 +6719,7 @@
       <c r="A31" s="33">
         <v>27</v>
       </c>
-      <c r="B31" s="121" t="s">
+      <c r="B31" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C31" s="33">
@@ -6603,14 +6731,14 @@
       <c r="E31" s="69" t="s">
         <v>217</v>
       </c>
-      <c r="F31" s="118"/>
+      <c r="F31" s="116"/>
       <c r="G31" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="61"/>
-      <c r="K31" s="40"/>
+      <c r="K31" s="176"/>
       <c r="L31" s="62"/>
       <c r="M31" s="61"/>
       <c r="N31" s="61"/>
@@ -6620,10 +6748,10 @@
       <c r="A32" s="33">
         <v>28</v>
       </c>
-      <c r="B32" s="121" t="s">
+      <c r="B32" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C32" s="121" t="s">
+      <c r="C32" s="119" t="s">
         <v>323</v>
       </c>
       <c r="D32" s="69" t="s">
@@ -6632,14 +6760,14 @@
       <c r="E32" s="69" t="s">
         <v>218</v>
       </c>
-      <c r="F32" s="118"/>
+      <c r="F32" s="116"/>
       <c r="G32" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="61"/>
-      <c r="K32" s="40"/>
+      <c r="K32" s="176"/>
       <c r="L32" s="62"/>
       <c r="M32" s="61"/>
       <c r="N32" s="61"/>
@@ -6649,7 +6777,7 @@
       <c r="A33" s="33">
         <v>29</v>
       </c>
-      <c r="B33" s="121" t="s">
+      <c r="B33" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C33" s="33">
@@ -6661,14 +6789,14 @@
       <c r="E33" s="69" t="s">
         <v>219</v>
       </c>
-      <c r="F33" s="118"/>
+      <c r="F33" s="116"/>
       <c r="G33" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
       <c r="J33" s="61"/>
-      <c r="K33" s="40"/>
+      <c r="K33" s="176"/>
       <c r="L33" s="62"/>
       <c r="M33" s="61"/>
       <c r="N33" s="61"/>
@@ -6680,7 +6808,7 @@
       <c r="A34" s="33">
         <v>30</v>
       </c>
-      <c r="B34" s="121" t="s">
+      <c r="B34" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C34" s="33">
@@ -6692,14 +6820,14 @@
       <c r="E34" s="69" t="s">
         <v>222</v>
       </c>
-      <c r="F34" s="118"/>
+      <c r="F34" s="116"/>
       <c r="G34" s="40" t="s">
         <v>223</v>
       </c>
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
       <c r="J34" s="61"/>
-      <c r="K34" s="40"/>
+      <c r="K34" s="176"/>
       <c r="L34" s="62"/>
       <c r="M34" s="61"/>
       <c r="N34" s="61"/>
@@ -6709,7 +6837,7 @@
       <c r="A35" s="33">
         <v>31</v>
       </c>
-      <c r="B35" s="121" t="s">
+      <c r="B35" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C35" s="33">
@@ -6721,14 +6849,14 @@
       <c r="E35" s="69" t="s">
         <v>221</v>
       </c>
-      <c r="F35" s="118"/>
+      <c r="F35" s="116"/>
       <c r="G35" s="40" t="s">
         <v>229</v>
       </c>
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="61"/>
-      <c r="K35" s="40"/>
+      <c r="K35" s="176"/>
       <c r="L35" s="62"/>
       <c r="M35" s="61"/>
       <c r="N35" s="61"/>
@@ -6738,7 +6866,7 @@
       <c r="A36" s="33">
         <v>32</v>
       </c>
-      <c r="B36" s="121" t="s">
+      <c r="B36" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C36" s="33">
@@ -6757,7 +6885,7 @@
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="61"/>
-      <c r="K36" s="40"/>
+      <c r="K36" s="176"/>
       <c r="L36" s="62"/>
       <c r="M36" s="61"/>
       <c r="N36" s="61"/>
@@ -7142,7 +7270,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:G5"/>
+      <selection activeCell="F13" sqref="F13:G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7166,10 +7294,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="168" t="s">
+      <c r="A1" s="163" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="116"/>
+      <c r="B1" s="114"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -7202,8 +7330,8 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="169"/>
-      <c r="B2" s="117"/>
+      <c r="A2" s="164"/>
+      <c r="B2" s="115"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -7239,7 +7367,7 @@
       <c r="A4" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="114" t="s">
+      <c r="B4" s="112" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="24" t="s">
@@ -7251,255 +7379,255 @@
       <c r="E4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="136" t="s">
+      <c r="F4" s="135" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136" t="s">
+      <c r="G4" s="135"/>
+      <c r="H4" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="121" t="s">
+      <c r="C5" s="119" t="s">
         <v>234</v>
       </c>
       <c r="D5" s="33"/>
       <c r="E5" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="166" t="s">
+      <c r="F5" s="161" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="167"/>
-      <c r="H5" s="163" t="s">
+      <c r="G5" s="162"/>
+      <c r="H5" s="165" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="164"/>
-      <c r="J5" s="165"/>
+      <c r="I5" s="166"/>
+      <c r="J5" s="167"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C6" s="121" t="s">
+      <c r="C6" s="119" t="s">
         <v>242</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="166" t="s">
+      <c r="F6" s="161" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="167"/>
-      <c r="H6" s="163" t="s">
+      <c r="G6" s="162"/>
+      <c r="H6" s="165" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="164"/>
-      <c r="J6" s="165"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="167"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="121" t="s">
+      <c r="C7" s="119" t="s">
         <v>234</v>
       </c>
       <c r="D7" s="33"/>
       <c r="E7" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="166" t="s">
+      <c r="F7" s="161" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="167"/>
-      <c r="H7" s="163" t="s">
+      <c r="G7" s="162"/>
+      <c r="H7" s="165" t="s">
         <v>238</v>
       </c>
-      <c r="I7" s="164"/>
-      <c r="J7" s="165"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="167"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C8" s="121" t="s">
+      <c r="C8" s="119" t="s">
         <v>234</v>
       </c>
       <c r="D8" s="33"/>
       <c r="E8" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="166" t="s">
+      <c r="F8" s="161" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="167"/>
-      <c r="H8" s="163" t="s">
+      <c r="G8" s="162"/>
+      <c r="H8" s="165" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="164"/>
-      <c r="J8" s="165"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="167"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1">
       <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C9" s="121" t="s">
+      <c r="C9" s="119" t="s">
         <v>246</v>
       </c>
       <c r="D9" s="33"/>
       <c r="E9" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F9" s="166" t="s">
+      <c r="F9" s="161" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="167"/>
-      <c r="H9" s="163" t="s">
+      <c r="G9" s="162"/>
+      <c r="H9" s="165" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="164"/>
-      <c r="J9" s="165"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="167"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C10" s="121" t="s">
+      <c r="C10" s="119" t="s">
         <v>234</v>
       </c>
       <c r="D10" s="33"/>
       <c r="E10" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="166" t="s">
+      <c r="F10" s="161" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="167"/>
-      <c r="H10" s="163" t="s">
+      <c r="G10" s="162"/>
+      <c r="H10" s="165" t="s">
         <v>248</v>
       </c>
-      <c r="I10" s="164"/>
-      <c r="J10" s="165"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="167"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="121" t="s">
+      <c r="B11" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="121" t="s">
+      <c r="C11" s="119" t="s">
         <v>234</v>
       </c>
       <c r="D11" s="33"/>
       <c r="E11" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="166" t="s">
+      <c r="F11" s="161" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="167"/>
-      <c r="H11" s="163" t="s">
+      <c r="G11" s="162"/>
+      <c r="H11" s="165" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="164"/>
-      <c r="J11" s="165"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="167"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="40.5" customHeight="1">
       <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="121" t="s">
+      <c r="B12" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C12" s="121" t="s">
+      <c r="C12" s="119" t="s">
         <v>246</v>
       </c>
       <c r="D12" s="33"/>
       <c r="E12" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="166" t="s">
+      <c r="F12" s="161" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="167"/>
-      <c r="H12" s="163" t="s">
+      <c r="G12" s="162"/>
+      <c r="H12" s="165" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="164"/>
-      <c r="J12" s="165"/>
+      <c r="I12" s="166"/>
+      <c r="J12" s="167"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1">
       <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="121" t="s">
+      <c r="B13" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C13" s="121" t="s">
+      <c r="C13" s="119" t="s">
         <v>242</v>
       </c>
       <c r="D13" s="33"/>
       <c r="E13" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="166" t="s">
+      <c r="F13" s="161" t="s">
         <v>309</v>
       </c>
-      <c r="G13" s="167"/>
-      <c r="H13" s="163" t="s">
+      <c r="G13" s="162"/>
+      <c r="H13" s="165" t="s">
         <v>310</v>
       </c>
-      <c r="I13" s="164"/>
-      <c r="J13" s="165"/>
+      <c r="I13" s="166"/>
+      <c r="J13" s="167"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="41.25" customHeight="1">
       <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="121" t="s">
+      <c r="B14" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C14" s="121" t="s">
+      <c r="C14" s="119" t="s">
         <v>242</v>
       </c>
       <c r="D14" s="33"/>
       <c r="E14" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="166" t="s">
+      <c r="F14" s="161" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="167"/>
-      <c r="H14" s="163" t="s">
+      <c r="G14" s="162"/>
+      <c r="H14" s="165" t="s">
         <v>256</v>
       </c>
-      <c r="I14" s="164"/>
-      <c r="J14" s="165"/>
+      <c r="I14" s="166"/>
+      <c r="J14" s="167"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -7509,11 +7637,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="163"/>
-      <c r="I15" s="164"/>
-      <c r="J15" s="165"/>
+      <c r="F15" s="161"/>
+      <c r="G15" s="162"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="166"/>
+      <c r="J15" s="167"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -7523,11 +7651,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="166"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="163"/>
-      <c r="I16" s="164"/>
-      <c r="J16" s="165"/>
+      <c r="F16" s="161"/>
+      <c r="G16" s="162"/>
+      <c r="H16" s="165"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="167"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -7537,11 +7665,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="166"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="163"/>
-      <c r="I17" s="164"/>
-      <c r="J17" s="165"/>
+      <c r="F17" s="161"/>
+      <c r="G17" s="162"/>
+      <c r="H17" s="165"/>
+      <c r="I17" s="166"/>
+      <c r="J17" s="167"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -7551,11 +7679,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="166"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="163"/>
-      <c r="I18" s="164"/>
-      <c r="J18" s="165"/>
+      <c r="F18" s="161"/>
+      <c r="G18" s="162"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="167"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -7565,11 +7693,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="166"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="163"/>
-      <c r="I19" s="164"/>
-      <c r="J19" s="165"/>
+      <c r="F19" s="161"/>
+      <c r="G19" s="162"/>
+      <c r="H19" s="165"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="167"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -7579,11 +7707,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="167"/>
-      <c r="H20" s="163"/>
-      <c r="I20" s="164"/>
-      <c r="J20" s="165"/>
+      <c r="F20" s="161"/>
+      <c r="G20" s="162"/>
+      <c r="H20" s="165"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="167"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -7593,11 +7721,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="166"/>
-      <c r="G21" s="167"/>
-      <c r="H21" s="163"/>
-      <c r="I21" s="164"/>
-      <c r="J21" s="165"/>
+      <c r="F21" s="161"/>
+      <c r="G21" s="162"/>
+      <c r="H21" s="165"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="167"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -7607,11 +7735,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="130"/>
-      <c r="G22" s="132"/>
-      <c r="H22" s="163"/>
-      <c r="I22" s="164"/>
-      <c r="J22" s="165"/>
+      <c r="F22" s="129"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="165"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="167"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -7621,11 +7749,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="130"/>
-      <c r="G23" s="132"/>
-      <c r="H23" s="163"/>
-      <c r="I23" s="164"/>
-      <c r="J23" s="165"/>
+      <c r="F23" s="129"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="165"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="167"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -7635,11 +7763,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="130"/>
-      <c r="G24" s="132"/>
-      <c r="H24" s="163"/>
-      <c r="I24" s="164"/>
-      <c r="J24" s="165"/>
+      <c r="F24" s="129"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="165"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="167"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -7649,11 +7777,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="130"/>
-      <c r="G25" s="132"/>
-      <c r="H25" s="163"/>
-      <c r="I25" s="164"/>
-      <c r="J25" s="165"/>
+      <c r="F25" s="129"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="165"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="167"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -7663,11 +7791,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="130"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="163"/>
-      <c r="I26" s="164"/>
-      <c r="J26" s="165"/>
+      <c r="F26" s="129"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="165"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="167"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -7677,11 +7805,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="130"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="163"/>
-      <c r="I27" s="164"/>
-      <c r="J27" s="165"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="165"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="167"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -7691,11 +7819,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="130"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="163"/>
-      <c r="I28" s="164"/>
-      <c r="J28" s="165"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="165"/>
+      <c r="I28" s="166"/>
+      <c r="J28" s="167"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -7705,11 +7833,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="130"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="163"/>
-      <c r="I29" s="164"/>
-      <c r="J29" s="165"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="165"/>
+      <c r="I29" s="166"/>
+      <c r="J29" s="167"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -7719,11 +7847,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="130"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="163"/>
-      <c r="I30" s="164"/>
-      <c r="J30" s="165"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="165"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="167"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -7733,11 +7861,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="132"/>
-      <c r="H31" s="163"/>
-      <c r="I31" s="164"/>
-      <c r="J31" s="165"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="165"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="167"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -7747,11 +7875,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="132"/>
-      <c r="H32" s="163"/>
-      <c r="I32" s="164"/>
-      <c r="J32" s="165"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="165"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="167"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -7768,11 +7896,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="130"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="163"/>
-      <c r="I33" s="164"/>
-      <c r="J33" s="165"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="165"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="167"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -7789,11 +7917,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="130"/>
-      <c r="G34" s="132"/>
-      <c r="H34" s="163"/>
-      <c r="I34" s="164"/>
-      <c r="J34" s="165"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="165"/>
+      <c r="I34" s="166"/>
+      <c r="J34" s="167"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -7810,11 +7938,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="130"/>
-      <c r="G35" s="132"/>
-      <c r="H35" s="163"/>
-      <c r="I35" s="164"/>
-      <c r="J35" s="165"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="165"/>
+      <c r="I35" s="166"/>
+      <c r="J35" s="167"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -7831,11 +7959,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="130"/>
-      <c r="G36" s="132"/>
-      <c r="H36" s="163"/>
-      <c r="I36" s="164"/>
-      <c r="J36" s="165"/>
+      <c r="F36" s="129"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="165"/>
+      <c r="I36" s="166"/>
+      <c r="J36" s="167"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -7852,11 +7980,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="130"/>
-      <c r="G37" s="132"/>
-      <c r="H37" s="163"/>
-      <c r="I37" s="164"/>
-      <c r="J37" s="165"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="165"/>
+      <c r="I37" s="166"/>
+      <c r="J37" s="167"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -7873,11 +8001,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="130"/>
-      <c r="G38" s="132"/>
-      <c r="H38" s="163"/>
-      <c r="I38" s="164"/>
-      <c r="J38" s="165"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="165"/>
+      <c r="I38" s="166"/>
+      <c r="J38" s="167"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -7894,11 +8022,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="130"/>
-      <c r="G39" s="132"/>
-      <c r="H39" s="163"/>
-      <c r="I39" s="164"/>
-      <c r="J39" s="165"/>
+      <c r="F39" s="129"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="167"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -7915,11 +8043,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="132"/>
-      <c r="H40" s="163"/>
-      <c r="I40" s="164"/>
-      <c r="J40" s="165"/>
+      <c r="F40" s="129"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="167"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -7936,11 +8064,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="130"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="165"/>
+      <c r="F41" s="129"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="167"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -7957,11 +8085,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="130"/>
-      <c r="G42" s="132"/>
-      <c r="H42" s="163"/>
-      <c r="I42" s="164"/>
-      <c r="J42" s="165"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="167"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -7978,11 +8106,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="163"/>
-      <c r="I43" s="164"/>
-      <c r="J43" s="165"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -7999,11 +8127,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="130"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="163"/>
-      <c r="I44" s="164"/>
-      <c r="J44" s="165"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="131"/>
+      <c r="H44" s="165"/>
+      <c r="I44" s="166"/>
+      <c r="J44" s="167"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8020,11 +8148,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="130"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="163"/>
-      <c r="I45" s="164"/>
-      <c r="J45" s="165"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="131"/>
+      <c r="H45" s="165"/>
+      <c r="I45" s="166"/>
+      <c r="J45" s="167"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8041,11 +8169,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="130"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="163"/>
-      <c r="I46" s="164"/>
-      <c r="J46" s="165"/>
+      <c r="F46" s="129"/>
+      <c r="G46" s="131"/>
+      <c r="H46" s="165"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="167"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8062,11 +8190,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="130"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="163"/>
-      <c r="I47" s="164"/>
-      <c r="J47" s="165"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="131"/>
+      <c r="H47" s="165"/>
+      <c r="I47" s="166"/>
+      <c r="J47" s="167"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8083,11 +8211,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="130"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="163"/>
-      <c r="I48" s="164"/>
-      <c r="J48" s="165"/>
+      <c r="F48" s="129"/>
+      <c r="G48" s="131"/>
+      <c r="H48" s="165"/>
+      <c r="I48" s="166"/>
+      <c r="J48" s="167"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8104,11 +8232,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="132"/>
-      <c r="H49" s="163"/>
-      <c r="I49" s="164"/>
-      <c r="J49" s="165"/>
+      <c r="F49" s="129"/>
+      <c r="G49" s="131"/>
+      <c r="H49" s="165"/>
+      <c r="I49" s="166"/>
+      <c r="J49" s="167"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8125,11 +8253,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="132"/>
-      <c r="H50" s="163"/>
-      <c r="I50" s="164"/>
-      <c r="J50" s="165"/>
+      <c r="F50" s="129"/>
+      <c r="G50" s="131"/>
+      <c r="H50" s="165"/>
+      <c r="I50" s="166"/>
+      <c r="J50" s="167"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8146,11 +8274,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="130"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="163"/>
-      <c r="I51" s="164"/>
-      <c r="J51" s="165"/>
+      <c r="F51" s="129"/>
+      <c r="G51" s="131"/>
+      <c r="H51" s="165"/>
+      <c r="I51" s="166"/>
+      <c r="J51" s="167"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8167,11 +8295,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="130"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="163"/>
-      <c r="I52" s="164"/>
-      <c r="J52" s="165"/>
+      <c r="F52" s="129"/>
+      <c r="G52" s="131"/>
+      <c r="H52" s="165"/>
+      <c r="I52" s="166"/>
+      <c r="J52" s="167"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8188,11 +8316,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="130"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="163"/>
-      <c r="I53" s="164"/>
-      <c r="J53" s="165"/>
+      <c r="F53" s="129"/>
+      <c r="G53" s="131"/>
+      <c r="H53" s="165"/>
+      <c r="I53" s="166"/>
+      <c r="J53" s="167"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8209,11 +8337,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="130"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="163"/>
-      <c r="I54" s="164"/>
-      <c r="J54" s="165"/>
+      <c r="F54" s="129"/>
+      <c r="G54" s="131"/>
+      <c r="H54" s="165"/>
+      <c r="I54" s="166"/>
+      <c r="J54" s="167"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8230,11 +8358,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="130"/>
-      <c r="G55" s="132"/>
-      <c r="H55" s="163"/>
-      <c r="I55" s="164"/>
-      <c r="J55" s="165"/>
+      <c r="F55" s="129"/>
+      <c r="G55" s="131"/>
+      <c r="H55" s="165"/>
+      <c r="I55" s="166"/>
+      <c r="J55" s="167"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8251,11 +8379,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="130"/>
-      <c r="G56" s="132"/>
-      <c r="H56" s="163"/>
-      <c r="I56" s="164"/>
-      <c r="J56" s="165"/>
+      <c r="F56" s="129"/>
+      <c r="G56" s="131"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="166"/>
+      <c r="J56" s="167"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -8267,25 +8395,80 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <mergeCells count="107">
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F56:G56"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="F50:G50"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="H50:J50"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="H52:J52"/>
+    <mergeCell ref="H53:J53"/>
+    <mergeCell ref="H54:J54"/>
+    <mergeCell ref="H55:J55"/>
+    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="F44:G44"/>
+    <mergeCell ref="F45:G45"/>
+    <mergeCell ref="F46:G46"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="H45:J45"/>
+    <mergeCell ref="H46:J46"/>
+    <mergeCell ref="H47:J47"/>
+    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="F43:G43"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="H35:J35"/>
+    <mergeCell ref="H36:J36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H26:J26"/>
+    <mergeCell ref="H27:J27"/>
+    <mergeCell ref="H28:J28"/>
+    <mergeCell ref="H29:J29"/>
+    <mergeCell ref="H30:J30"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H20:J20"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
     <mergeCell ref="F16:G16"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="F18:G18"/>
@@ -8300,80 +8483,25 @@
     <mergeCell ref="H17:J17"/>
     <mergeCell ref="H18:J18"/>
     <mergeCell ref="H19:J19"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H26:J26"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="H28:J28"/>
-    <mergeCell ref="H29:J29"/>
-    <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H34:J34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H36:J36"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="F43:G43"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="F44:G44"/>
-    <mergeCell ref="F45:G45"/>
-    <mergeCell ref="F46:G46"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="H45:J45"/>
-    <mergeCell ref="H46:J46"/>
-    <mergeCell ref="H47:J47"/>
-    <mergeCell ref="H48:J48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="F56:G56"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="F50:G50"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="H50:J50"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="H52:J52"/>
-    <mergeCell ref="H53:J53"/>
-    <mergeCell ref="H54:J54"/>
-    <mergeCell ref="H55:J55"/>
-    <mergeCell ref="H56:J56"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F11:G11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E5:E56">
@@ -8392,7 +8520,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="L25" sqref="L25:L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8522,13 +8650,13 @@
         <v>1</v>
       </c>
       <c r="B5" s="33"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="113"/>
-      <c r="H5" s="113"/>
-      <c r="I5" s="63"/>
+      <c r="C5" s="177"/>
+      <c r="D5" s="177"/>
+      <c r="E5" s="176"/>
+      <c r="F5" s="178"/>
+      <c r="G5" s="177"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="179"/>
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8536,13 +8664,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="113"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="63"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
+      <c r="E6" s="176"/>
+      <c r="F6" s="178"/>
+      <c r="G6" s="177"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="179"/>
       <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="11.25">
@@ -8550,13 +8678,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="113"/>
-      <c r="H7" s="113"/>
-      <c r="I7" s="63"/>
+      <c r="C7" s="177"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="177"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="179"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8564,13 +8692,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="113"/>
-      <c r="H8" s="113"/>
-      <c r="I8" s="63"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="178"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="179"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="11.25">
@@ -8578,13 +8706,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="112"/>
-      <c r="E9" s="40"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="63"/>
+      <c r="C9" s="177"/>
+      <c r="D9" s="177"/>
+      <c r="E9" s="176"/>
+      <c r="F9" s="178"/>
+      <c r="G9" s="177"/>
+      <c r="H9" s="177"/>
+      <c r="I9" s="179"/>
       <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8592,13 +8720,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="33"/>
-      <c r="C10" s="86"/>
-      <c r="D10" s="82"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="86"/>
-      <c r="H10" s="82"/>
-      <c r="I10" s="80"/>
+      <c r="C10" s="177"/>
+      <c r="D10" s="177"/>
+      <c r="E10" s="176"/>
+      <c r="F10" s="178"/>
+      <c r="G10" s="177"/>
+      <c r="H10" s="177"/>
+      <c r="I10" s="180"/>
       <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8606,13 +8734,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="33"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="82"/>
-      <c r="H11" s="82"/>
-      <c r="I11" s="80"/>
+      <c r="C11" s="177"/>
+      <c r="D11" s="177"/>
+      <c r="E11" s="176"/>
+      <c r="F11" s="178"/>
+      <c r="G11" s="177"/>
+      <c r="H11" s="177"/>
+      <c r="I11" s="180"/>
       <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8620,13 +8748,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="82"/>
-      <c r="D12" s="82"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="62"/>
-      <c r="G12" s="69"/>
-      <c r="H12" s="82"/>
-      <c r="I12" s="80"/>
+      <c r="C12" s="177"/>
+      <c r="D12" s="177"/>
+      <c r="E12" s="176"/>
+      <c r="F12" s="178"/>
+      <c r="G12" s="177"/>
+      <c r="H12" s="177"/>
+      <c r="I12" s="180"/>
       <c r="J12" s="69"/>
       <c r="K12" s="108"/>
     </row>
@@ -8635,13 +8763,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="82"/>
-      <c r="D13" s="82"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="62"/>
-      <c r="G13" s="69"/>
-      <c r="H13" s="82"/>
-      <c r="I13" s="80"/>
+      <c r="C13" s="177"/>
+      <c r="D13" s="177"/>
+      <c r="E13" s="176"/>
+      <c r="F13" s="178"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="180"/>
       <c r="J13" s="69"/>
       <c r="K13" s="108"/>
     </row>
@@ -8650,13 +8778,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="62"/>
-      <c r="G14" s="61"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="80"/>
+      <c r="C14" s="177"/>
+      <c r="D14" s="177"/>
+      <c r="E14" s="176"/>
+      <c r="F14" s="178"/>
+      <c r="G14" s="181"/>
+      <c r="H14" s="177"/>
+      <c r="I14" s="180"/>
       <c r="J14" s="69"/>
       <c r="K14" s="108"/>
     </row>
@@ -8665,13 +8793,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="82"/>
-      <c r="D15" s="82"/>
-      <c r="E15" s="40"/>
-      <c r="F15" s="62"/>
-      <c r="G15" s="61"/>
-      <c r="H15" s="82"/>
-      <c r="I15" s="80"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
+      <c r="E15" s="176"/>
+      <c r="F15" s="178"/>
+      <c r="G15" s="181"/>
+      <c r="H15" s="177"/>
+      <c r="I15" s="180"/>
       <c r="J15" s="69"/>
       <c r="K15" s="108"/>
     </row>
@@ -8680,13 +8808,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="82"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="62"/>
-      <c r="G16" s="61"/>
-      <c r="H16" s="69"/>
-      <c r="I16" s="69"/>
+      <c r="C16" s="177"/>
+      <c r="D16" s="177"/>
+      <c r="E16" s="176"/>
+      <c r="F16" s="178"/>
+      <c r="G16" s="181"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="177"/>
       <c r="J16" s="69"/>
       <c r="K16" s="108"/>
     </row>
@@ -8695,13 +8823,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="33"/>
-      <c r="C17" s="82"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="61"/>
-      <c r="H17" s="69"/>
-      <c r="I17" s="69"/>
+      <c r="C17" s="177"/>
+      <c r="D17" s="177"/>
+      <c r="E17" s="176"/>
+      <c r="F17" s="178"/>
+      <c r="G17" s="181"/>
+      <c r="H17" s="177"/>
+      <c r="I17" s="177"/>
       <c r="J17" s="69"/>
       <c r="K17" s="108"/>
     </row>
@@ -9358,7 +9486,7 @@
   <dimension ref="A1:Q1048467"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="G16" sqref="G16:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9381,20 +9509,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
-      <c r="C1" s="136"/>
-      <c r="D1" s="136"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
       <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="173" t="str">
+      <c r="F1" s="171" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="173"/>
+      <c r="G1" s="171"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9422,18 +9550,18 @@
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
-      <c r="C2" s="136"/>
-      <c r="D2" s="136"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135"/>
+      <c r="D2" s="135"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="173" t="str">
+      <c r="F2" s="171" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="173"/>
+      <c r="G2" s="171"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -9464,7 +9592,7 @@
       <c r="A4" s="39" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="115" t="s">
+      <c r="B4" s="113" t="s">
         <v>32</v>
       </c>
       <c r="C4" s="70" t="s">
@@ -9476,15 +9604,15 @@
       <c r="E4" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="F4" s="127" t="s">
+      <c r="F4" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="143" t="s">
+      <c r="G4" s="141" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="145"/>
-      <c r="I4" s="145"/>
-      <c r="J4" s="144"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="142"/>
       <c r="K4" s="39" t="s">
         <v>56</v>
       </c>
@@ -9505,7 +9633,7 @@
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="121" t="s">
+      <c r="B5" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C5" s="86" t="s">
@@ -9517,19 +9645,19 @@
       <c r="E5" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F5" s="126" t="s">
+      <c r="F5" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="133" t="s">
+      <c r="G5" s="182" t="s">
         <v>276</v>
       </c>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="135"/>
-      <c r="K5" s="123" t="s">
+      <c r="H5" s="183"/>
+      <c r="I5" s="183"/>
+      <c r="J5" s="184"/>
+      <c r="K5" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L5" s="123" t="s">
+      <c r="L5" s="121" t="s">
         <v>242</v>
       </c>
       <c r="M5" s="75" t="s">
@@ -9538,7 +9666,7 @@
       <c r="N5" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="O5" s="124"/>
+      <c r="O5" s="122"/>
       <c r="P5" s="64"/>
       <c r="Q5" s="64"/>
     </row>
@@ -9546,7 +9674,7 @@
       <c r="A6" s="33">
         <v>2</v>
       </c>
-      <c r="B6" s="121" t="s">
+      <c r="B6" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C6" s="86" t="s">
@@ -9558,19 +9686,19 @@
       <c r="E6" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F6" s="126" t="s">
+      <c r="F6" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="133" t="s">
+      <c r="G6" s="132" t="s">
         <v>321</v>
       </c>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="135"/>
-      <c r="K6" s="123" t="s">
+      <c r="H6" s="133"/>
+      <c r="I6" s="133"/>
+      <c r="J6" s="134"/>
+      <c r="K6" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L6" s="123" t="s">
+      <c r="L6" s="121" t="s">
         <v>242</v>
       </c>
       <c r="M6" s="75" t="s">
@@ -9579,7 +9707,7 @@
       <c r="N6" s="74" t="s">
         <v>264</v>
       </c>
-      <c r="O6" s="124"/>
+      <c r="O6" s="122"/>
       <c r="P6" s="64"/>
       <c r="Q6" s="64"/>
     </row>
@@ -9587,10 +9715,10 @@
       <c r="A7" s="33">
         <v>3</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="119" t="s">
         <v>161</v>
       </c>
-      <c r="C7" s="122" t="s">
+      <c r="C7" s="120" t="s">
         <v>266</v>
       </c>
       <c r="D7" s="63" t="s">
@@ -9599,19 +9727,19 @@
       <c r="E7" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="126" t="s">
+      <c r="F7" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="133" t="s">
+      <c r="G7" s="132" t="s">
         <v>322</v>
       </c>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="135"/>
-      <c r="K7" s="123" t="s">
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
+      <c r="K7" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L7" s="123" t="s">
+      <c r="L7" s="121" t="s">
         <v>242</v>
       </c>
       <c r="M7" s="75" t="s">
@@ -9628,7 +9756,7 @@
       <c r="A8" s="33">
         <v>4</v>
       </c>
-      <c r="B8" s="121" t="s">
+      <c r="B8" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C8" s="86" t="s">
@@ -9640,19 +9768,19 @@
       <c r="E8" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="126" t="s">
+      <c r="F8" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="133" t="s">
+      <c r="G8" s="132" t="s">
         <v>277</v>
       </c>
-      <c r="H8" s="134"/>
-      <c r="I8" s="134"/>
-      <c r="J8" s="135"/>
-      <c r="K8" s="123" t="s">
+      <c r="H8" s="133"/>
+      <c r="I8" s="133"/>
+      <c r="J8" s="134"/>
+      <c r="K8" s="121" t="s">
         <v>242</v>
       </c>
-      <c r="L8" s="123" t="s">
+      <c r="L8" s="121" t="s">
         <v>242</v>
       </c>
       <c r="M8" s="75" t="s">
@@ -9669,7 +9797,7 @@
       <c r="A9" s="33">
         <v>5</v>
       </c>
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C9" s="86" t="s">
@@ -9681,19 +9809,19 @@
       <c r="E9" s="63" t="s">
         <v>282</v>
       </c>
-      <c r="F9" s="126" t="s">
+      <c r="F9" s="124" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="133" t="s">
+      <c r="G9" s="132" t="s">
         <v>279</v>
       </c>
-      <c r="H9" s="134"/>
-      <c r="I9" s="134"/>
-      <c r="J9" s="135"/>
-      <c r="K9" s="125" t="s">
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
+      <c r="K9" s="123" t="s">
         <v>280</v>
       </c>
-      <c r="L9" s="125" t="s">
+      <c r="L9" s="123" t="s">
         <v>281</v>
       </c>
       <c r="M9" s="75" t="s">
@@ -9712,7 +9840,7 @@
       <c r="A10" s="33">
         <v>6</v>
       </c>
-      <c r="B10" s="121" t="s">
+      <c r="B10" s="119" t="s">
         <v>161</v>
       </c>
       <c r="C10" s="86" t="s">
@@ -9724,19 +9852,19 @@
       <c r="E10" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="F10" s="126" t="s">
+      <c r="F10" s="124" t="s">
         <v>283</v>
       </c>
-      <c r="G10" s="133" t="s">
+      <c r="G10" s="182" t="s">
         <v>284</v>
       </c>
-      <c r="H10" s="134"/>
-      <c r="I10" s="134"/>
-      <c r="J10" s="135"/>
-      <c r="K10" s="125" t="s">
+      <c r="H10" s="183"/>
+      <c r="I10" s="183"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="123" t="s">
         <v>280</v>
       </c>
-      <c r="L10" s="125" t="s">
+      <c r="L10" s="123" t="s">
         <v>281</v>
       </c>
       <c r="M10" s="75" t="s">
@@ -9760,12 +9888,12 @@
       <c r="D11" s="63"/>
       <c r="E11" s="63"/>
       <c r="F11" s="63"/>
-      <c r="G11" s="170"/>
-      <c r="H11" s="171"/>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="125"/>
+      <c r="G11" s="168"/>
+      <c r="H11" s="169"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
+      <c r="K11" s="123"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="75"/>
       <c r="N11" s="74"/>
       <c r="O11" s="80"/>
@@ -9781,12 +9909,12 @@
       <c r="D12" s="63"/>
       <c r="E12" s="63"/>
       <c r="F12" s="63"/>
-      <c r="G12" s="170"/>
-      <c r="H12" s="171"/>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="125"/>
-      <c r="L12" s="125"/>
+      <c r="G12" s="168"/>
+      <c r="H12" s="169"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="170"/>
+      <c r="K12" s="123"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="75"/>
       <c r="N12" s="74"/>
       <c r="O12" s="80"/>
@@ -9802,12 +9930,12 @@
       <c r="D13" s="63"/>
       <c r="E13" s="63"/>
       <c r="F13" s="63"/>
-      <c r="G13" s="170"/>
-      <c r="H13" s="171"/>
-      <c r="I13" s="171"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="125"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="169"/>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
+      <c r="K13" s="123"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="75"/>
       <c r="N13" s="74"/>
       <c r="O13" s="80"/>
@@ -9823,12 +9951,12 @@
       <c r="D14" s="63"/>
       <c r="E14" s="63"/>
       <c r="F14" s="63"/>
-      <c r="G14" s="170"/>
-      <c r="H14" s="171"/>
-      <c r="I14" s="171"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="125"/>
+      <c r="G14" s="168"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
+      <c r="K14" s="123"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="75"/>
       <c r="N14" s="74"/>
       <c r="O14" s="86"/>
@@ -9844,12 +9972,12 @@
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="171"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="125"/>
+      <c r="G15" s="168"/>
+      <c r="H15" s="169"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="170"/>
+      <c r="K15" s="123"/>
+      <c r="L15" s="123"/>
       <c r="M15" s="75"/>
       <c r="N15" s="74"/>
       <c r="O15" s="86"/>
@@ -9865,10 +9993,10 @@
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="170"/>
-      <c r="H16" s="171"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="172"/>
+      <c r="G16" s="168"/>
+      <c r="H16" s="169"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
       <c r="K16" s="71"/>
       <c r="L16" s="60"/>
       <c r="M16" s="75"/>
@@ -9886,10 +10014,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="171"/>
-      <c r="I17" s="171"/>
-      <c r="J17" s="172"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="170"/>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="75"/>
@@ -9907,10 +10035,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="171"/>
-      <c r="I18" s="171"/>
-      <c r="J18" s="172"/>
+      <c r="G18" s="168"/>
+      <c r="H18" s="169"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="170"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="75"/>
@@ -9928,10 +10056,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="171"/>
-      <c r="J19" s="172"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="169"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="170"/>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="75"/>
@@ -9949,10 +10077,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="170"/>
-      <c r="H20" s="171"/>
-      <c r="I20" s="171"/>
-      <c r="J20" s="172"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="169"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="170"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="75"/>
@@ -9970,10 +10098,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
-      <c r="I21" s="171"/>
-      <c r="J21" s="172"/>
+      <c r="G21" s="168"/>
+      <c r="H21" s="169"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="170"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="75"/>
@@ -9991,10 +10119,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
-      <c r="I22" s="171"/>
-      <c r="J22" s="172"/>
+      <c r="G22" s="168"/>
+      <c r="H22" s="169"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="75"/>
@@ -10012,10 +10140,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="170"/>
-      <c r="H23" s="171"/>
-      <c r="I23" s="171"/>
-      <c r="J23" s="172"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="169"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="75"/>
@@ -10033,10 +10161,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="170"/>
-      <c r="H24" s="171"/>
-      <c r="I24" s="171"/>
-      <c r="J24" s="172"/>
+      <c r="G24" s="168"/>
+      <c r="H24" s="169"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="170"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="75"/>
@@ -10054,10 +10182,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="170"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="172"/>
+      <c r="G25" s="168"/>
+      <c r="H25" s="169"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="170"/>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="75"/>
@@ -10075,10 +10203,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="170"/>
-      <c r="H26" s="171"/>
-      <c r="I26" s="171"/>
-      <c r="J26" s="172"/>
+      <c r="G26" s="168"/>
+      <c r="H26" s="169"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="170"/>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="75"/>
@@ -10096,10 +10224,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="170"/>
-      <c r="H27" s="171"/>
-      <c r="I27" s="171"/>
-      <c r="J27" s="172"/>
+      <c r="G27" s="168"/>
+      <c r="H27" s="169"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="75"/>
@@ -10117,10 +10245,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="170"/>
-      <c r="H28" s="171"/>
-      <c r="I28" s="171"/>
-      <c r="J28" s="172"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="169"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="170"/>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
       <c r="M28" s="75"/>
@@ -10138,10 +10266,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="170"/>
-      <c r="H29" s="171"/>
-      <c r="I29" s="171"/>
-      <c r="J29" s="172"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="169"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="75"/>
@@ -10159,10 +10287,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="171"/>
-      <c r="J30" s="172"/>
+      <c r="G30" s="168"/>
+      <c r="H30" s="169"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="170"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
       <c r="M30" s="75"/>
@@ -10180,10 +10308,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="170"/>
-      <c r="H31" s="171"/>
-      <c r="I31" s="171"/>
-      <c r="J31" s="172"/>
+      <c r="G31" s="168"/>
+      <c r="H31" s="169"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="75"/>
@@ -10201,10 +10329,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="171"/>
-      <c r="I32" s="171"/>
-      <c r="J32" s="172"/>
+      <c r="G32" s="168"/>
+      <c r="H32" s="169"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="75"/>
@@ -10222,10 +10350,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="171"/>
-      <c r="J33" s="172"/>
+      <c r="G33" s="168"/>
+      <c r="H33" s="169"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="75"/>
@@ -10243,10 +10371,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="171"/>
-      <c r="I34" s="171"/>
-      <c r="J34" s="172"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="169"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
       <c r="K34" s="83"/>
       <c r="L34" s="83"/>
       <c r="M34" s="75"/>
@@ -10264,10 +10392,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="171"/>
-      <c r="I35" s="171"/>
-      <c r="J35" s="172"/>
+      <c r="G35" s="168"/>
+      <c r="H35" s="169"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="170"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="75"/>
@@ -10285,10 +10413,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="171"/>
-      <c r="I36" s="171"/>
-      <c r="J36" s="172"/>
+      <c r="G36" s="168"/>
+      <c r="H36" s="169"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="75"/>
@@ -10306,10 +10434,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="170"/>
-      <c r="H37" s="171"/>
-      <c r="I37" s="171"/>
-      <c r="J37" s="172"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="169"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="75"/>
@@ -10327,10 +10455,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="170"/>
-      <c r="H38" s="171"/>
-      <c r="I38" s="171"/>
-      <c r="J38" s="172"/>
+      <c r="G38" s="168"/>
+      <c r="H38" s="169"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="170"/>
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
       <c r="M38" s="75"/>
@@ -10348,10 +10476,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="170"/>
-      <c r="H39" s="171"/>
-      <c r="I39" s="171"/>
-      <c r="J39" s="172"/>
+      <c r="G39" s="168"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="170"/>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
       <c r="M39" s="75"/>
@@ -10369,10 +10497,10 @@
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="170"/>
-      <c r="H40" s="171"/>
-      <c r="I40" s="171"/>
-      <c r="J40" s="172"/>
+      <c r="G40" s="168"/>
+      <c r="H40" s="169"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="170"/>
       <c r="K40" s="73"/>
       <c r="L40" s="73"/>
       <c r="M40" s="75"/>
@@ -10390,10 +10518,10 @@
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="170"/>
-      <c r="H41" s="171"/>
-      <c r="I41" s="171"/>
-      <c r="J41" s="172"/>
+      <c r="G41" s="168"/>
+      <c r="H41" s="169"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="170"/>
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
       <c r="M41" s="75"/>
@@ -10411,10 +10539,10 @@
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="170"/>
-      <c r="H42" s="171"/>
-      <c r="I42" s="171"/>
-      <c r="J42" s="172"/>
+      <c r="G42" s="168"/>
+      <c r="H42" s="169"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="170"/>
       <c r="K42" s="73"/>
       <c r="L42" s="73"/>
       <c r="M42" s="75"/>
@@ -10432,10 +10560,10 @@
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="170"/>
-      <c r="H43" s="171"/>
-      <c r="I43" s="171"/>
-      <c r="J43" s="172"/>
+      <c r="G43" s="168"/>
+      <c r="H43" s="169"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="170"/>
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
       <c r="M43" s="75"/>
@@ -10453,10 +10581,10 @@
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="171"/>
-      <c r="J44" s="172"/>
+      <c r="G44" s="168"/>
+      <c r="H44" s="169"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="170"/>
       <c r="K44" s="73"/>
       <c r="L44" s="73"/>
       <c r="M44" s="75"/>
@@ -10474,10 +10602,10 @@
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="170"/>
-      <c r="H45" s="171"/>
-      <c r="I45" s="171"/>
-      <c r="J45" s="172"/>
+      <c r="G45" s="168"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="170"/>
       <c r="K45" s="73"/>
       <c r="L45" s="73"/>
       <c r="M45" s="75"/>
@@ -10495,10 +10623,10 @@
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="170"/>
-      <c r="H46" s="171"/>
-      <c r="I46" s="171"/>
-      <c r="J46" s="172"/>
+      <c r="G46" s="168"/>
+      <c r="H46" s="169"/>
+      <c r="I46" s="169"/>
+      <c r="J46" s="170"/>
       <c r="K46" s="73"/>
       <c r="L46" s="73"/>
       <c r="M46" s="75"/>
@@ -10516,10 +10644,10 @@
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="170"/>
-      <c r="H47" s="171"/>
-      <c r="I47" s="171"/>
-      <c r="J47" s="172"/>
+      <c r="G47" s="168"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="170"/>
       <c r="K47" s="73"/>
       <c r="L47" s="73"/>
       <c r="M47" s="75"/>
@@ -10537,10 +10665,10 @@
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
       <c r="F48" s="40"/>
-      <c r="G48" s="170"/>
-      <c r="H48" s="171"/>
-      <c r="I48" s="171"/>
-      <c r="J48" s="172"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="169"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="170"/>
       <c r="K48" s="73"/>
       <c r="L48" s="73"/>
       <c r="M48" s="75"/>
@@ -10558,10 +10686,10 @@
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="170"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="172"/>
+      <c r="G49" s="168"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="170"/>
       <c r="K49" s="73"/>
       <c r="L49" s="73"/>
       <c r="M49" s="75"/>
@@ -10579,10 +10707,10 @@
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="170"/>
-      <c r="H50" s="171"/>
-      <c r="I50" s="171"/>
-      <c r="J50" s="172"/>
+      <c r="G50" s="168"/>
+      <c r="H50" s="169"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="170"/>
       <c r="K50" s="73"/>
       <c r="L50" s="73"/>
       <c r="M50" s="75"/>
@@ -10600,10 +10728,10 @@
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="170"/>
-      <c r="H51" s="171"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="172"/>
+      <c r="G51" s="168"/>
+      <c r="H51" s="169"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="170"/>
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
       <c r="M51" s="75"/>
@@ -10621,10 +10749,10 @@
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="170"/>
-      <c r="H52" s="171"/>
-      <c r="I52" s="171"/>
-      <c r="J52" s="172"/>
+      <c r="G52" s="168"/>
+      <c r="H52" s="169"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="170"/>
       <c r="K52" s="73"/>
       <c r="L52" s="73"/>
       <c r="M52" s="75"/>
@@ -10642,10 +10770,10 @@
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="40"/>
-      <c r="G53" s="170"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="172"/>
+      <c r="G53" s="168"/>
+      <c r="H53" s="169"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="170"/>
       <c r="K53" s="73"/>
       <c r="L53" s="73"/>
       <c r="M53" s="75"/>
@@ -10663,10 +10791,10 @@
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="170"/>
-      <c r="H54" s="171"/>
-      <c r="I54" s="171"/>
-      <c r="J54" s="172"/>
+      <c r="G54" s="168"/>
+      <c r="H54" s="169"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="170"/>
       <c r="K54" s="73"/>
       <c r="L54" s="73"/>
       <c r="M54" s="75"/>
@@ -10684,10 +10812,10 @@
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="40"/>
-      <c r="G55" s="170"/>
-      <c r="H55" s="171"/>
-      <c r="I55" s="171"/>
-      <c r="J55" s="172"/>
+      <c r="G55" s="168"/>
+      <c r="H55" s="169"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="170"/>
       <c r="K55" s="73"/>
       <c r="L55" s="73"/>
       <c r="M55" s="75"/>
@@ -10705,10 +10833,10 @@
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
       <c r="F56" s="40"/>
-      <c r="G56" s="170"/>
-      <c r="H56" s="171"/>
-      <c r="I56" s="171"/>
-      <c r="J56" s="172"/>
+      <c r="G56" s="168"/>
+      <c r="H56" s="169"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="170"/>
       <c r="K56" s="73"/>
       <c r="L56" s="73"/>
       <c r="M56" s="75"/>
@@ -10726,10 +10854,10 @@
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
       <c r="F57" s="40"/>
-      <c r="G57" s="170"/>
-      <c r="H57" s="171"/>
-      <c r="I57" s="171"/>
-      <c r="J57" s="172"/>
+      <c r="G57" s="168"/>
+      <c r="H57" s="169"/>
+      <c r="I57" s="169"/>
+      <c r="J57" s="170"/>
       <c r="K57" s="73"/>
       <c r="L57" s="73"/>
       <c r="M57" s="75"/>
@@ -10747,10 +10875,10 @@
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="40"/>
-      <c r="G58" s="170"/>
-      <c r="H58" s="171"/>
-      <c r="I58" s="171"/>
-      <c r="J58" s="172"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="169"/>
+      <c r="I58" s="169"/>
+      <c r="J58" s="170"/>
       <c r="K58" s="73"/>
       <c r="L58" s="73"/>
       <c r="M58" s="75"/>
@@ -10768,10 +10896,10 @@
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="40"/>
-      <c r="G59" s="170"/>
-      <c r="H59" s="171"/>
-      <c r="I59" s="171"/>
-      <c r="J59" s="172"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="169"/>
+      <c r="I59" s="169"/>
+      <c r="J59" s="170"/>
       <c r="K59" s="73"/>
       <c r="L59" s="73"/>
       <c r="M59" s="75"/>
@@ -10789,10 +10917,10 @@
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="170"/>
-      <c r="H60" s="171"/>
-      <c r="I60" s="171"/>
-      <c r="J60" s="172"/>
+      <c r="G60" s="168"/>
+      <c r="H60" s="169"/>
+      <c r="I60" s="169"/>
+      <c r="J60" s="170"/>
       <c r="K60" s="73"/>
       <c r="L60" s="73"/>
       <c r="M60" s="75"/>
@@ -10810,10 +10938,10 @@
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="40"/>
-      <c r="G61" s="170"/>
-      <c r="H61" s="171"/>
-      <c r="I61" s="171"/>
-      <c r="J61" s="172"/>
+      <c r="G61" s="168"/>
+      <c r="H61" s="169"/>
+      <c r="I61" s="169"/>
+      <c r="J61" s="170"/>
       <c r="K61" s="73"/>
       <c r="L61" s="73"/>
       <c r="M61" s="75"/>
@@ -10831,10 +10959,10 @@
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
       <c r="F62" s="40"/>
-      <c r="G62" s="170"/>
-      <c r="H62" s="171"/>
-      <c r="I62" s="171"/>
-      <c r="J62" s="172"/>
+      <c r="G62" s="168"/>
+      <c r="H62" s="169"/>
+      <c r="I62" s="169"/>
+      <c r="J62" s="170"/>
       <c r="K62" s="82"/>
       <c r="L62" s="82"/>
       <c r="M62" s="75"/>
@@ -10852,10 +10980,10 @@
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
       <c r="F63" s="40"/>
-      <c r="G63" s="170"/>
-      <c r="H63" s="171"/>
-      <c r="I63" s="171"/>
-      <c r="J63" s="172"/>
+      <c r="G63" s="168"/>
+      <c r="H63" s="169"/>
+      <c r="I63" s="169"/>
+      <c r="J63" s="170"/>
       <c r="K63" s="82"/>
       <c r="L63" s="82"/>
       <c r="M63" s="75"/>
@@ -10873,10 +11001,10 @@
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
       <c r="F64" s="40"/>
-      <c r="G64" s="170"/>
-      <c r="H64" s="171"/>
-      <c r="I64" s="171"/>
-      <c r="J64" s="172"/>
+      <c r="G64" s="168"/>
+      <c r="H64" s="169"/>
+      <c r="I64" s="169"/>
+      <c r="J64" s="170"/>
       <c r="K64" s="82"/>
       <c r="L64" s="82"/>
       <c r="M64" s="75"/>
@@ -10892,10 +11020,10 @@
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="40"/>
-      <c r="G65" s="170"/>
-      <c r="H65" s="171"/>
-      <c r="I65" s="171"/>
-      <c r="J65" s="172"/>
+      <c r="G65" s="168"/>
+      <c r="H65" s="169"/>
+      <c r="I65" s="169"/>
+      <c r="J65" s="170"/>
       <c r="K65" s="82"/>
       <c r="L65" s="82"/>
       <c r="M65" s="75"/>
@@ -10911,10 +11039,10 @@
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
       <c r="F66" s="40"/>
-      <c r="G66" s="170"/>
-      <c r="H66" s="171"/>
-      <c r="I66" s="171"/>
-      <c r="J66" s="172"/>
+      <c r="G66" s="168"/>
+      <c r="H66" s="169"/>
+      <c r="I66" s="169"/>
+      <c r="J66" s="170"/>
       <c r="K66" s="82"/>
       <c r="L66" s="82"/>
       <c r="M66" s="75"/>
@@ -10930,10 +11058,10 @@
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
       <c r="F67" s="40"/>
-      <c r="G67" s="170"/>
-      <c r="H67" s="171"/>
-      <c r="I67" s="171"/>
-      <c r="J67" s="172"/>
+      <c r="G67" s="168"/>
+      <c r="H67" s="169"/>
+      <c r="I67" s="169"/>
+      <c r="J67" s="170"/>
       <c r="K67" s="82"/>
       <c r="L67" s="82"/>
       <c r="M67" s="75"/>
@@ -10949,10 +11077,10 @@
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
       <c r="F68" s="40"/>
-      <c r="G68" s="170"/>
-      <c r="H68" s="171"/>
-      <c r="I68" s="171"/>
-      <c r="J68" s="172"/>
+      <c r="G68" s="168"/>
+      <c r="H68" s="169"/>
+      <c r="I68" s="169"/>
+      <c r="J68" s="170"/>
       <c r="K68" s="82"/>
       <c r="L68" s="82"/>
       <c r="M68" s="75"/>
@@ -10968,10 +11096,10 @@
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
       <c r="F69" s="40"/>
-      <c r="G69" s="170"/>
-      <c r="H69" s="171"/>
-      <c r="I69" s="171"/>
-      <c r="J69" s="172"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="169"/>
+      <c r="I69" s="169"/>
+      <c r="J69" s="170"/>
       <c r="K69" s="82"/>
       <c r="L69" s="82"/>
       <c r="M69" s="75"/>
@@ -10987,10 +11115,10 @@
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="170"/>
-      <c r="H70" s="171"/>
-      <c r="I70" s="171"/>
-      <c r="J70" s="172"/>
+      <c r="G70" s="168"/>
+      <c r="H70" s="169"/>
+      <c r="I70" s="169"/>
+      <c r="J70" s="170"/>
       <c r="K70" s="82"/>
       <c r="L70" s="82"/>
       <c r="M70" s="75"/>
@@ -11006,10 +11134,10 @@
       <c r="D71" s="63"/>
       <c r="E71" s="63"/>
       <c r="F71" s="40"/>
-      <c r="G71" s="170"/>
-      <c r="H71" s="171"/>
-      <c r="I71" s="171"/>
-      <c r="J71" s="172"/>
+      <c r="G71" s="168"/>
+      <c r="H71" s="169"/>
+      <c r="I71" s="169"/>
+      <c r="J71" s="170"/>
       <c r="K71" s="82"/>
       <c r="L71" s="82"/>
       <c r="M71" s="75"/>
@@ -11025,10 +11153,10 @@
       <c r="D72" s="63"/>
       <c r="E72" s="63"/>
       <c r="F72" s="40"/>
-      <c r="G72" s="170"/>
-      <c r="H72" s="171"/>
-      <c r="I72" s="171"/>
-      <c r="J72" s="172"/>
+      <c r="G72" s="168"/>
+      <c r="H72" s="169"/>
+      <c r="I72" s="169"/>
+      <c r="J72" s="170"/>
       <c r="K72" s="82"/>
       <c r="L72" s="82"/>
       <c r="M72" s="75"/>
@@ -11044,10 +11172,10 @@
       <c r="D73" s="63"/>
       <c r="E73" s="63"/>
       <c r="F73" s="40"/>
-      <c r="G73" s="170"/>
-      <c r="H73" s="171"/>
-      <c r="I73" s="171"/>
-      <c r="J73" s="172"/>
+      <c r="G73" s="168"/>
+      <c r="H73" s="169"/>
+      <c r="I73" s="169"/>
+      <c r="J73" s="170"/>
       <c r="K73" s="82"/>
       <c r="L73" s="82"/>
       <c r="M73" s="75"/>
@@ -11063,10 +11191,10 @@
       <c r="D74" s="63"/>
       <c r="E74" s="63"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="170"/>
-      <c r="H74" s="171"/>
-      <c r="I74" s="171"/>
-      <c r="J74" s="172"/>
+      <c r="G74" s="168"/>
+      <c r="H74" s="169"/>
+      <c r="I74" s="169"/>
+      <c r="J74" s="170"/>
       <c r="K74" s="82"/>
       <c r="L74" s="82"/>
       <c r="M74" s="75"/>
@@ -11082,10 +11210,10 @@
       <c r="D75" s="63"/>
       <c r="E75" s="63"/>
       <c r="F75" s="40"/>
-      <c r="G75" s="170"/>
-      <c r="H75" s="171"/>
-      <c r="I75" s="171"/>
-      <c r="J75" s="172"/>
+      <c r="G75" s="168"/>
+      <c r="H75" s="169"/>
+      <c r="I75" s="169"/>
+      <c r="J75" s="170"/>
       <c r="K75" s="82"/>
       <c r="L75" s="82"/>
       <c r="M75" s="75"/>
@@ -11101,10 +11229,10 @@
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="40"/>
-      <c r="G76" s="170"/>
-      <c r="H76" s="171"/>
-      <c r="I76" s="171"/>
-      <c r="J76" s="172"/>
+      <c r="G76" s="168"/>
+      <c r="H76" s="169"/>
+      <c r="I76" s="169"/>
+      <c r="J76" s="170"/>
       <c r="K76" s="82"/>
       <c r="L76" s="82"/>
       <c r="M76" s="75"/>
@@ -11120,10 +11248,10 @@
       <c r="D77" s="63"/>
       <c r="E77" s="63"/>
       <c r="F77" s="40"/>
-      <c r="G77" s="170"/>
-      <c r="H77" s="171"/>
-      <c r="I77" s="171"/>
-      <c r="J77" s="172"/>
+      <c r="G77" s="168"/>
+      <c r="H77" s="169"/>
+      <c r="I77" s="169"/>
+      <c r="J77" s="170"/>
       <c r="K77" s="82"/>
       <c r="L77" s="82"/>
       <c r="M77" s="75"/>
@@ -11139,10 +11267,10 @@
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="170"/>
-      <c r="H78" s="171"/>
-      <c r="I78" s="171"/>
-      <c r="J78" s="172"/>
+      <c r="G78" s="168"/>
+      <c r="H78" s="169"/>
+      <c r="I78" s="169"/>
+      <c r="J78" s="170"/>
       <c r="K78" s="82"/>
       <c r="L78" s="82"/>
       <c r="M78" s="75"/>
@@ -11158,10 +11286,10 @@
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="40"/>
-      <c r="G79" s="170"/>
-      <c r="H79" s="171"/>
-      <c r="I79" s="171"/>
-      <c r="J79" s="172"/>
+      <c r="G79" s="168"/>
+      <c r="H79" s="169"/>
+      <c r="I79" s="169"/>
+      <c r="J79" s="170"/>
       <c r="K79" s="82"/>
       <c r="L79" s="82"/>
       <c r="M79" s="75"/>
@@ -11177,10 +11305,10 @@
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
       <c r="F80" s="40"/>
-      <c r="G80" s="170"/>
-      <c r="H80" s="171"/>
-      <c r="I80" s="171"/>
-      <c r="J80" s="172"/>
+      <c r="G80" s="168"/>
+      <c r="H80" s="169"/>
+      <c r="I80" s="169"/>
+      <c r="J80" s="170"/>
       <c r="K80" s="82"/>
       <c r="L80" s="82"/>
       <c r="M80" s="75"/>
@@ -11196,10 +11324,10 @@
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="40"/>
-      <c r="G81" s="170"/>
-      <c r="H81" s="171"/>
-      <c r="I81" s="171"/>
-      <c r="J81" s="172"/>
+      <c r="G81" s="168"/>
+      <c r="H81" s="169"/>
+      <c r="I81" s="169"/>
+      <c r="J81" s="170"/>
       <c r="K81" s="82"/>
       <c r="L81" s="82"/>
       <c r="M81" s="75"/>
@@ -11215,10 +11343,10 @@
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="40"/>
-      <c r="G82" s="170"/>
-      <c r="H82" s="171"/>
-      <c r="I82" s="171"/>
-      <c r="J82" s="172"/>
+      <c r="G82" s="168"/>
+      <c r="H82" s="169"/>
+      <c r="I82" s="169"/>
+      <c r="J82" s="170"/>
       <c r="K82" s="82"/>
       <c r="L82" s="82"/>
       <c r="M82" s="75"/>
@@ -11234,10 +11362,10 @@
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="40"/>
-      <c r="G83" s="170"/>
-      <c r="H83" s="171"/>
-      <c r="I83" s="171"/>
-      <c r="J83" s="172"/>
+      <c r="G83" s="168"/>
+      <c r="H83" s="169"/>
+      <c r="I83" s="169"/>
+      <c r="J83" s="170"/>
       <c r="K83" s="82"/>
       <c r="L83" s="82"/>
       <c r="M83" s="75"/>
@@ -11253,10 +11381,10 @@
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
       <c r="F84" s="40"/>
-      <c r="G84" s="170"/>
-      <c r="H84" s="171"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="172"/>
+      <c r="G84" s="168"/>
+      <c r="H84" s="169"/>
+      <c r="I84" s="169"/>
+      <c r="J84" s="170"/>
       <c r="K84" s="82"/>
       <c r="L84" s="82"/>
       <c r="M84" s="75"/>
@@ -11272,10 +11400,10 @@
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="40"/>
-      <c r="G85" s="170"/>
-      <c r="H85" s="171"/>
-      <c r="I85" s="171"/>
-      <c r="J85" s="172"/>
+      <c r="G85" s="168"/>
+      <c r="H85" s="169"/>
+      <c r="I85" s="169"/>
+      <c r="J85" s="170"/>
       <c r="K85" s="82"/>
       <c r="L85" s="82"/>
       <c r="M85" s="75"/>
@@ -11291,10 +11419,10 @@
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="40"/>
-      <c r="G86" s="170"/>
-      <c r="H86" s="171"/>
-      <c r="I86" s="171"/>
-      <c r="J86" s="172"/>
+      <c r="G86" s="168"/>
+      <c r="H86" s="169"/>
+      <c r="I86" s="169"/>
+      <c r="J86" s="170"/>
       <c r="K86" s="82"/>
       <c r="L86" s="82"/>
       <c r="M86" s="75"/>
@@ -11310,10 +11438,10 @@
       <c r="D87" s="63"/>
       <c r="E87" s="63"/>
       <c r="F87" s="40"/>
-      <c r="G87" s="170"/>
-      <c r="H87" s="171"/>
-      <c r="I87" s="171"/>
-      <c r="J87" s="172"/>
+      <c r="G87" s="168"/>
+      <c r="H87" s="169"/>
+      <c r="I87" s="169"/>
+      <c r="J87" s="170"/>
       <c r="K87" s="82"/>
       <c r="L87" s="82"/>
       <c r="M87" s="75"/>
@@ -11329,10 +11457,10 @@
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="40"/>
-      <c r="G88" s="170"/>
-      <c r="H88" s="171"/>
-      <c r="I88" s="171"/>
-      <c r="J88" s="172"/>
+      <c r="G88" s="168"/>
+      <c r="H88" s="169"/>
+      <c r="I88" s="169"/>
+      <c r="J88" s="170"/>
       <c r="K88" s="82"/>
       <c r="L88" s="82"/>
       <c r="M88" s="75"/>
@@ -11348,10 +11476,10 @@
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="40"/>
-      <c r="G89" s="170"/>
-      <c r="H89" s="171"/>
-      <c r="I89" s="171"/>
-      <c r="J89" s="172"/>
+      <c r="G89" s="168"/>
+      <c r="H89" s="169"/>
+      <c r="I89" s="169"/>
+      <c r="J89" s="170"/>
       <c r="K89" s="82"/>
       <c r="L89" s="82"/>
       <c r="M89" s="75"/>
@@ -11367,10 +11495,10 @@
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="170"/>
-      <c r="H90" s="171"/>
-      <c r="I90" s="171"/>
-      <c r="J90" s="172"/>
+      <c r="G90" s="168"/>
+      <c r="H90" s="169"/>
+      <c r="I90" s="169"/>
+      <c r="J90" s="170"/>
       <c r="K90" s="82"/>
       <c r="L90" s="82"/>
       <c r="M90" s="75"/>
@@ -11386,10 +11514,10 @@
       <c r="D91" s="63"/>
       <c r="E91" s="63"/>
       <c r="F91" s="40"/>
-      <c r="G91" s="170"/>
-      <c r="H91" s="171"/>
-      <c r="I91" s="171"/>
-      <c r="J91" s="172"/>
+      <c r="G91" s="168"/>
+      <c r="H91" s="169"/>
+      <c r="I91" s="169"/>
+      <c r="J91" s="170"/>
       <c r="K91" s="82"/>
       <c r="L91" s="82"/>
       <c r="M91" s="75"/>
@@ -11405,10 +11533,10 @@
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="40"/>
-      <c r="G92" s="170"/>
-      <c r="H92" s="171"/>
-      <c r="I92" s="171"/>
-      <c r="J92" s="172"/>
+      <c r="G92" s="168"/>
+      <c r="H92" s="169"/>
+      <c r="I92" s="169"/>
+      <c r="J92" s="170"/>
       <c r="K92" s="82"/>
       <c r="L92" s="82"/>
       <c r="M92" s="75"/>
@@ -11424,10 +11552,10 @@
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="40"/>
-      <c r="G93" s="170"/>
-      <c r="H93" s="171"/>
-      <c r="I93" s="171"/>
-      <c r="J93" s="172"/>
+      <c r="G93" s="168"/>
+      <c r="H93" s="169"/>
+      <c r="I93" s="169"/>
+      <c r="J93" s="170"/>
       <c r="K93" s="82"/>
       <c r="L93" s="82"/>
       <c r="M93" s="75"/>
@@ -11443,10 +11571,10 @@
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="40"/>
-      <c r="G94" s="170"/>
-      <c r="H94" s="171"/>
-      <c r="I94" s="171"/>
-      <c r="J94" s="172"/>
+      <c r="G94" s="168"/>
+      <c r="H94" s="169"/>
+      <c r="I94" s="169"/>
+      <c r="J94" s="170"/>
       <c r="K94" s="82"/>
       <c r="L94" s="82"/>
       <c r="M94" s="75"/>
@@ -11459,11 +11587,79 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="94">
-    <mergeCell ref="G88:J88"/>
-    <mergeCell ref="G89:J89"/>
-    <mergeCell ref="G90:J90"/>
-    <mergeCell ref="G91:J91"/>
-    <mergeCell ref="G92:J92"/>
+    <mergeCell ref="A1:D2"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="G16:J16"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="F1:G1"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="G9:J9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G23:J23"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="G34:J34"/>
+    <mergeCell ref="G35:J35"/>
+    <mergeCell ref="G36:J36"/>
+    <mergeCell ref="G37:J37"/>
+    <mergeCell ref="G38:J38"/>
+    <mergeCell ref="G39:J39"/>
+    <mergeCell ref="G40:J40"/>
+    <mergeCell ref="G41:J41"/>
+    <mergeCell ref="G58:J58"/>
+    <mergeCell ref="G53:J53"/>
+    <mergeCell ref="G59:J59"/>
+    <mergeCell ref="G42:J42"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="G45:J45"/>
+    <mergeCell ref="G46:J46"/>
+    <mergeCell ref="G47:J47"/>
+    <mergeCell ref="G48:J48"/>
+    <mergeCell ref="G49:J49"/>
+    <mergeCell ref="G50:J50"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="G55:J55"/>
+    <mergeCell ref="G56:J56"/>
+    <mergeCell ref="G57:J57"/>
+    <mergeCell ref="G51:J51"/>
+    <mergeCell ref="G52:J52"/>
+    <mergeCell ref="G93:J93"/>
+    <mergeCell ref="G94:J94"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="G78:J78"/>
+    <mergeCell ref="G79:J79"/>
+    <mergeCell ref="G80:J80"/>
+    <mergeCell ref="G81:J81"/>
+    <mergeCell ref="G82:J82"/>
+    <mergeCell ref="G83:J83"/>
+    <mergeCell ref="G84:J84"/>
+    <mergeCell ref="G85:J85"/>
+    <mergeCell ref="G86:J86"/>
+    <mergeCell ref="G69:J69"/>
+    <mergeCell ref="G70:J70"/>
+    <mergeCell ref="G71:J71"/>
     <mergeCell ref="G77:J77"/>
     <mergeCell ref="G60:J60"/>
     <mergeCell ref="G87:J87"/>
@@ -11480,79 +11676,11 @@
     <mergeCell ref="G74:J74"/>
     <mergeCell ref="G75:J75"/>
     <mergeCell ref="G76:J76"/>
-    <mergeCell ref="G93:J93"/>
-    <mergeCell ref="G94:J94"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="G6:J6"/>
-    <mergeCell ref="G78:J78"/>
-    <mergeCell ref="G79:J79"/>
-    <mergeCell ref="G80:J80"/>
-    <mergeCell ref="G81:J81"/>
-    <mergeCell ref="G82:J82"/>
-    <mergeCell ref="G83:J83"/>
-    <mergeCell ref="G84:J84"/>
-    <mergeCell ref="G85:J85"/>
-    <mergeCell ref="G86:J86"/>
-    <mergeCell ref="G69:J69"/>
-    <mergeCell ref="G70:J70"/>
-    <mergeCell ref="G71:J71"/>
-    <mergeCell ref="G59:J59"/>
-    <mergeCell ref="G42:J42"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="G45:J45"/>
-    <mergeCell ref="G46:J46"/>
-    <mergeCell ref="G47:J47"/>
-    <mergeCell ref="G48:J48"/>
-    <mergeCell ref="G49:J49"/>
-    <mergeCell ref="G50:J50"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="G55:J55"/>
-    <mergeCell ref="G56:J56"/>
-    <mergeCell ref="G57:J57"/>
-    <mergeCell ref="G51:J51"/>
-    <mergeCell ref="G52:J52"/>
-    <mergeCell ref="G38:J38"/>
-    <mergeCell ref="G39:J39"/>
-    <mergeCell ref="G40:J40"/>
-    <mergeCell ref="G41:J41"/>
-    <mergeCell ref="G58:J58"/>
-    <mergeCell ref="G53:J53"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="G34:J34"/>
-    <mergeCell ref="G35:J35"/>
-    <mergeCell ref="G36:J36"/>
-    <mergeCell ref="G37:J37"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="G23:J23"/>
-    <mergeCell ref="G24:J24"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="G18:J18"/>
-    <mergeCell ref="G19:J19"/>
-    <mergeCell ref="G20:J20"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="A1:D2"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="G15:J15"/>
-    <mergeCell ref="G16:J16"/>
-    <mergeCell ref="G17:J17"/>
-    <mergeCell ref="G12:J12"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="G7:J7"/>
-    <mergeCell ref="G8:J8"/>
-    <mergeCell ref="G9:J9"/>
-    <mergeCell ref="G10:J10"/>
-    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="G88:J88"/>
+    <mergeCell ref="G89:J89"/>
+    <mergeCell ref="G90:J90"/>
+    <mergeCell ref="G91:J91"/>
+    <mergeCell ref="G92:J92"/>
   </mergeCells>
   <dataValidations count="4">
     <dataValidation allowBlank="1" showDropDown="1" showInputMessage="1" showErrorMessage="1" sqref="M1048467:M1048576 M5:M94"/>
@@ -11581,8 +11709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A19" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11600,10 +11728,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11634,8 +11762,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -12103,7 +12231,7 @@
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="72"/>
       <c r="B38" s="43"/>
-      <c r="C38" s="128" t="s">
+      <c r="C38" s="126" t="s">
         <v>302</v>
       </c>
       <c r="D38" s="84"/>
@@ -12158,7 +12286,7 @@
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="72"/>
-      <c r="B42" s="129" t="s">
+      <c r="B42" s="127" t="s">
         <v>305</v>
       </c>
       <c r="C42" s="43"/>
@@ -13041,10 +13169,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="136" t="s">
+      <c r="A1" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="136"/>
+      <c r="B1" s="135"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13075,8 +13203,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="136"/>
-      <c r="B2" s="136"/>
+      <c r="A2" s="135"/>
+      <c r="B2" s="135"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13490,14 +13618,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="174" t="s">
+      <c r="B1" s="172" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
+      <c r="E1" s="172"/>
+      <c r="F1" s="172"/>
+      <c r="G1" s="172"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -13690,11 +13818,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="175" t="s">
+      <c r="E27" s="173" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="176"/>
-      <c r="G27" s="177"/>
+      <c r="F27" s="174"/>
+      <c r="G27" s="175"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">

--- a/2018/Thao Phuong/02 QL VatTu-MatHang/CF0050_Danh muc mat hang.xlsx
+++ b/2018/Thao Phuong/02 QL VatTu-MatHang/CF0050_Danh muc mat hang.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\SVN\THUCTAP\Thao Phuong\02 QL VatTu-MatHang\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Phuong\Analyze\Phương\Done\SVN-GitHub\Thao Phuong\02 QL VatTu-MatHang\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="9045" tabRatio="836" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Update History" sheetId="4" r:id="rId1"/>
@@ -91,7 +91,7 @@
     <definedName name="項目No">#REF!</definedName>
     <definedName name="項目名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -764,7 +764,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Phan Thanh Hoàng Vũ:</t>
         </r>
@@ -773,10 +773,12 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Thiếu xử lý mô tả</t>
+Thiếu xử lý mô tả
+--&gt; Phương:  Đã xử lý
+</t>
         </r>
       </text>
     </comment>
@@ -912,7 +914,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Phan Thanh Hoàng Vũ:</t>
         </r>
@@ -921,10 +923,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Thiếu check input khi xóa</t>
+Thiếu check input khi xóa
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1064,7 +1067,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>Phan Thanh Hoàng Vũ:</t>
         </r>
@@ -1073,10 +1076,11 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-Thiếu xử lý dùng chung</t>
+Thiếu xử lý dùng chung
+--&gt; Phương: Đã xử lý</t>
         </r>
       </text>
     </comment>
@@ -1088,10 +1092,12 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
-          <t>Phan Thanh Hoàng Vũ:
-Phải tách mổi câu SQL ra riêng không viết chung</t>
+          <t xml:space="preserve">Phan Thanh Hoàng Vũ:
+Phải tách mổi câu SQL ra riêng không viết chung
+--&gt; Phương; Đã xử lý
+</t>
         </r>
       </text>
     </comment>
@@ -1491,7 +1497,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="342">
   <si>
     <t>Detail Design</t>
   </si>
@@ -2434,9 +2440,6 @@
     <t>Delete</t>
   </si>
   <si>
-    <t>Xoá 1 mặt hàng</t>
-  </si>
-  <si>
     <t>@SQL005</t>
   </si>
   <si>
@@ -2447,12 +2450,6 @@
   </si>
   <si>
     <t>Listview item</t>
-  </si>
-  <si>
-    <t>SELECT CONCAT(InventoryTypeID,'-',InventoryTypeName) AS InventoryType FROM AT1301  WITH (NOLOCK)
-    WHERE Disabled = 0 
-          AND DivisionID = @DividionID
-    ORDER BY InventoryTypeID</t>
   </si>
   <si>
     <t>SELECT CONCAT(N'Tổng cộng: ', Count(InventoryID)) AS InventoryID FROM AV1322
@@ -2479,14 +2476,6 @@
   </si>
   <si>
     <t>@SQL006</t>
-  </si>
-  <si>
-    <t>DELETE FROM AT1302 WHERE InventoryID = @InventoryID
- DELETE FROM AT1312 WHERE InventoryID = @InventoryID
- DELETE FROM AT2008 WHERE InventoryID = @InventoryID
- DELETE FROM A00003 WHERE InventoryID = @InventoryID
- DELETE AT1323 WHERE InventoryID = @InventoryID
- SELECT * FROM AV1322 WHERE DivisionID = @DivisionID</t>
   </si>
   <si>
     <t>Cho phép Xem/Thêm/Xoá/Sửa các mặt hàng theo những loại mặt hàng đã được thiết lập.</t>
@@ -2617,9 +2606,6 @@
     <t xml:space="preserve"> Thực thi câu @SQL005 đẻ kiểm tra tình trạng sử dụng dữ liệu</t>
   </si>
   <si>
-    <t>Thực thi câu @SQL006 để tiến hành xoá dữ liệu</t>
-  </si>
-  <si>
     <t>- Sự kiện trong Grid: Doubleclick vào bất kỳ dòng dữ liệu nào thì truyền tham số @InventoryID để gọi đến form CF0058</t>
   </si>
   <si>
@@ -2637,11 +2623,83 @@
   <si>
     <t>5.10</t>
   </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Require</t>
+  </si>
+  <si>
+    <t>CFML000038</t>
+  </si>
+  <si>
+    <t>Menu item [Xoá]</t>
+  </si>
+  <si>
+    <t>Biến môi trường</t>
+  </si>
+  <si>
+    <t>SELECT CONCAT(InventoryTypeID,'-',InventoryTypeName) AS InventoryType FROM AT1301  WITH (NOLOCK)
+    WHERE Disabled = 0
+          AND DivisionID IN (@DivisionID,'@@@')
+    ORDER BY InventoryTypeID</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> DELETE FROM AT1312 WHERE InventoryID = @InventoryID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM AT2008 WHERE InventoryID = @InventoryID </t>
+  </si>
+  <si>
+    <t>DELETE FROM A00003 WHERE InventoryID = @InventoryID</t>
+  </si>
+  <si>
+    <t>DELETE AT1323 WHERE InventoryID = @InventoryID</t>
+  </si>
+  <si>
+    <t>@SQL007</t>
+  </si>
+  <si>
+    <t>@SQL008</t>
+  </si>
+  <si>
+    <t>@SQL009</t>
+  </si>
+  <si>
+    <t>@SQL010</t>
+  </si>
+  <si>
+    <t>Xoá  tài khoản tồn kho của mặt hàng</t>
+  </si>
+  <si>
+    <t>Xoá số sư hàng tồn kho qua các tháng của mặt hàng</t>
+  </si>
+  <si>
+    <t>Xoá thông tin mặt hàng trong danh mục hàng tồn kho</t>
+  </si>
+  <si>
+    <t>Xoá thông tin ảnh mặt hàng</t>
+  </si>
+  <si>
+    <t>Xoá thông tin quy cách của mặt hàng</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DELETE FROM AT1302 WHERE InventoryID = @InventoryID
+AND DivisionID = @DivisionID
+ </t>
+  </si>
+  <si>
+    <t>Biến môi trường (Nếu có dùng chung thì sử dụng '@@@', ngược lại sử dụng @DivisionID)
+@InventoryID</t>
+  </si>
+  <si>
+    <t>Thực thi câu @SQL006, @SQL007, @SQL008, @SQL009, @SQL010 để tiến hành xoá dữ liệu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
@@ -2795,14 +2853,14 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -2891,7 +2949,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -3109,6 +3167,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -3121,7 +3190,7 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="182">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3434,9 +3503,18 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -3566,6 +3644,15 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3576,33 +3663,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3653,7 +3713,7 @@
                   <a14:compatExt spid="_x0000_s5142"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016140000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000016140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3708,7 +3768,7 @@
                   <a14:compatExt spid="_x0000_s5143"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017140000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000017140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3763,7 +3823,7 @@
                   <a14:compatExt spid="_x0000_s5144"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018140000}"/>
+                  <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000018140000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -3917,23 +3977,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -3969,23 +4012,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -4164,7 +4190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E27" sqref="E27:J27"/>
     </sheetView>
   </sheetViews>
@@ -4181,10 +4207,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="138"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -4211,8 +4237,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -4251,14 +4277,14 @@
       <c r="D4" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="E4" s="136" t="s">
+      <c r="E4" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="136"/>
-      <c r="I4" s="136"/>
-      <c r="J4" s="136"/>
+      <c r="F4" s="139"/>
+      <c r="G4" s="139"/>
+      <c r="H4" s="139"/>
+      <c r="I4" s="139"/>
+      <c r="J4" s="139"/>
     </row>
     <row r="5" spans="1:10" ht="11.25">
       <c r="A5" s="40">
@@ -4273,14 +4299,14 @@
       <c r="D5" s="98" t="s">
         <v>153</v>
       </c>
-      <c r="E5" s="137" t="s">
+      <c r="E5" s="140" t="s">
         <v>155</v>
       </c>
-      <c r="F5" s="128"/>
-      <c r="G5" s="128"/>
-      <c r="H5" s="128"/>
-      <c r="I5" s="128"/>
-      <c r="J5" s="128"/>
+      <c r="F5" s="131"/>
+      <c r="G5" s="131"/>
+      <c r="H5" s="131"/>
+      <c r="I5" s="131"/>
+      <c r="J5" s="131"/>
     </row>
     <row r="6" spans="1:10" ht="12.75">
       <c r="A6" s="88">
@@ -4291,12 +4317,12 @@
       </c>
       <c r="C6" s="77"/>
       <c r="D6" s="65"/>
-      <c r="E6" s="138"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="140"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
+      <c r="I6" s="142"/>
+      <c r="J6" s="143"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="89">
@@ -4307,12 +4333,12 @@
       </c>
       <c r="C7" s="78"/>
       <c r="D7" s="40"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="131"/>
+      <c r="E7" s="132"/>
+      <c r="F7" s="133"/>
+      <c r="G7" s="133"/>
+      <c r="H7" s="133"/>
+      <c r="I7" s="133"/>
+      <c r="J7" s="134"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="90">
@@ -4323,12 +4349,12 @@
       </c>
       <c r="C8" s="78"/>
       <c r="D8" s="40"/>
-      <c r="E8" s="132"/>
-      <c r="F8" s="133"/>
-      <c r="G8" s="133"/>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="136"/>
+      <c r="G8" s="136"/>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="91">
@@ -4339,12 +4365,12 @@
       </c>
       <c r="C9" s="78"/>
       <c r="D9" s="40"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="131"/>
+      <c r="E9" s="132"/>
+      <c r="F9" s="133"/>
+      <c r="G9" s="133"/>
+      <c r="H9" s="133"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="134"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="92">
@@ -4355,12 +4381,12 @@
       </c>
       <c r="C10" s="78"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="131"/>
+      <c r="E10" s="132"/>
+      <c r="F10" s="133"/>
+      <c r="G10" s="133"/>
+      <c r="H10" s="133"/>
+      <c r="I10" s="133"/>
+      <c r="J10" s="134"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="93">
@@ -4371,12 +4397,12 @@
       </c>
       <c r="C11" s="78"/>
       <c r="D11" s="40"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="130"/>
-      <c r="G11" s="130"/>
-      <c r="H11" s="130"/>
-      <c r="I11" s="130"/>
-      <c r="J11" s="131"/>
+      <c r="E11" s="132"/>
+      <c r="F11" s="133"/>
+      <c r="G11" s="133"/>
+      <c r="H11" s="133"/>
+      <c r="I11" s="133"/>
+      <c r="J11" s="134"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="94">
@@ -4387,12 +4413,12 @@
       </c>
       <c r="C12" s="78"/>
       <c r="D12" s="40"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="130"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="130"/>
-      <c r="I12" s="130"/>
-      <c r="J12" s="131"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="133"/>
+      <c r="G12" s="133"/>
+      <c r="H12" s="133"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="134"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="95">
@@ -4403,12 +4429,12 @@
       </c>
       <c r="C13" s="78"/>
       <c r="D13" s="40"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="130"/>
-      <c r="H13" s="130"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="131"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="133"/>
+      <c r="G13" s="133"/>
+      <c r="H13" s="133"/>
+      <c r="I13" s="133"/>
+      <c r="J13" s="134"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="96">
@@ -4419,12 +4445,12 @@
       </c>
       <c r="C14" s="78"/>
       <c r="D14" s="40"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="130"/>
-      <c r="H14" s="130"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="131"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="133"/>
+      <c r="G14" s="133"/>
+      <c r="H14" s="133"/>
+      <c r="I14" s="133"/>
+      <c r="J14" s="134"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="40">
@@ -4435,12 +4461,12 @@
       </c>
       <c r="C15" s="78"/>
       <c r="D15" s="40"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="128"/>
-      <c r="G15" s="128"/>
-      <c r="H15" s="128"/>
-      <c r="I15" s="128"/>
-      <c r="J15" s="128"/>
+      <c r="E15" s="131"/>
+      <c r="F15" s="131"/>
+      <c r="G15" s="131"/>
+      <c r="H15" s="131"/>
+      <c r="I15" s="131"/>
+      <c r="J15" s="131"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="88">
@@ -4451,12 +4477,12 @@
       </c>
       <c r="C16" s="78"/>
       <c r="D16" s="40"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
-      <c r="I16" s="128"/>
-      <c r="J16" s="128"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="131"/>
+      <c r="J16" s="131"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="89">
@@ -4467,12 +4493,12 @@
       </c>
       <c r="C17" s="78"/>
       <c r="D17" s="40"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="128"/>
-      <c r="G17" s="128"/>
-      <c r="H17" s="128"/>
-      <c r="I17" s="128"/>
-      <c r="J17" s="128"/>
+      <c r="E17" s="131"/>
+      <c r="F17" s="131"/>
+      <c r="G17" s="131"/>
+      <c r="H17" s="131"/>
+      <c r="I17" s="131"/>
+      <c r="J17" s="131"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="90">
@@ -4483,12 +4509,12 @@
       </c>
       <c r="C18" s="78"/>
       <c r="D18" s="40"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="128"/>
-      <c r="G18" s="128"/>
-      <c r="H18" s="128"/>
-      <c r="I18" s="128"/>
-      <c r="J18" s="128"/>
+      <c r="E18" s="131"/>
+      <c r="F18" s="131"/>
+      <c r="G18" s="131"/>
+      <c r="H18" s="131"/>
+      <c r="I18" s="131"/>
+      <c r="J18" s="131"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="91">
@@ -4499,12 +4525,12 @@
       </c>
       <c r="C19" s="78"/>
       <c r="D19" s="40"/>
-      <c r="E19" s="128"/>
-      <c r="F19" s="128"/>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128"/>
-      <c r="I19" s="128"/>
-      <c r="J19" s="128"/>
+      <c r="E19" s="131"/>
+      <c r="F19" s="131"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="131"/>
+      <c r="J19" s="131"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="92">
@@ -4515,12 +4541,12 @@
       </c>
       <c r="C20" s="78"/>
       <c r="D20" s="40"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="128"/>
-      <c r="G20" s="128"/>
-      <c r="H20" s="128"/>
-      <c r="I20" s="128"/>
-      <c r="J20" s="128"/>
+      <c r="E20" s="131"/>
+      <c r="F20" s="131"/>
+      <c r="G20" s="131"/>
+      <c r="H20" s="131"/>
+      <c r="I20" s="131"/>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="93">
@@ -4531,12 +4557,12 @@
       </c>
       <c r="C21" s="78"/>
       <c r="D21" s="40"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="128"/>
-      <c r="G21" s="128"/>
-      <c r="H21" s="128"/>
-      <c r="I21" s="128"/>
-      <c r="J21" s="128"/>
+      <c r="E21" s="131"/>
+      <c r="F21" s="131"/>
+      <c r="G21" s="131"/>
+      <c r="H21" s="131"/>
+      <c r="I21" s="131"/>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="94">
@@ -4547,12 +4573,12 @@
       </c>
       <c r="C22" s="78"/>
       <c r="D22" s="40"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-      <c r="I22" s="128"/>
-      <c r="J22" s="128"/>
+      <c r="E22" s="131"/>
+      <c r="F22" s="131"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="131"/>
+      <c r="J22" s="131"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="95">
@@ -4563,12 +4589,12 @@
       </c>
       <c r="C23" s="78"/>
       <c r="D23" s="40"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="128"/>
-      <c r="G23" s="128"/>
-      <c r="H23" s="128"/>
-      <c r="I23" s="128"/>
-      <c r="J23" s="128"/>
+      <c r="E23" s="131"/>
+      <c r="F23" s="131"/>
+      <c r="G23" s="131"/>
+      <c r="H23" s="131"/>
+      <c r="I23" s="131"/>
+      <c r="J23" s="131"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="96">
@@ -4579,12 +4605,12 @@
       </c>
       <c r="C24" s="78"/>
       <c r="D24" s="40"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="128"/>
-      <c r="G24" s="128"/>
-      <c r="H24" s="128"/>
-      <c r="I24" s="128"/>
-      <c r="J24" s="128"/>
+      <c r="E24" s="131"/>
+      <c r="F24" s="131"/>
+      <c r="G24" s="131"/>
+      <c r="H24" s="131"/>
+      <c r="I24" s="131"/>
+      <c r="J24" s="131"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="40">
@@ -4595,12 +4621,12 @@
       </c>
       <c r="C25" s="78"/>
       <c r="D25" s="40"/>
-      <c r="E25" s="128"/>
-      <c r="F25" s="128"/>
-      <c r="G25" s="128"/>
-      <c r="H25" s="128"/>
-      <c r="I25" s="128"/>
-      <c r="J25" s="128"/>
+      <c r="E25" s="131"/>
+      <c r="F25" s="131"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="131"/>
+      <c r="J25" s="131"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="40">
@@ -4611,12 +4637,12 @@
       </c>
       <c r="C26" s="78"/>
       <c r="D26" s="40"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="128"/>
-      <c r="G26" s="128"/>
-      <c r="H26" s="128"/>
-      <c r="I26" s="128"/>
-      <c r="J26" s="128"/>
+      <c r="E26" s="131"/>
+      <c r="F26" s="131"/>
+      <c r="G26" s="131"/>
+      <c r="H26" s="131"/>
+      <c r="I26" s="131"/>
+      <c r="J26" s="131"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="88">
@@ -4627,12 +4653,12 @@
       </c>
       <c r="C27" s="78"/>
       <c r="D27" s="40"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="131"/>
+      <c r="G27" s="131"/>
+      <c r="H27" s="131"/>
+      <c r="I27" s="131"/>
+      <c r="J27" s="131"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="89">
@@ -4643,12 +4669,12 @@
       </c>
       <c r="C28" s="78"/>
       <c r="D28" s="40"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="90">
@@ -4659,12 +4685,12 @@
       </c>
       <c r="C29" s="78"/>
       <c r="D29" s="40"/>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
+      <c r="E29" s="131"/>
+      <c r="F29" s="131"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="131"/>
+      <c r="J29" s="131"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="91">
@@ -4675,12 +4701,12 @@
       </c>
       <c r="C30" s="78"/>
       <c r="D30" s="40"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
+      <c r="E30" s="131"/>
+      <c r="F30" s="131"/>
+      <c r="G30" s="131"/>
+      <c r="H30" s="131"/>
+      <c r="I30" s="131"/>
+      <c r="J30" s="131"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="92">
@@ -4691,12 +4717,12 @@
       </c>
       <c r="C31" s="78"/>
       <c r="D31" s="40"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
+      <c r="E31" s="131"/>
+      <c r="F31" s="131"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="131"/>
+      <c r="I31" s="131"/>
+      <c r="J31" s="131"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="93">
@@ -4707,12 +4733,12 @@
       </c>
       <c r="C32" s="78"/>
       <c r="D32" s="40"/>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
+      <c r="E32" s="131"/>
+      <c r="F32" s="131"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="131"/>
+      <c r="J32" s="131"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="94">
@@ -4723,12 +4749,12 @@
       </c>
       <c r="C33" s="78"/>
       <c r="D33" s="40"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
+      <c r="E33" s="131"/>
+      <c r="F33" s="131"/>
+      <c r="G33" s="131"/>
+      <c r="H33" s="131"/>
+      <c r="I33" s="131"/>
+      <c r="J33" s="131"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="95">
@@ -4739,12 +4765,12 @@
       </c>
       <c r="C34" s="78"/>
       <c r="D34" s="40"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
+      <c r="E34" s="131"/>
+      <c r="F34" s="131"/>
+      <c r="G34" s="131"/>
+      <c r="H34" s="131"/>
+      <c r="I34" s="131"/>
+      <c r="J34" s="131"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="96">
@@ -4755,12 +4781,12 @@
       </c>
       <c r="C35" s="78"/>
       <c r="D35" s="40"/>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
+      <c r="E35" s="131"/>
+      <c r="F35" s="131"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="131"/>
+      <c r="J35" s="131"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="40">
@@ -4771,12 +4797,12 @@
       </c>
       <c r="C36" s="78"/>
       <c r="D36" s="40"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="128"/>
-      <c r="G36" s="128"/>
-      <c r="H36" s="128"/>
-      <c r="I36" s="128"/>
-      <c r="J36" s="128"/>
+      <c r="E36" s="131"/>
+      <c r="F36" s="131"/>
+      <c r="G36" s="131"/>
+      <c r="H36" s="131"/>
+      <c r="I36" s="131"/>
+      <c r="J36" s="131"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="88">
@@ -4787,12 +4813,12 @@
       </c>
       <c r="C37" s="78"/>
       <c r="D37" s="40"/>
-      <c r="E37" s="128"/>
-      <c r="F37" s="128"/>
-      <c r="G37" s="128"/>
-      <c r="H37" s="128"/>
-      <c r="I37" s="128"/>
-      <c r="J37" s="128"/>
+      <c r="E37" s="131"/>
+      <c r="F37" s="131"/>
+      <c r="G37" s="131"/>
+      <c r="H37" s="131"/>
+      <c r="I37" s="131"/>
+      <c r="J37" s="131"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="89">
@@ -4803,12 +4829,12 @@
       </c>
       <c r="C38" s="78"/>
       <c r="D38" s="40"/>
-      <c r="E38" s="128"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="128"/>
-      <c r="H38" s="128"/>
-      <c r="I38" s="128"/>
-      <c r="J38" s="128"/>
+      <c r="E38" s="131"/>
+      <c r="F38" s="131"/>
+      <c r="G38" s="131"/>
+      <c r="H38" s="131"/>
+      <c r="I38" s="131"/>
+      <c r="J38" s="131"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="90">
@@ -4819,12 +4845,12 @@
       </c>
       <c r="C39" s="78"/>
       <c r="D39" s="40"/>
-      <c r="E39" s="128"/>
-      <c r="F39" s="128"/>
-      <c r="G39" s="128"/>
-      <c r="H39" s="128"/>
-      <c r="I39" s="128"/>
-      <c r="J39" s="128"/>
+      <c r="E39" s="131"/>
+      <c r="F39" s="131"/>
+      <c r="G39" s="131"/>
+      <c r="H39" s="131"/>
+      <c r="I39" s="131"/>
+      <c r="J39" s="131"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="91">
@@ -4835,12 +4861,12 @@
       </c>
       <c r="C40" s="78"/>
       <c r="D40" s="40"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="128"/>
-      <c r="G40" s="128"/>
-      <c r="H40" s="128"/>
-      <c r="I40" s="128"/>
-      <c r="J40" s="128"/>
+      <c r="E40" s="131"/>
+      <c r="F40" s="131"/>
+      <c r="G40" s="131"/>
+      <c r="H40" s="131"/>
+      <c r="I40" s="131"/>
+      <c r="J40" s="131"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="92">
@@ -4851,12 +4877,12 @@
       </c>
       <c r="C41" s="78"/>
       <c r="D41" s="40"/>
-      <c r="E41" s="128"/>
-      <c r="F41" s="128"/>
-      <c r="G41" s="128"/>
-      <c r="H41" s="128"/>
-      <c r="I41" s="128"/>
-      <c r="J41" s="128"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="131"/>
+      <c r="G41" s="131"/>
+      <c r="H41" s="131"/>
+      <c r="I41" s="131"/>
+      <c r="J41" s="131"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="93">
@@ -4867,12 +4893,12 @@
       </c>
       <c r="C42" s="78"/>
       <c r="D42" s="40"/>
-      <c r="E42" s="128"/>
-      <c r="F42" s="128"/>
-      <c r="G42" s="128"/>
-      <c r="H42" s="128"/>
-      <c r="I42" s="128"/>
-      <c r="J42" s="128"/>
+      <c r="E42" s="131"/>
+      <c r="F42" s="131"/>
+      <c r="G42" s="131"/>
+      <c r="H42" s="131"/>
+      <c r="I42" s="131"/>
+      <c r="J42" s="131"/>
     </row>
   </sheetData>
   <mergeCells count="40">
@@ -5058,10 +5084,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="138"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -5092,8 +5118,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -5124,20 +5150,20 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="12" customHeight="1">
-      <c r="A4" s="141" t="s">
+      <c r="A4" s="144" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="143"/>
-      <c r="C4" s="143"/>
-      <c r="D4" s="143"/>
-      <c r="E4" s="143"/>
-      <c r="F4" s="143"/>
-      <c r="G4" s="143"/>
-      <c r="H4" s="142"/>
-      <c r="I4" s="141" t="s">
+      <c r="B4" s="146"/>
+      <c r="C4" s="146"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="145"/>
+      <c r="I4" s="144" t="s">
         <v>38</v>
       </c>
-      <c r="J4" s="142"/>
+      <c r="J4" s="145"/>
     </row>
     <row r="5" spans="1:10" ht="12" customHeight="1">
       <c r="A5" s="42"/>
@@ -5148,10 +5174,10 @@
       <c r="F5" s="43"/>
       <c r="G5" s="43"/>
       <c r="H5" s="44"/>
-      <c r="I5" s="150" t="s">
+      <c r="I5" s="153" t="s">
         <v>156</v>
       </c>
-      <c r="J5" s="151"/>
+      <c r="J5" s="154"/>
     </row>
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="72" t="s">
@@ -5164,8 +5190,8 @@
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="45"/>
-      <c r="I6" s="152"/>
-      <c r="J6" s="153"/>
+      <c r="I6" s="155"/>
+      <c r="J6" s="156"/>
     </row>
     <row r="7" spans="1:10" ht="12" customHeight="1">
       <c r="A7" s="42"/>
@@ -5176,8 +5202,8 @@
       <c r="F7" s="43"/>
       <c r="G7" s="43"/>
       <c r="H7" s="45"/>
-      <c r="I7" s="152"/>
-      <c r="J7" s="153"/>
+      <c r="I7" s="155"/>
+      <c r="J7" s="156"/>
     </row>
     <row r="8" spans="1:10" ht="12" customHeight="1">
       <c r="A8" s="42"/>
@@ -5188,8 +5214,8 @@
       <c r="F8" s="43"/>
       <c r="G8" s="43"/>
       <c r="H8" s="45"/>
-      <c r="I8" s="152"/>
-      <c r="J8" s="153"/>
+      <c r="I8" s="155"/>
+      <c r="J8" s="156"/>
     </row>
     <row r="9" spans="1:10" ht="12" customHeight="1">
       <c r="A9" s="42"/>
@@ -5200,8 +5226,8 @@
       <c r="F9" s="43"/>
       <c r="G9" s="43"/>
       <c r="H9" s="45"/>
-      <c r="I9" s="152"/>
-      <c r="J9" s="153"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="1:10" ht="12" customHeight="1">
       <c r="A10" s="42"/>
@@ -5212,8 +5238,8 @@
       <c r="F10" s="43"/>
       <c r="G10" s="43"/>
       <c r="H10" s="45"/>
-      <c r="I10" s="154"/>
-      <c r="J10" s="155"/>
+      <c r="I10" s="157"/>
+      <c r="J10" s="158"/>
     </row>
     <row r="11" spans="1:10" ht="12" customHeight="1">
       <c r="A11" s="42"/>
@@ -5224,10 +5250,10 @@
       <c r="F11" s="43"/>
       <c r="G11" s="43"/>
       <c r="H11" s="46"/>
-      <c r="I11" s="141" t="s">
+      <c r="I11" s="144" t="s">
         <v>39</v>
       </c>
-      <c r="J11" s="142"/>
+      <c r="J11" s="145"/>
     </row>
     <row r="12" spans="1:10" ht="12" customHeight="1">
       <c r="A12" s="42"/>
@@ -5238,10 +5264,10 @@
       <c r="F12" s="43"/>
       <c r="G12" s="43"/>
       <c r="H12" s="45"/>
-      <c r="I12" s="144" t="s">
+      <c r="I12" s="147" t="s">
         <v>157</v>
       </c>
-      <c r="J12" s="145"/>
+      <c r="J12" s="148"/>
     </row>
     <row r="13" spans="1:10" ht="12" customHeight="1">
       <c r="A13" s="42"/>
@@ -5252,8 +5278,8 @@
       <c r="F13" s="43"/>
       <c r="G13" s="43"/>
       <c r="H13" s="45"/>
-      <c r="I13" s="146"/>
-      <c r="J13" s="147"/>
+      <c r="I13" s="149"/>
+      <c r="J13" s="150"/>
     </row>
     <row r="14" spans="1:10" ht="12" customHeight="1">
       <c r="A14" s="42"/>
@@ -5264,8 +5290,8 @@
       <c r="F14" s="43"/>
       <c r="G14" s="43"/>
       <c r="H14" s="45"/>
-      <c r="I14" s="146"/>
-      <c r="J14" s="147"/>
+      <c r="I14" s="149"/>
+      <c r="J14" s="150"/>
     </row>
     <row r="15" spans="1:10" ht="12" customHeight="1">
       <c r="A15" s="42"/>
@@ -5276,8 +5302,8 @@
       <c r="F15" s="43"/>
       <c r="G15" s="43"/>
       <c r="H15" s="45"/>
-      <c r="I15" s="146"/>
-      <c r="J15" s="147"/>
+      <c r="I15" s="149"/>
+      <c r="J15" s="150"/>
     </row>
     <row r="16" spans="1:10" ht="12" customHeight="1">
       <c r="A16" s="42"/>
@@ -5288,8 +5314,8 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
       <c r="H16" s="45"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="147"/>
+      <c r="I16" s="149"/>
+      <c r="J16" s="150"/>
     </row>
     <row r="17" spans="1:10" ht="12" customHeight="1">
       <c r="A17" s="42"/>
@@ -5300,8 +5326,8 @@
       <c r="F17" s="43"/>
       <c r="G17" s="43"/>
       <c r="H17" s="45"/>
-      <c r="I17" s="146"/>
-      <c r="J17" s="147"/>
+      <c r="I17" s="149"/>
+      <c r="J17" s="150"/>
     </row>
     <row r="18" spans="1:10" ht="12" customHeight="1">
       <c r="A18" s="42"/>
@@ -5312,8 +5338,8 @@
       <c r="F18" s="43"/>
       <c r="G18" s="43"/>
       <c r="H18" s="45"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="147"/>
+      <c r="I18" s="149"/>
+      <c r="J18" s="150"/>
     </row>
     <row r="19" spans="1:10" ht="12" customHeight="1">
       <c r="A19" s="42"/>
@@ -5324,8 +5350,8 @@
       <c r="F19" s="43"/>
       <c r="G19" s="43"/>
       <c r="H19" s="45"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="147"/>
+      <c r="I19" s="149"/>
+      <c r="J19" s="150"/>
     </row>
     <row r="20" spans="1:10" ht="12" customHeight="1">
       <c r="A20" s="42"/>
@@ -5336,8 +5362,8 @@
       <c r="F20" s="43"/>
       <c r="G20" s="43"/>
       <c r="H20" s="45"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="147"/>
+      <c r="I20" s="149"/>
+      <c r="J20" s="150"/>
     </row>
     <row r="21" spans="1:10" ht="12" customHeight="1">
       <c r="A21" s="42"/>
@@ -5348,8 +5374,8 @@
       <c r="F21" s="43"/>
       <c r="G21" s="43"/>
       <c r="H21" s="45"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="147"/>
+      <c r="I21" s="149"/>
+      <c r="J21" s="150"/>
     </row>
     <row r="22" spans="1:10" ht="12" customHeight="1">
       <c r="A22" s="42"/>
@@ -5360,8 +5386,8 @@
       <c r="F22" s="43"/>
       <c r="G22" s="43"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="147"/>
+      <c r="I22" s="149"/>
+      <c r="J22" s="150"/>
     </row>
     <row r="23" spans="1:10" ht="12" customHeight="1">
       <c r="A23" s="42"/>
@@ -5372,8 +5398,8 @@
       <c r="F23" s="43"/>
       <c r="G23" s="43"/>
       <c r="H23" s="45"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="147"/>
+      <c r="I23" s="149"/>
+      <c r="J23" s="150"/>
     </row>
     <row r="24" spans="1:10" ht="12" customHeight="1">
       <c r="A24" s="42"/>
@@ -5384,8 +5410,8 @@
       <c r="F24" s="43"/>
       <c r="G24" s="43"/>
       <c r="H24" s="45"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="147"/>
+      <c r="I24" s="149"/>
+      <c r="J24" s="150"/>
     </row>
     <row r="25" spans="1:10" ht="12" customHeight="1">
       <c r="A25" s="42"/>
@@ -5396,8 +5422,8 @@
       <c r="F25" s="43"/>
       <c r="G25" s="43"/>
       <c r="H25" s="45"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="147"/>
+      <c r="I25" s="149"/>
+      <c r="J25" s="150"/>
     </row>
     <row r="26" spans="1:10" ht="12" customHeight="1">
       <c r="A26" s="42"/>
@@ -5408,8 +5434,8 @@
       <c r="F26" s="43"/>
       <c r="G26" s="43"/>
       <c r="H26" s="45"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="147"/>
+      <c r="I26" s="149"/>
+      <c r="J26" s="150"/>
     </row>
     <row r="27" spans="1:10" ht="12" customHeight="1">
       <c r="A27" s="42"/>
@@ -5420,8 +5446,8 @@
       <c r="F27" s="43"/>
       <c r="G27" s="43"/>
       <c r="H27" s="45"/>
-      <c r="I27" s="146"/>
-      <c r="J27" s="147"/>
+      <c r="I27" s="149"/>
+      <c r="J27" s="150"/>
     </row>
     <row r="28" spans="1:10" ht="12" customHeight="1">
       <c r="A28" s="42"/>
@@ -5432,8 +5458,8 @@
       <c r="F28" s="43"/>
       <c r="G28" s="43"/>
       <c r="H28" s="45"/>
-      <c r="I28" s="146"/>
-      <c r="J28" s="147"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="150"/>
     </row>
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="42"/>
@@ -5444,8 +5470,8 @@
       <c r="F29" s="43"/>
       <c r="G29" s="43"/>
       <c r="H29" s="45"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="147"/>
+      <c r="I29" s="149"/>
+      <c r="J29" s="150"/>
     </row>
     <row r="30" spans="1:10" ht="12" customHeight="1">
       <c r="A30" s="42"/>
@@ -5456,8 +5482,8 @@
       <c r="F30" s="43"/>
       <c r="G30" s="43"/>
       <c r="H30" s="45"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="147"/>
+      <c r="I30" s="149"/>
+      <c r="J30" s="150"/>
     </row>
     <row r="31" spans="1:10" ht="12" customHeight="1">
       <c r="A31" s="42"/>
@@ -5468,8 +5494,8 @@
       <c r="F31" s="43"/>
       <c r="G31" s="43"/>
       <c r="H31" s="45"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="147"/>
+      <c r="I31" s="149"/>
+      <c r="J31" s="150"/>
     </row>
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="42"/>
@@ -5480,8 +5506,8 @@
       <c r="F32" s="43"/>
       <c r="G32" s="43"/>
       <c r="H32" s="45"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="147"/>
+      <c r="I32" s="149"/>
+      <c r="J32" s="150"/>
     </row>
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="42"/>
@@ -5492,8 +5518,8 @@
       <c r="F33" s="43"/>
       <c r="G33" s="43"/>
       <c r="H33" s="45"/>
-      <c r="I33" s="146"/>
-      <c r="J33" s="147"/>
+      <c r="I33" s="149"/>
+      <c r="J33" s="150"/>
     </row>
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="42"/>
@@ -5504,8 +5530,8 @@
       <c r="F34" s="43"/>
       <c r="G34" s="43"/>
       <c r="H34" s="45"/>
-      <c r="I34" s="146"/>
-      <c r="J34" s="147"/>
+      <c r="I34" s="149"/>
+      <c r="J34" s="150"/>
     </row>
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="42"/>
@@ -5516,8 +5542,8 @@
       <c r="F35" s="43"/>
       <c r="G35" s="43"/>
       <c r="H35" s="45"/>
-      <c r="I35" s="146"/>
-      <c r="J35" s="147"/>
+      <c r="I35" s="149"/>
+      <c r="J35" s="150"/>
     </row>
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="72"/>
@@ -5528,8 +5554,8 @@
       <c r="F36" s="43"/>
       <c r="G36" s="43"/>
       <c r="H36" s="45"/>
-      <c r="I36" s="146"/>
-      <c r="J36" s="147"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="150"/>
     </row>
     <row r="37" spans="1:10" ht="12" customHeight="1">
       <c r="A37" s="72" t="s">
@@ -5542,8 +5568,8 @@
       <c r="F37" s="43"/>
       <c r="G37" s="43"/>
       <c r="H37" s="45"/>
-      <c r="I37" s="146"/>
-      <c r="J37" s="147"/>
+      <c r="I37" s="149"/>
+      <c r="J37" s="150"/>
     </row>
     <row r="38" spans="1:10" ht="12" customHeight="1">
       <c r="A38" s="42"/>
@@ -5554,8 +5580,8 @@
       <c r="F38" s="43"/>
       <c r="G38" s="43"/>
       <c r="H38" s="45"/>
-      <c r="I38" s="146"/>
-      <c r="J38" s="147"/>
+      <c r="I38" s="149"/>
+      <c r="J38" s="150"/>
     </row>
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="42"/>
@@ -5566,8 +5592,8 @@
       <c r="F39" s="43"/>
       <c r="G39" s="43"/>
       <c r="H39" s="45"/>
-      <c r="I39" s="146"/>
-      <c r="J39" s="147"/>
+      <c r="I39" s="149"/>
+      <c r="J39" s="150"/>
     </row>
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="42"/>
@@ -5578,8 +5604,8 @@
       <c r="F40" s="43"/>
       <c r="G40" s="43"/>
       <c r="H40" s="45"/>
-      <c r="I40" s="146"/>
-      <c r="J40" s="147"/>
+      <c r="I40" s="149"/>
+      <c r="J40" s="150"/>
     </row>
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="42"/>
@@ -5590,8 +5616,8 @@
       <c r="F41" s="43"/>
       <c r="G41" s="43"/>
       <c r="H41" s="45"/>
-      <c r="I41" s="146"/>
-      <c r="J41" s="147"/>
+      <c r="I41" s="149"/>
+      <c r="J41" s="150"/>
     </row>
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="42"/>
@@ -5602,8 +5628,8 @@
       <c r="F42" s="43"/>
       <c r="G42" s="43"/>
       <c r="H42" s="45"/>
-      <c r="I42" s="146"/>
-      <c r="J42" s="147"/>
+      <c r="I42" s="149"/>
+      <c r="J42" s="150"/>
     </row>
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="47"/>
@@ -5614,8 +5640,8 @@
       <c r="F43" s="48"/>
       <c r="G43" s="48"/>
       <c r="H43" s="49"/>
-      <c r="I43" s="148"/>
-      <c r="J43" s="149"/>
+      <c r="I43" s="151"/>
+      <c r="J43" s="152"/>
     </row>
     <row r="68" spans="1:9" ht="12" customHeight="1">
       <c r="B68"/>
@@ -5732,10 +5758,10 @@
   <dimension ref="A1:O54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <pane xSplit="6" ySplit="4" topLeftCell="G5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="6" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O6" sqref="O6"/>
+      <selection pane="bottomRight" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -5758,12 +5784,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
       <c r="E1" s="30" t="s">
         <v>1</v>
       </c>
@@ -5771,15 +5797,15 @@
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="156" t="s">
+      <c r="G1" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="157"/>
-      <c r="I1" s="158" t="s">
+      <c r="H1" s="160"/>
+      <c r="I1" s="161" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="159"/>
-      <c r="K1" s="160"/>
+      <c r="J1" s="162"/>
+      <c r="K1" s="163"/>
       <c r="L1" s="31" t="s">
         <v>5</v>
       </c>
@@ -5796,10 +5822,10 @@
       </c>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="30" t="s">
         <v>2</v>
       </c>
@@ -5807,16 +5833,16 @@
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="156" t="s">
+      <c r="G2" s="159" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="157"/>
-      <c r="I2" s="158" t="str">
+      <c r="H2" s="160"/>
+      <c r="I2" s="161" t="str">
         <f>'Update History'!F2</f>
         <v>Danh mục mặt hàng</v>
       </c>
-      <c r="J2" s="159"/>
-      <c r="K2" s="160"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="163"/>
       <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
@@ -5902,7 +5928,7 @@
       <c r="H5" s="40"/>
       <c r="I5" s="62"/>
       <c r="J5" s="62"/>
-      <c r="K5" s="176"/>
+      <c r="K5" s="40"/>
       <c r="L5" s="69"/>
       <c r="M5" s="69"/>
       <c r="N5" s="69"/>
@@ -5935,7 +5961,9 @@
       </c>
       <c r="I6" s="62"/>
       <c r="J6" s="62"/>
-      <c r="K6" s="176"/>
+      <c r="K6" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L6" s="69" t="s">
         <v>181</v>
       </c>
@@ -5944,7 +5972,7 @@
         <v>236</v>
       </c>
       <c r="O6" s="86" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="34" customFormat="1" ht="12" customHeight="1">
@@ -5974,7 +6002,9 @@
       </c>
       <c r="I7" s="62"/>
       <c r="J7" s="62"/>
-      <c r="K7" s="176"/>
+      <c r="K7" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L7" s="86"/>
       <c r="M7" s="86"/>
       <c r="N7" s="86"/>
@@ -6007,7 +6037,9 @@
       </c>
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
-      <c r="K8" s="176"/>
+      <c r="K8" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L8" s="69"/>
       <c r="M8" s="69"/>
       <c r="N8" s="69"/>
@@ -6040,7 +6072,9 @@
       </c>
       <c r="I9" s="62"/>
       <c r="J9" s="62"/>
-      <c r="K9" s="176"/>
+      <c r="K9" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L9" s="86"/>
       <c r="M9" s="86"/>
       <c r="N9" s="86"/>
@@ -6073,7 +6107,9 @@
       </c>
       <c r="I10" s="62"/>
       <c r="J10" s="62"/>
-      <c r="K10" s="176"/>
+      <c r="K10" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L10" s="69"/>
       <c r="M10" s="69"/>
       <c r="N10" s="69"/>
@@ -6106,7 +6142,9 @@
       </c>
       <c r="I11" s="62"/>
       <c r="J11" s="62"/>
-      <c r="K11" s="176"/>
+      <c r="K11" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L11" s="81"/>
       <c r="M11" s="69"/>
       <c r="N11" s="69"/>
@@ -6139,7 +6177,9 @@
       </c>
       <c r="I12" s="62"/>
       <c r="J12" s="62"/>
-      <c r="K12" s="176"/>
+      <c r="K12" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L12" s="87"/>
       <c r="M12" s="69"/>
       <c r="N12" s="69"/>
@@ -6172,7 +6212,9 @@
       </c>
       <c r="I13" s="62"/>
       <c r="J13" s="62"/>
-      <c r="K13" s="176"/>
+      <c r="K13" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L13" s="87"/>
       <c r="M13" s="69"/>
       <c r="N13" s="69"/>
@@ -6205,7 +6247,9 @@
       </c>
       <c r="I14" s="62"/>
       <c r="J14" s="62"/>
-      <c r="K14" s="176"/>
+      <c r="K14" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L14" s="62"/>
       <c r="M14" s="69"/>
       <c r="N14" s="69"/>
@@ -6240,7 +6284,9 @@
       </c>
       <c r="I15" s="62"/>
       <c r="J15" s="62"/>
-      <c r="K15" s="176"/>
+      <c r="K15" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L15" s="62"/>
       <c r="M15" s="69"/>
       <c r="N15" s="69"/>
@@ -6275,7 +6321,9 @@
       </c>
       <c r="I16" s="62"/>
       <c r="J16" s="62"/>
-      <c r="K16" s="176"/>
+      <c r="K16" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L16" s="62"/>
       <c r="M16" s="69"/>
       <c r="N16" s="69"/>
@@ -6308,7 +6356,9 @@
       </c>
       <c r="I17" s="62"/>
       <c r="J17" s="40"/>
-      <c r="K17" s="176"/>
+      <c r="K17" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L17" s="69"/>
       <c r="M17" s="69"/>
       <c r="N17" s="69"/>
@@ -6341,7 +6391,9 @@
       </c>
       <c r="I18" s="40"/>
       <c r="J18" s="40"/>
-      <c r="K18" s="176"/>
+      <c r="K18" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L18" s="40"/>
       <c r="M18" s="40"/>
       <c r="N18" s="69"/>
@@ -6374,7 +6426,9 @@
       </c>
       <c r="I19" s="40"/>
       <c r="J19" s="40"/>
-      <c r="K19" s="176"/>
+      <c r="K19" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L19" s="40"/>
       <c r="M19" s="40"/>
       <c r="N19" s="81"/>
@@ -6407,7 +6461,9 @@
       </c>
       <c r="I20" s="40"/>
       <c r="J20" s="40"/>
-      <c r="K20" s="176"/>
+      <c r="K20" s="40" t="s">
+        <v>320</v>
+      </c>
       <c r="L20" s="40"/>
       <c r="M20" s="40"/>
       <c r="N20" s="69"/>
@@ -6440,14 +6496,14 @@
       </c>
       <c r="I21" s="40"/>
       <c r="J21" s="40"/>
-      <c r="K21" s="176"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="40"/>
       <c r="M21" s="40"/>
       <c r="N21" s="69" t="s">
         <v>241</v>
       </c>
       <c r="O21" s="86" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:15" s="34" customFormat="1" ht="22.5">
@@ -6473,7 +6529,7 @@
       <c r="H22" s="40"/>
       <c r="I22" s="40"/>
       <c r="J22" s="40"/>
-      <c r="K22" s="176"/>
+      <c r="K22" s="40"/>
       <c r="L22" s="40"/>
       <c r="M22" s="40"/>
       <c r="N22" s="86"/>
@@ -6504,7 +6560,7 @@
       <c r="H23" s="40"/>
       <c r="I23" s="40"/>
       <c r="J23" s="40"/>
-      <c r="K23" s="176"/>
+      <c r="K23" s="40"/>
       <c r="L23" s="40"/>
       <c r="M23" s="40"/>
       <c r="N23" s="69"/>
@@ -6533,7 +6589,7 @@
       <c r="H24" s="40"/>
       <c r="I24" s="40"/>
       <c r="J24" s="61"/>
-      <c r="K24" s="176"/>
+      <c r="K24" s="40"/>
       <c r="L24" s="61"/>
       <c r="M24" s="61"/>
       <c r="N24" s="40"/>
@@ -6562,7 +6618,7 @@
       <c r="H25" s="40"/>
       <c r="I25" s="40"/>
       <c r="J25" s="61"/>
-      <c r="K25" s="176"/>
+      <c r="K25" s="40"/>
       <c r="L25" s="62"/>
       <c r="M25" s="61"/>
       <c r="N25" s="61"/>
@@ -6591,7 +6647,7 @@
       <c r="H26" s="40"/>
       <c r="I26" s="40"/>
       <c r="J26" s="61"/>
-      <c r="K26" s="176"/>
+      <c r="K26" s="40"/>
       <c r="L26" s="62"/>
       <c r="M26" s="61"/>
       <c r="N26" s="61"/>
@@ -6620,7 +6676,7 @@
       <c r="H27" s="40"/>
       <c r="I27" s="40"/>
       <c r="J27" s="61"/>
-      <c r="K27" s="176"/>
+      <c r="K27" s="40"/>
       <c r="L27" s="62"/>
       <c r="M27" s="61"/>
       <c r="N27" s="61"/>
@@ -6649,7 +6705,7 @@
       <c r="H28" s="40"/>
       <c r="I28" s="40"/>
       <c r="J28" s="61"/>
-      <c r="K28" s="176"/>
+      <c r="K28" s="40"/>
       <c r="L28" s="62"/>
       <c r="M28" s="61"/>
       <c r="N28" s="61"/>
@@ -6678,7 +6734,7 @@
       <c r="H29" s="40"/>
       <c r="I29" s="40"/>
       <c r="J29" s="61"/>
-      <c r="K29" s="176"/>
+      <c r="K29" s="40"/>
       <c r="L29" s="62"/>
       <c r="M29" s="61"/>
       <c r="N29" s="61"/>
@@ -6707,7 +6763,7 @@
       <c r="H30" s="40"/>
       <c r="I30" s="40"/>
       <c r="J30" s="61"/>
-      <c r="K30" s="176"/>
+      <c r="K30" s="40"/>
       <c r="L30" s="62"/>
       <c r="M30" s="61"/>
       <c r="N30" s="61"/>
@@ -6738,7 +6794,7 @@
       <c r="H31" s="40"/>
       <c r="I31" s="40"/>
       <c r="J31" s="61"/>
-      <c r="K31" s="176"/>
+      <c r="K31" s="40"/>
       <c r="L31" s="62"/>
       <c r="M31" s="61"/>
       <c r="N31" s="61"/>
@@ -6752,7 +6808,7 @@
         <v>161</v>
       </c>
       <c r="C32" s="119" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D32" s="69" t="s">
         <v>205</v>
@@ -6767,7 +6823,7 @@
       <c r="H32" s="40"/>
       <c r="I32" s="40"/>
       <c r="J32" s="61"/>
-      <c r="K32" s="176"/>
+      <c r="K32" s="40"/>
       <c r="L32" s="62"/>
       <c r="M32" s="61"/>
       <c r="N32" s="61"/>
@@ -6796,7 +6852,7 @@
       <c r="H33" s="40"/>
       <c r="I33" s="40"/>
       <c r="J33" s="61"/>
-      <c r="K33" s="176"/>
+      <c r="K33" s="40"/>
       <c r="L33" s="62"/>
       <c r="M33" s="61"/>
       <c r="N33" s="61"/>
@@ -6827,7 +6883,7 @@
       <c r="H34" s="40"/>
       <c r="I34" s="40"/>
       <c r="J34" s="61"/>
-      <c r="K34" s="176"/>
+      <c r="K34" s="40"/>
       <c r="L34" s="62"/>
       <c r="M34" s="61"/>
       <c r="N34" s="61"/>
@@ -6856,7 +6912,7 @@
       <c r="H35" s="40"/>
       <c r="I35" s="40"/>
       <c r="J35" s="61"/>
-      <c r="K35" s="176"/>
+      <c r="K35" s="40"/>
       <c r="L35" s="62"/>
       <c r="M35" s="61"/>
       <c r="N35" s="61"/>
@@ -6885,7 +6941,7 @@
       <c r="H36" s="40"/>
       <c r="I36" s="40"/>
       <c r="J36" s="61"/>
-      <c r="K36" s="176"/>
+      <c r="K36" s="40"/>
       <c r="L36" s="62"/>
       <c r="M36" s="61"/>
       <c r="N36" s="61"/>
@@ -7269,8 +7325,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13:G13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -7294,7 +7350,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="163" t="s">
+      <c r="A1" s="166" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="114"/>
@@ -7330,7 +7386,7 @@
       <c r="L1" s="52"/>
     </row>
     <row r="2" spans="1:12" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="164"/>
+      <c r="A2" s="167"/>
       <c r="B2" s="115"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
@@ -7379,15 +7435,15 @@
       <c r="E4" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="G4" s="135"/>
-      <c r="H4" s="135" t="s">
+      <c r="G4" s="138"/>
+      <c r="H4" s="138" t="s">
         <v>48</v>
       </c>
-      <c r="I4" s="135"/>
-      <c r="J4" s="135"/>
+      <c r="I4" s="138"/>
+      <c r="J4" s="138"/>
     </row>
     <row r="5" spans="1:12" s="34" customFormat="1" ht="27.75" customHeight="1">
       <c r="A5" s="33">
@@ -7403,15 +7459,15 @@
       <c r="E5" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F5" s="161" t="s">
+      <c r="F5" s="164" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="162"/>
-      <c r="H5" s="165" t="s">
+      <c r="G5" s="165"/>
+      <c r="H5" s="168" t="s">
         <v>258</v>
       </c>
-      <c r="I5" s="166"/>
-      <c r="J5" s="167"/>
+      <c r="I5" s="169"/>
+      <c r="J5" s="170"/>
     </row>
     <row r="6" spans="1:12" s="34" customFormat="1" ht="38.25" customHeight="1">
       <c r="A6" s="33">
@@ -7427,15 +7483,15 @@
       <c r="E6" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F6" s="161" t="s">
+      <c r="F6" s="164" t="s">
         <v>243</v>
       </c>
-      <c r="G6" s="162"/>
-      <c r="H6" s="165" t="s">
+      <c r="G6" s="165"/>
+      <c r="H6" s="168" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="166"/>
-      <c r="J6" s="167"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="170"/>
     </row>
     <row r="7" spans="1:12" s="34" customFormat="1" ht="25.5" customHeight="1">
       <c r="A7" s="33">
@@ -7451,15 +7507,15 @@
       <c r="E7" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F7" s="161" t="s">
+      <c r="F7" s="164" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="162"/>
-      <c r="H7" s="165" t="s">
+      <c r="G7" s="165"/>
+      <c r="H7" s="168" t="s">
         <v>238</v>
       </c>
-      <c r="I7" s="166"/>
-      <c r="J7" s="167"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="170"/>
     </row>
     <row r="8" spans="1:12" s="34" customFormat="1" ht="24" customHeight="1">
       <c r="A8" s="33">
@@ -7475,15 +7531,15 @@
       <c r="E8" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F8" s="161" t="s">
+      <c r="F8" s="164" t="s">
         <v>245</v>
       </c>
-      <c r="G8" s="162"/>
-      <c r="H8" s="165" t="s">
+      <c r="G8" s="165"/>
+      <c r="H8" s="168" t="s">
         <v>239</v>
       </c>
-      <c r="I8" s="166"/>
-      <c r="J8" s="167"/>
+      <c r="I8" s="169"/>
+      <c r="J8" s="170"/>
     </row>
     <row r="9" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1">
       <c r="A9" s="33">
@@ -7499,15 +7555,15 @@
       <c r="E9" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F9" s="161" t="s">
+      <c r="F9" s="164" t="s">
         <v>247</v>
       </c>
-      <c r="G9" s="162"/>
-      <c r="H9" s="165" t="s">
+      <c r="G9" s="165"/>
+      <c r="H9" s="168" t="s">
         <v>240</v>
       </c>
-      <c r="I9" s="166"/>
-      <c r="J9" s="167"/>
+      <c r="I9" s="169"/>
+      <c r="J9" s="170"/>
     </row>
     <row r="10" spans="1:12" s="34" customFormat="1" ht="23.25" customHeight="1">
       <c r="A10" s="33">
@@ -7523,15 +7579,15 @@
       <c r="E10" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F10" s="161" t="s">
+      <c r="F10" s="164" t="s">
         <v>250</v>
       </c>
-      <c r="G10" s="162"/>
-      <c r="H10" s="165" t="s">
+      <c r="G10" s="165"/>
+      <c r="H10" s="168" t="s">
         <v>248</v>
       </c>
-      <c r="I10" s="166"/>
-      <c r="J10" s="167"/>
+      <c r="I10" s="169"/>
+      <c r="J10" s="170"/>
     </row>
     <row r="11" spans="1:12" s="34" customFormat="1" ht="27" customHeight="1">
       <c r="A11" s="33">
@@ -7547,15 +7603,15 @@
       <c r="E11" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F11" s="161" t="s">
+      <c r="F11" s="164" t="s">
         <v>251</v>
       </c>
-      <c r="G11" s="162"/>
-      <c r="H11" s="165" t="s">
+      <c r="G11" s="165"/>
+      <c r="H11" s="168" t="s">
         <v>249</v>
       </c>
-      <c r="I11" s="166"/>
-      <c r="J11" s="167"/>
+      <c r="I11" s="169"/>
+      <c r="J11" s="170"/>
     </row>
     <row r="12" spans="1:12" s="34" customFormat="1" ht="40.5" customHeight="1">
       <c r="A12" s="33">
@@ -7571,15 +7627,15 @@
       <c r="E12" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="161" t="s">
+      <c r="F12" s="164" t="s">
         <v>254</v>
       </c>
-      <c r="G12" s="162"/>
-      <c r="H12" s="165" t="s">
+      <c r="G12" s="165"/>
+      <c r="H12" s="168" t="s">
         <v>252</v>
       </c>
-      <c r="I12" s="166"/>
-      <c r="J12" s="167"/>
+      <c r="I12" s="169"/>
+      <c r="J12" s="170"/>
     </row>
     <row r="13" spans="1:12" s="34" customFormat="1" ht="35.25" customHeight="1">
       <c r="A13" s="33">
@@ -7595,15 +7651,15 @@
       <c r="E13" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F13" s="161" t="s">
-        <v>309</v>
-      </c>
-      <c r="G13" s="162"/>
-      <c r="H13" s="165" t="s">
-        <v>310</v>
-      </c>
-      <c r="I13" s="166"/>
-      <c r="J13" s="167"/>
+      <c r="F13" s="164" t="s">
+        <v>306</v>
+      </c>
+      <c r="G13" s="165"/>
+      <c r="H13" s="168" t="s">
+        <v>307</v>
+      </c>
+      <c r="I13" s="169"/>
+      <c r="J13" s="170"/>
     </row>
     <row r="14" spans="1:12" s="34" customFormat="1" ht="41.25" customHeight="1">
       <c r="A14" s="33">
@@ -7619,15 +7675,15 @@
       <c r="E14" s="32" t="s">
         <v>230</v>
       </c>
-      <c r="F14" s="161" t="s">
+      <c r="F14" s="164" t="s">
         <v>257</v>
       </c>
-      <c r="G14" s="162"/>
-      <c r="H14" s="165" t="s">
+      <c r="G14" s="165"/>
+      <c r="H14" s="168" t="s">
         <v>256</v>
       </c>
-      <c r="I14" s="166"/>
-      <c r="J14" s="167"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="170"/>
     </row>
     <row r="15" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A15" s="33">
@@ -7637,11 +7693,11 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="32"/>
-      <c r="F15" s="161"/>
-      <c r="G15" s="162"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="167"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="168"/>
+      <c r="I15" s="169"/>
+      <c r="J15" s="170"/>
     </row>
     <row r="16" spans="1:12" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A16" s="33">
@@ -7651,11 +7707,11 @@
       <c r="C16" s="33"/>
       <c r="D16" s="33"/>
       <c r="E16" s="32"/>
-      <c r="F16" s="161"/>
-      <c r="G16" s="162"/>
-      <c r="H16" s="165"/>
-      <c r="I16" s="166"/>
-      <c r="J16" s="167"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="165"/>
+      <c r="H16" s="168"/>
+      <c r="I16" s="169"/>
+      <c r="J16" s="170"/>
     </row>
     <row r="17" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A17" s="33">
@@ -7665,11 +7721,11 @@
       <c r="C17" s="33"/>
       <c r="D17" s="33"/>
       <c r="E17" s="32"/>
-      <c r="F17" s="161"/>
-      <c r="G17" s="162"/>
-      <c r="H17" s="165"/>
-      <c r="I17" s="166"/>
-      <c r="J17" s="167"/>
+      <c r="F17" s="164"/>
+      <c r="G17" s="165"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="170"/>
     </row>
     <row r="18" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A18" s="33">
@@ -7679,11 +7735,11 @@
       <c r="C18" s="33"/>
       <c r="D18" s="33"/>
       <c r="E18" s="32"/>
-      <c r="F18" s="161"/>
-      <c r="G18" s="162"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="166"/>
-      <c r="J18" s="167"/>
+      <c r="F18" s="164"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="168"/>
+      <c r="I18" s="169"/>
+      <c r="J18" s="170"/>
     </row>
     <row r="19" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A19" s="33">
@@ -7693,11 +7749,11 @@
       <c r="C19" s="33"/>
       <c r="D19" s="33"/>
       <c r="E19" s="32"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="162"/>
-      <c r="H19" s="165"/>
-      <c r="I19" s="166"/>
-      <c r="J19" s="167"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="165"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
+      <c r="J19" s="170"/>
     </row>
     <row r="20" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A20" s="33">
@@ -7707,11 +7763,11 @@
       <c r="C20" s="33"/>
       <c r="D20" s="33"/>
       <c r="E20" s="32"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="162"/>
-      <c r="H20" s="165"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="167"/>
+      <c r="F20" s="164"/>
+      <c r="G20" s="165"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="169"/>
+      <c r="J20" s="170"/>
     </row>
     <row r="21" spans="1:18" s="34" customFormat="1" ht="11.25">
       <c r="A21" s="33">
@@ -7721,11 +7777,11 @@
       <c r="C21" s="33"/>
       <c r="D21" s="33"/>
       <c r="E21" s="32"/>
-      <c r="F21" s="161"/>
-      <c r="G21" s="162"/>
-      <c r="H21" s="165"/>
-      <c r="I21" s="166"/>
-      <c r="J21" s="167"/>
+      <c r="F21" s="164"/>
+      <c r="G21" s="165"/>
+      <c r="H21" s="168"/>
+      <c r="I21" s="169"/>
+      <c r="J21" s="170"/>
     </row>
     <row r="22" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A22" s="33">
@@ -7735,11 +7791,11 @@
       <c r="C22" s="33"/>
       <c r="D22" s="33"/>
       <c r="E22" s="32"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="131"/>
-      <c r="H22" s="165"/>
-      <c r="I22" s="166"/>
-      <c r="J22" s="167"/>
+      <c r="F22" s="132"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="168"/>
+      <c r="I22" s="169"/>
+      <c r="J22" s="170"/>
     </row>
     <row r="23" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A23" s="33">
@@ -7749,11 +7805,11 @@
       <c r="C23" s="33"/>
       <c r="D23" s="33"/>
       <c r="E23" s="32"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="131"/>
-      <c r="H23" s="165"/>
-      <c r="I23" s="166"/>
-      <c r="J23" s="167"/>
+      <c r="F23" s="132"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="169"/>
+      <c r="J23" s="170"/>
     </row>
     <row r="24" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A24" s="33">
@@ -7763,11 +7819,11 @@
       <c r="C24" s="33"/>
       <c r="D24" s="33"/>
       <c r="E24" s="32"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="131"/>
-      <c r="H24" s="165"/>
-      <c r="I24" s="166"/>
-      <c r="J24" s="167"/>
+      <c r="F24" s="132"/>
+      <c r="G24" s="134"/>
+      <c r="H24" s="168"/>
+      <c r="I24" s="169"/>
+      <c r="J24" s="170"/>
     </row>
     <row r="25" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A25" s="33">
@@ -7777,11 +7833,11 @@
       <c r="C25" s="33"/>
       <c r="D25" s="33"/>
       <c r="E25" s="32"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="131"/>
-      <c r="H25" s="165"/>
-      <c r="I25" s="166"/>
-      <c r="J25" s="167"/>
+      <c r="F25" s="132"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="168"/>
+      <c r="I25" s="169"/>
+      <c r="J25" s="170"/>
     </row>
     <row r="26" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A26" s="33">
@@ -7791,11 +7847,11 @@
       <c r="C26" s="33"/>
       <c r="D26" s="33"/>
       <c r="E26" s="32"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="131"/>
-      <c r="H26" s="165"/>
-      <c r="I26" s="166"/>
-      <c r="J26" s="167"/>
+      <c r="F26" s="132"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="168"/>
+      <c r="I26" s="169"/>
+      <c r="J26" s="170"/>
     </row>
     <row r="27" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A27" s="33">
@@ -7805,11 +7861,11 @@
       <c r="C27" s="33"/>
       <c r="D27" s="33"/>
       <c r="E27" s="32"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="131"/>
-      <c r="H27" s="165"/>
-      <c r="I27" s="166"/>
-      <c r="J27" s="167"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="168"/>
+      <c r="I27" s="169"/>
+      <c r="J27" s="170"/>
     </row>
     <row r="28" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A28" s="33">
@@ -7819,11 +7875,11 @@
       <c r="C28" s="33"/>
       <c r="D28" s="33"/>
       <c r="E28" s="32"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="165"/>
-      <c r="I28" s="166"/>
-      <c r="J28" s="167"/>
+      <c r="F28" s="132"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="169"/>
+      <c r="J28" s="170"/>
     </row>
     <row r="29" spans="1:18" s="34" customFormat="1" ht="12" customHeight="1">
       <c r="A29" s="33">
@@ -7833,11 +7889,11 @@
       <c r="C29" s="33"/>
       <c r="D29" s="33"/>
       <c r="E29" s="32"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="131"/>
-      <c r="H29" s="165"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="167"/>
+      <c r="F29" s="132"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="169"/>
+      <c r="J29" s="170"/>
     </row>
     <row r="30" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A30" s="33">
@@ -7847,11 +7903,11 @@
       <c r="C30" s="33"/>
       <c r="D30" s="33"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="131"/>
-      <c r="H30" s="165"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
+      <c r="F30" s="132"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="168"/>
+      <c r="I30" s="169"/>
+      <c r="J30" s="170"/>
     </row>
     <row r="31" spans="1:18" s="34" customFormat="1" ht="11.25" customHeight="1">
       <c r="A31" s="33">
@@ -7861,11 +7917,11 @@
       <c r="C31" s="33"/>
       <c r="D31" s="33"/>
       <c r="E31" s="32"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="165"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="167"/>
+      <c r="F31" s="132"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="168"/>
+      <c r="I31" s="169"/>
+      <c r="J31" s="170"/>
     </row>
     <row r="32" spans="1:18" ht="11.25">
       <c r="A32" s="33">
@@ -7875,11 +7931,11 @@
       <c r="C32" s="33"/>
       <c r="D32" s="33"/>
       <c r="E32" s="32"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="131"/>
-      <c r="H32" s="165"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="167"/>
+      <c r="F32" s="132"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="168"/>
+      <c r="I32" s="169"/>
+      <c r="J32" s="170"/>
       <c r="L32" s="22"/>
       <c r="M32" s="22"/>
       <c r="N32" s="22"/>
@@ -7896,11 +7952,11 @@
       <c r="C33" s="33"/>
       <c r="D33" s="33"/>
       <c r="E33" s="32"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="131"/>
-      <c r="H33" s="165"/>
-      <c r="I33" s="166"/>
-      <c r="J33" s="167"/>
+      <c r="F33" s="132"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="168"/>
+      <c r="I33" s="169"/>
+      <c r="J33" s="170"/>
       <c r="L33" s="22"/>
       <c r="M33" s="22"/>
       <c r="N33" s="22"/>
@@ -7917,11 +7973,11 @@
       <c r="C34" s="33"/>
       <c r="D34" s="33"/>
       <c r="E34" s="32"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="131"/>
-      <c r="H34" s="165"/>
-      <c r="I34" s="166"/>
-      <c r="J34" s="167"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="169"/>
+      <c r="J34" s="170"/>
       <c r="L34" s="22"/>
       <c r="M34" s="22"/>
       <c r="N34" s="22"/>
@@ -7938,11 +7994,11 @@
       <c r="C35" s="33"/>
       <c r="D35" s="33"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="131"/>
-      <c r="H35" s="165"/>
-      <c r="I35" s="166"/>
-      <c r="J35" s="167"/>
+      <c r="F35" s="132"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="168"/>
+      <c r="I35" s="169"/>
+      <c r="J35" s="170"/>
       <c r="L35" s="22"/>
       <c r="M35" s="22"/>
       <c r="N35" s="22"/>
@@ -7959,11 +8015,11 @@
       <c r="C36" s="33"/>
       <c r="D36" s="33"/>
       <c r="E36" s="32"/>
-      <c r="F36" s="129"/>
-      <c r="G36" s="131"/>
-      <c r="H36" s="165"/>
-      <c r="I36" s="166"/>
-      <c r="J36" s="167"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="168"/>
+      <c r="I36" s="169"/>
+      <c r="J36" s="170"/>
       <c r="L36" s="22"/>
       <c r="M36" s="22"/>
       <c r="N36" s="22"/>
@@ -7980,11 +8036,11 @@
       <c r="C37" s="33"/>
       <c r="D37" s="33"/>
       <c r="E37" s="32"/>
-      <c r="F37" s="129"/>
-      <c r="G37" s="131"/>
-      <c r="H37" s="165"/>
-      <c r="I37" s="166"/>
-      <c r="J37" s="167"/>
+      <c r="F37" s="132"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="168"/>
+      <c r="I37" s="169"/>
+      <c r="J37" s="170"/>
       <c r="L37" s="22"/>
       <c r="M37" s="22"/>
       <c r="N37" s="22"/>
@@ -8001,11 +8057,11 @@
       <c r="C38" s="33"/>
       <c r="D38" s="33"/>
       <c r="E38" s="32"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="131"/>
-      <c r="H38" s="165"/>
-      <c r="I38" s="166"/>
-      <c r="J38" s="167"/>
+      <c r="F38" s="132"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="168"/>
+      <c r="I38" s="169"/>
+      <c r="J38" s="170"/>
       <c r="L38" s="22"/>
       <c r="M38" s="22"/>
       <c r="N38" s="22"/>
@@ -8022,11 +8078,11 @@
       <c r="C39" s="33"/>
       <c r="D39" s="33"/>
       <c r="E39" s="32"/>
-      <c r="F39" s="129"/>
-      <c r="G39" s="131"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="167"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="168"/>
+      <c r="I39" s="169"/>
+      <c r="J39" s="170"/>
       <c r="L39" s="22"/>
       <c r="M39" s="22"/>
       <c r="N39" s="22"/>
@@ -8043,11 +8099,11 @@
       <c r="C40" s="33"/>
       <c r="D40" s="33"/>
       <c r="E40" s="32"/>
-      <c r="F40" s="129"/>
-      <c r="G40" s="131"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="167"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="168"/>
+      <c r="I40" s="169"/>
+      <c r="J40" s="170"/>
       <c r="L40" s="22"/>
       <c r="M40" s="22"/>
       <c r="N40" s="22"/>
@@ -8064,11 +8120,11 @@
       <c r="C41" s="33"/>
       <c r="D41" s="33"/>
       <c r="E41" s="32"/>
-      <c r="F41" s="129"/>
-      <c r="G41" s="131"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="167"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="134"/>
+      <c r="H41" s="168"/>
+      <c r="I41" s="169"/>
+      <c r="J41" s="170"/>
       <c r="L41" s="22"/>
       <c r="M41" s="22"/>
       <c r="N41" s="22"/>
@@ -8085,11 +8141,11 @@
       <c r="C42" s="33"/>
       <c r="D42" s="33"/>
       <c r="E42" s="32"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="131"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="167"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="134"/>
+      <c r="H42" s="168"/>
+      <c r="I42" s="169"/>
+      <c r="J42" s="170"/>
       <c r="L42" s="22"/>
       <c r="M42" s="22"/>
       <c r="N42" s="22"/>
@@ -8106,11 +8162,11 @@
       <c r="C43" s="33"/>
       <c r="D43" s="33"/>
       <c r="E43" s="32"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="134"/>
+      <c r="H43" s="168"/>
+      <c r="I43" s="169"/>
+      <c r="J43" s="170"/>
       <c r="L43" s="22"/>
       <c r="M43" s="22"/>
       <c r="N43" s="22"/>
@@ -8127,11 +8183,11 @@
       <c r="C44" s="33"/>
       <c r="D44" s="33"/>
       <c r="E44" s="32"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="131"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="167"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="134"/>
+      <c r="H44" s="168"/>
+      <c r="I44" s="169"/>
+      <c r="J44" s="170"/>
       <c r="L44" s="22"/>
       <c r="M44" s="22"/>
       <c r="N44" s="22"/>
@@ -8148,11 +8204,11 @@
       <c r="C45" s="33"/>
       <c r="D45" s="33"/>
       <c r="E45" s="32"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="131"/>
-      <c r="H45" s="165"/>
-      <c r="I45" s="166"/>
-      <c r="J45" s="167"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="134"/>
+      <c r="H45" s="168"/>
+      <c r="I45" s="169"/>
+      <c r="J45" s="170"/>
       <c r="L45" s="22"/>
       <c r="M45" s="22"/>
       <c r="N45" s="22"/>
@@ -8169,11 +8225,11 @@
       <c r="C46" s="33"/>
       <c r="D46" s="33"/>
       <c r="E46" s="32"/>
-      <c r="F46" s="129"/>
-      <c r="G46" s="131"/>
-      <c r="H46" s="165"/>
-      <c r="I46" s="166"/>
-      <c r="J46" s="167"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="134"/>
+      <c r="H46" s="168"/>
+      <c r="I46" s="169"/>
+      <c r="J46" s="170"/>
       <c r="L46" s="22"/>
       <c r="M46" s="22"/>
       <c r="N46" s="22"/>
@@ -8190,11 +8246,11 @@
       <c r="C47" s="33"/>
       <c r="D47" s="33"/>
       <c r="E47" s="32"/>
-      <c r="F47" s="129"/>
-      <c r="G47" s="131"/>
-      <c r="H47" s="165"/>
-      <c r="I47" s="166"/>
-      <c r="J47" s="167"/>
+      <c r="F47" s="132"/>
+      <c r="G47" s="134"/>
+      <c r="H47" s="168"/>
+      <c r="I47" s="169"/>
+      <c r="J47" s="170"/>
       <c r="L47" s="22"/>
       <c r="M47" s="22"/>
       <c r="N47" s="22"/>
@@ -8211,11 +8267,11 @@
       <c r="C48" s="33"/>
       <c r="D48" s="33"/>
       <c r="E48" s="32"/>
-      <c r="F48" s="129"/>
-      <c r="G48" s="131"/>
-      <c r="H48" s="165"/>
-      <c r="I48" s="166"/>
-      <c r="J48" s="167"/>
+      <c r="F48" s="132"/>
+      <c r="G48" s="134"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="169"/>
+      <c r="J48" s="170"/>
       <c r="L48" s="22"/>
       <c r="M48" s="22"/>
       <c r="N48" s="22"/>
@@ -8232,11 +8288,11 @@
       <c r="C49" s="33"/>
       <c r="D49" s="33"/>
       <c r="E49" s="32"/>
-      <c r="F49" s="129"/>
-      <c r="G49" s="131"/>
-      <c r="H49" s="165"/>
-      <c r="I49" s="166"/>
-      <c r="J49" s="167"/>
+      <c r="F49" s="132"/>
+      <c r="G49" s="134"/>
+      <c r="H49" s="168"/>
+      <c r="I49" s="169"/>
+      <c r="J49" s="170"/>
       <c r="L49" s="22"/>
       <c r="M49" s="22"/>
       <c r="N49" s="22"/>
@@ -8253,11 +8309,11 @@
       <c r="C50" s="33"/>
       <c r="D50" s="33"/>
       <c r="E50" s="32"/>
-      <c r="F50" s="129"/>
-      <c r="G50" s="131"/>
-      <c r="H50" s="165"/>
-      <c r="I50" s="166"/>
-      <c r="J50" s="167"/>
+      <c r="F50" s="132"/>
+      <c r="G50" s="134"/>
+      <c r="H50" s="168"/>
+      <c r="I50" s="169"/>
+      <c r="J50" s="170"/>
       <c r="L50" s="22"/>
       <c r="M50" s="22"/>
       <c r="N50" s="22"/>
@@ -8274,11 +8330,11 @@
       <c r="C51" s="33"/>
       <c r="D51" s="33"/>
       <c r="E51" s="32"/>
-      <c r="F51" s="129"/>
-      <c r="G51" s="131"/>
-      <c r="H51" s="165"/>
-      <c r="I51" s="166"/>
-      <c r="J51" s="167"/>
+      <c r="F51" s="132"/>
+      <c r="G51" s="134"/>
+      <c r="H51" s="168"/>
+      <c r="I51" s="169"/>
+      <c r="J51" s="170"/>
       <c r="L51" s="22"/>
       <c r="M51" s="22"/>
       <c r="N51" s="22"/>
@@ -8295,11 +8351,11 @@
       <c r="C52" s="33"/>
       <c r="D52" s="33"/>
       <c r="E52" s="32"/>
-      <c r="F52" s="129"/>
-      <c r="G52" s="131"/>
-      <c r="H52" s="165"/>
-      <c r="I52" s="166"/>
-      <c r="J52" s="167"/>
+      <c r="F52" s="132"/>
+      <c r="G52" s="134"/>
+      <c r="H52" s="168"/>
+      <c r="I52" s="169"/>
+      <c r="J52" s="170"/>
       <c r="L52" s="22"/>
       <c r="M52" s="22"/>
       <c r="N52" s="22"/>
@@ -8316,11 +8372,11 @@
       <c r="C53" s="33"/>
       <c r="D53" s="33"/>
       <c r="E53" s="32"/>
-      <c r="F53" s="129"/>
-      <c r="G53" s="131"/>
-      <c r="H53" s="165"/>
-      <c r="I53" s="166"/>
-      <c r="J53" s="167"/>
+      <c r="F53" s="132"/>
+      <c r="G53" s="134"/>
+      <c r="H53" s="168"/>
+      <c r="I53" s="169"/>
+      <c r="J53" s="170"/>
       <c r="L53" s="22"/>
       <c r="M53" s="22"/>
       <c r="N53" s="22"/>
@@ -8337,11 +8393,11 @@
       <c r="C54" s="33"/>
       <c r="D54" s="33"/>
       <c r="E54" s="32"/>
-      <c r="F54" s="129"/>
-      <c r="G54" s="131"/>
-      <c r="H54" s="165"/>
-      <c r="I54" s="166"/>
-      <c r="J54" s="167"/>
+      <c r="F54" s="132"/>
+      <c r="G54" s="134"/>
+      <c r="H54" s="168"/>
+      <c r="I54" s="169"/>
+      <c r="J54" s="170"/>
       <c r="L54" s="22"/>
       <c r="M54" s="22"/>
       <c r="N54" s="22"/>
@@ -8358,11 +8414,11 @@
       <c r="C55" s="33"/>
       <c r="D55" s="33"/>
       <c r="E55" s="32"/>
-      <c r="F55" s="129"/>
-      <c r="G55" s="131"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="166"/>
-      <c r="J55" s="167"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="134"/>
+      <c r="H55" s="168"/>
+      <c r="I55" s="169"/>
+      <c r="J55" s="170"/>
       <c r="L55" s="22"/>
       <c r="M55" s="22"/>
       <c r="N55" s="22"/>
@@ -8379,11 +8435,11 @@
       <c r="C56" s="33"/>
       <c r="D56" s="33"/>
       <c r="E56" s="32"/>
-      <c r="F56" s="129"/>
-      <c r="G56" s="131"/>
-      <c r="H56" s="165"/>
-      <c r="I56" s="166"/>
-      <c r="J56" s="167"/>
+      <c r="F56" s="132"/>
+      <c r="G56" s="134"/>
+      <c r="H56" s="168"/>
+      <c r="I56" s="169"/>
+      <c r="J56" s="170"/>
       <c r="L56" s="22"/>
       <c r="M56" s="22"/>
       <c r="N56" s="22"/>
@@ -8520,7 +8576,7 @@
   <dimension ref="A1:Q54"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25:L26"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -8649,14 +8705,26 @@
       <c r="A5" s="33">
         <v>1</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="177"/>
-      <c r="D5" s="177"/>
-      <c r="E5" s="176"/>
-      <c r="F5" s="178"/>
-      <c r="G5" s="177"/>
-      <c r="H5" s="177"/>
-      <c r="I5" s="179"/>
+      <c r="B5" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="129" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" s="129" t="s">
+        <v>321</v>
+      </c>
+      <c r="E5" s="40"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="129" t="s">
+        <v>323</v>
+      </c>
+      <c r="H5" s="129" t="s">
+        <v>272</v>
+      </c>
+      <c r="I5" s="63" t="s">
+        <v>322</v>
+      </c>
       <c r="J5" s="69"/>
     </row>
     <row r="6" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8664,13 +8732,13 @@
         <v>2</v>
       </c>
       <c r="B6" s="33"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
-      <c r="E6" s="176"/>
-      <c r="F6" s="178"/>
-      <c r="G6" s="177"/>
-      <c r="H6" s="177"/>
-      <c r="I6" s="179"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="129"/>
+      <c r="I6" s="63"/>
       <c r="J6" s="69"/>
     </row>
     <row r="7" spans="1:16" s="34" customFormat="1" ht="11.25">
@@ -8678,13 +8746,13 @@
         <v>3</v>
       </c>
       <c r="B7" s="33"/>
-      <c r="C7" s="177"/>
-      <c r="D7" s="177"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="178"/>
-      <c r="G7" s="177"/>
-      <c r="H7" s="177"/>
-      <c r="I7" s="179"/>
+      <c r="C7" s="129"/>
+      <c r="D7" s="129"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="129"/>
+      <c r="H7" s="129"/>
+      <c r="I7" s="63"/>
       <c r="J7" s="86"/>
     </row>
     <row r="8" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8692,13 +8760,13 @@
         <v>4</v>
       </c>
       <c r="B8" s="33"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="178"/>
-      <c r="G8" s="177"/>
-      <c r="H8" s="177"/>
-      <c r="I8" s="179"/>
+      <c r="C8" s="129"/>
+      <c r="D8" s="129"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="129"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="63"/>
       <c r="J8" s="86"/>
     </row>
     <row r="9" spans="1:16" s="34" customFormat="1" ht="11.25">
@@ -8706,13 +8774,13 @@
         <v>5</v>
       </c>
       <c r="B9" s="33"/>
-      <c r="C9" s="177"/>
-      <c r="D9" s="177"/>
-      <c r="E9" s="176"/>
-      <c r="F9" s="178"/>
-      <c r="G9" s="177"/>
-      <c r="H9" s="177"/>
-      <c r="I9" s="179"/>
+      <c r="C9" s="129"/>
+      <c r="D9" s="129"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="129"/>
+      <c r="H9" s="129"/>
+      <c r="I9" s="63"/>
       <c r="J9" s="82"/>
     </row>
     <row r="10" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8720,13 +8788,13 @@
         <v>6</v>
       </c>
       <c r="B10" s="33"/>
-      <c r="C10" s="177"/>
-      <c r="D10" s="177"/>
-      <c r="E10" s="176"/>
-      <c r="F10" s="178"/>
-      <c r="G10" s="177"/>
-      <c r="H10" s="177"/>
-      <c r="I10" s="180"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="62"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="80"/>
       <c r="J10" s="82"/>
     </row>
     <row r="11" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8734,13 +8802,13 @@
         <v>7</v>
       </c>
       <c r="B11" s="33"/>
-      <c r="C11" s="177"/>
-      <c r="D11" s="177"/>
-      <c r="E11" s="176"/>
-      <c r="F11" s="178"/>
-      <c r="G11" s="177"/>
-      <c r="H11" s="177"/>
-      <c r="I11" s="180"/>
+      <c r="C11" s="129"/>
+      <c r="D11" s="129"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="62"/>
+      <c r="G11" s="129"/>
+      <c r="H11" s="129"/>
+      <c r="I11" s="80"/>
       <c r="J11" s="69"/>
     </row>
     <row r="12" spans="1:16" s="34" customFormat="1" ht="12" customHeight="1">
@@ -8748,13 +8816,13 @@
         <v>8</v>
       </c>
       <c r="B12" s="33"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="177"/>
-      <c r="E12" s="176"/>
-      <c r="F12" s="178"/>
-      <c r="G12" s="177"/>
-      <c r="H12" s="177"/>
-      <c r="I12" s="180"/>
+      <c r="C12" s="129"/>
+      <c r="D12" s="129"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="62"/>
+      <c r="G12" s="129"/>
+      <c r="H12" s="129"/>
+      <c r="I12" s="80"/>
       <c r="J12" s="69"/>
       <c r="K12" s="108"/>
     </row>
@@ -8763,13 +8831,13 @@
         <v>9</v>
       </c>
       <c r="B13" s="33"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="177"/>
-      <c r="E13" s="176"/>
-      <c r="F13" s="178"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="180"/>
+      <c r="C13" s="129"/>
+      <c r="D13" s="129"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="62"/>
+      <c r="G13" s="129"/>
+      <c r="H13" s="129"/>
+      <c r="I13" s="80"/>
       <c r="J13" s="69"/>
       <c r="K13" s="108"/>
     </row>
@@ -8778,13 +8846,13 @@
         <v>10</v>
       </c>
       <c r="B14" s="33"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="177"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="178"/>
-      <c r="G14" s="181"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="180"/>
+      <c r="C14" s="129"/>
+      <c r="D14" s="129"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="62"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="129"/>
+      <c r="I14" s="80"/>
       <c r="J14" s="69"/>
       <c r="K14" s="108"/>
     </row>
@@ -8793,13 +8861,13 @@
         <v>11</v>
       </c>
       <c r="B15" s="33"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
-      <c r="E15" s="176"/>
-      <c r="F15" s="178"/>
-      <c r="G15" s="181"/>
-      <c r="H15" s="177"/>
-      <c r="I15" s="180"/>
+      <c r="C15" s="129"/>
+      <c r="D15" s="129"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="62"/>
+      <c r="G15" s="61"/>
+      <c r="H15" s="129"/>
+      <c r="I15" s="80"/>
       <c r="J15" s="69"/>
       <c r="K15" s="108"/>
     </row>
@@ -8808,13 +8876,13 @@
         <v>12</v>
       </c>
       <c r="B16" s="33"/>
-      <c r="C16" s="177"/>
-      <c r="D16" s="177"/>
-      <c r="E16" s="176"/>
-      <c r="F16" s="178"/>
-      <c r="G16" s="181"/>
-      <c r="H16" s="177"/>
-      <c r="I16" s="177"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="62"/>
+      <c r="G16" s="61"/>
+      <c r="H16" s="129"/>
+      <c r="I16" s="129"/>
       <c r="J16" s="69"/>
       <c r="K16" s="108"/>
     </row>
@@ -8823,13 +8891,13 @@
         <v>13</v>
       </c>
       <c r="B17" s="33"/>
-      <c r="C17" s="177"/>
-      <c r="D17" s="177"/>
-      <c r="E17" s="176"/>
-      <c r="F17" s="178"/>
-      <c r="G17" s="181"/>
-      <c r="H17" s="177"/>
-      <c r="I17" s="177"/>
+      <c r="C17" s="129"/>
+      <c r="D17" s="129"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="62"/>
+      <c r="G17" s="61"/>
+      <c r="H17" s="129"/>
+      <c r="I17" s="129"/>
       <c r="J17" s="69"/>
       <c r="K17" s="108"/>
     </row>
@@ -8838,13 +8906,13 @@
         <v>14</v>
       </c>
       <c r="B18" s="33"/>
-      <c r="C18" s="82"/>
-      <c r="D18" s="73"/>
+      <c r="C18" s="129"/>
+      <c r="D18" s="129"/>
       <c r="E18" s="40"/>
       <c r="F18" s="62"/>
       <c r="G18" s="61"/>
-      <c r="H18" s="69"/>
-      <c r="I18" s="69"/>
+      <c r="H18" s="129"/>
+      <c r="I18" s="129"/>
       <c r="J18" s="69"/>
       <c r="K18" s="108"/>
     </row>
@@ -9485,8 +9553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1048467"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16:J16"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A16" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -9509,20 +9577,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
+      <c r="B1" s="138"/>
+      <c r="C1" s="138"/>
+      <c r="D1" s="138"/>
       <c r="E1" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="171" t="str">
+      <c r="F1" s="174" t="str">
         <f>'Update History'!D1</f>
         <v>ASOFT - ERP.NET</v>
       </c>
-      <c r="G1" s="171"/>
+      <c r="G1" s="174"/>
       <c r="H1" s="26" t="s">
         <v>3</v>
       </c>
@@ -9550,18 +9618,18 @@
       <c r="Q1" s="52"/>
     </row>
     <row r="2" spans="1:17" s="25" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
-      <c r="C2" s="135"/>
-      <c r="D2" s="135"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
+      <c r="C2" s="138"/>
+      <c r="D2" s="138"/>
       <c r="E2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="171" t="str">
+      <c r="F2" s="174" t="str">
         <f>'Update History'!D2</f>
         <v>ASOFT - CI</v>
       </c>
-      <c r="G2" s="171"/>
+      <c r="G2" s="174"/>
       <c r="H2" s="26" t="s">
         <v>49</v>
       </c>
@@ -9607,12 +9675,12 @@
       <c r="F4" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="G4" s="141" t="s">
+      <c r="G4" s="144" t="s">
         <v>55</v>
       </c>
-      <c r="H4" s="143"/>
-      <c r="I4" s="143"/>
-      <c r="J4" s="142"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="145"/>
       <c r="K4" s="39" t="s">
         <v>56</v>
       </c>
@@ -9648,20 +9716,20 @@
       <c r="F5" s="124" t="s">
         <v>261</v>
       </c>
-      <c r="G5" s="182" t="s">
-        <v>276</v>
-      </c>
-      <c r="H5" s="183"/>
-      <c r="I5" s="183"/>
-      <c r="J5" s="184"/>
-      <c r="K5" s="121" t="s">
-        <v>242</v>
-      </c>
-      <c r="L5" s="121" t="s">
-        <v>242</v>
+      <c r="G5" s="135" t="s">
+        <v>325</v>
+      </c>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="128" t="s">
+        <v>131</v>
+      </c>
+      <c r="L5" s="128" t="s">
+        <v>324</v>
       </c>
       <c r="M5" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="N5" s="74" t="s">
         <v>264</v>
@@ -9689,12 +9757,12 @@
       <c r="F6" s="124" t="s">
         <v>262</v>
       </c>
-      <c r="G6" s="132" t="s">
-        <v>321</v>
-      </c>
-      <c r="H6" s="133"/>
-      <c r="I6" s="133"/>
-      <c r="J6" s="134"/>
+      <c r="G6" s="135" t="s">
+        <v>317</v>
+      </c>
+      <c r="H6" s="136"/>
+      <c r="I6" s="136"/>
+      <c r="J6" s="137"/>
       <c r="K6" s="121" t="s">
         <v>242</v>
       </c>
@@ -9730,12 +9798,12 @@
       <c r="F7" s="124" t="s">
         <v>265</v>
       </c>
-      <c r="G7" s="132" t="s">
-        <v>322</v>
-      </c>
-      <c r="H7" s="133"/>
-      <c r="I7" s="133"/>
-      <c r="J7" s="134"/>
+      <c r="G7" s="135" t="s">
+        <v>318</v>
+      </c>
+      <c r="H7" s="136"/>
+      <c r="I7" s="136"/>
+      <c r="J7" s="137"/>
       <c r="K7" s="121" t="s">
         <v>242</v>
       </c>
@@ -9771,12 +9839,12 @@
       <c r="F8" s="124" t="s">
         <v>269</v>
       </c>
-      <c r="G8" s="132" t="s">
-        <v>277</v>
-      </c>
-      <c r="H8" s="133"/>
-      <c r="I8" s="133"/>
-      <c r="J8" s="134"/>
+      <c r="G8" s="135" t="s">
+        <v>275</v>
+      </c>
+      <c r="H8" s="136"/>
+      <c r="I8" s="136"/>
+      <c r="J8" s="137"/>
       <c r="K8" s="121" t="s">
         <v>242</v>
       </c>
@@ -9801,42 +9869,42 @@
         <v>161</v>
       </c>
       <c r="C9" s="86" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D9" s="63" t="s">
         <v>259</v>
       </c>
       <c r="E9" s="63" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="F9" s="124" t="s">
+        <v>271</v>
+      </c>
+      <c r="G9" s="135" t="s">
+        <v>277</v>
+      </c>
+      <c r="H9" s="136"/>
+      <c r="I9" s="136"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="123" t="s">
+        <v>278</v>
+      </c>
+      <c r="L9" s="123" t="s">
+        <v>279</v>
+      </c>
+      <c r="M9" s="75" t="s">
+        <v>273</v>
+      </c>
+      <c r="N9" s="74" t="s">
         <v>272</v>
       </c>
-      <c r="G9" s="132" t="s">
-        <v>279</v>
-      </c>
-      <c r="H9" s="133"/>
-      <c r="I9" s="133"/>
-      <c r="J9" s="134"/>
-      <c r="K9" s="123" t="s">
-        <v>280</v>
-      </c>
-      <c r="L9" s="123" t="s">
-        <v>281</v>
-      </c>
-      <c r="M9" s="75" t="s">
-        <v>274</v>
-      </c>
-      <c r="N9" s="74" t="s">
-        <v>273</v>
-      </c>
       <c r="O9" s="80" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P9" s="64"/>
       <c r="Q9" s="64"/>
     </row>
-    <row r="10" spans="1:17" s="34" customFormat="1" ht="69.75" customHeight="1">
+    <row r="10" spans="1:17" s="34" customFormat="1" ht="90">
       <c r="A10" s="33">
         <v>6</v>
       </c>
@@ -9844,7 +9912,7 @@
         <v>161</v>
       </c>
       <c r="C10" s="86" t="s">
-        <v>271</v>
+        <v>336</v>
       </c>
       <c r="D10" s="63" t="s">
         <v>270</v>
@@ -9853,113 +9921,177 @@
         <v>55</v>
       </c>
       <c r="F10" s="124" t="s">
-        <v>283</v>
-      </c>
-      <c r="G10" s="182" t="s">
-        <v>284</v>
-      </c>
-      <c r="H10" s="183"/>
-      <c r="I10" s="183"/>
-      <c r="J10" s="184"/>
+        <v>281</v>
+      </c>
+      <c r="G10" s="135" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="136"/>
+      <c r="I10" s="136"/>
+      <c r="J10" s="137"/>
       <c r="K10" s="123" t="s">
-        <v>280</v>
-      </c>
-      <c r="L10" s="123" t="s">
-        <v>281</v>
+        <v>278</v>
+      </c>
+      <c r="L10" s="130" t="s">
+        <v>340</v>
       </c>
       <c r="M10" s="75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="N10" s="74" t="s">
-        <v>273</v>
-      </c>
-      <c r="O10" s="80" t="s">
-        <v>299</v>
+        <v>272</v>
+      </c>
+      <c r="O10" s="175" t="s">
+        <v>296</v>
       </c>
       <c r="P10" s="64"/>
       <c r="Q10" s="64"/>
     </row>
-    <row r="11" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="11" spans="1:17" s="34" customFormat="1" ht="90">
       <c r="A11" s="33">
         <v>7</v>
       </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="169"/>
-      <c r="I11" s="169"/>
-      <c r="J11" s="170"/>
-      <c r="K11" s="123"/>
-      <c r="L11" s="123"/>
+      <c r="B11" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E11" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="124" t="s">
+        <v>330</v>
+      </c>
+      <c r="G11" s="135" t="s">
+        <v>326</v>
+      </c>
+      <c r="H11" s="136"/>
+      <c r="I11" s="136"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="128" t="s">
+        <v>278</v>
+      </c>
+      <c r="L11" s="130" t="s">
+        <v>340</v>
+      </c>
       <c r="M11" s="75"/>
       <c r="N11" s="74"/>
-      <c r="O11" s="80"/>
+      <c r="O11" s="176"/>
       <c r="P11" s="64"/>
       <c r="Q11" s="64"/>
     </row>
-    <row r="12" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="12" spans="1:17" s="34" customFormat="1" ht="90">
       <c r="A12" s="33">
         <v>8</v>
       </c>
-      <c r="B12" s="33"/>
-      <c r="C12" s="86"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="169"/>
-      <c r="I12" s="169"/>
-      <c r="J12" s="170"/>
-      <c r="K12" s="123"/>
-      <c r="L12" s="123"/>
+      <c r="B12" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="86" t="s">
+        <v>335</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E12" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="124" t="s">
+        <v>331</v>
+      </c>
+      <c r="G12" s="135" t="s">
+        <v>327</v>
+      </c>
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="128" t="s">
+        <v>278</v>
+      </c>
+      <c r="L12" s="130" t="s">
+        <v>340</v>
+      </c>
       <c r="M12" s="75"/>
       <c r="N12" s="74"/>
-      <c r="O12" s="80"/>
+      <c r="O12" s="176"/>
       <c r="P12" s="64"/>
       <c r="Q12" s="64"/>
     </row>
-    <row r="13" spans="1:17" s="34" customFormat="1" ht="11.25">
+    <row r="13" spans="1:17" s="34" customFormat="1" ht="90">
       <c r="A13" s="33">
         <v>9</v>
       </c>
-      <c r="B13" s="33"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="169"/>
-      <c r="I13" s="169"/>
-      <c r="J13" s="170"/>
-      <c r="K13" s="123"/>
-      <c r="L13" s="123"/>
+      <c r="B13" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" s="86" t="s">
+        <v>337</v>
+      </c>
+      <c r="D13" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E13" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="124" t="s">
+        <v>332</v>
+      </c>
+      <c r="G13" s="135" t="s">
+        <v>328</v>
+      </c>
+      <c r="H13" s="136"/>
+      <c r="I13" s="136"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="128" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="130" t="s">
+        <v>340</v>
+      </c>
       <c r="M13" s="75"/>
       <c r="N13" s="74"/>
-      <c r="O13" s="80"/>
+      <c r="O13" s="176"/>
       <c r="P13" s="64"/>
       <c r="Q13" s="64"/>
     </row>
-    <row r="14" spans="1:17" s="34" customFormat="1" ht="12" customHeight="1">
+    <row r="14" spans="1:17" s="34" customFormat="1" ht="90">
       <c r="A14" s="33">
         <v>10</v>
       </c>
-      <c r="B14" s="33"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="169"/>
-      <c r="I14" s="169"/>
-      <c r="J14" s="170"/>
-      <c r="K14" s="123"/>
-      <c r="L14" s="123"/>
+      <c r="B14" s="119" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="82" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="63" t="s">
+        <v>270</v>
+      </c>
+      <c r="E14" s="63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="124" t="s">
+        <v>333</v>
+      </c>
+      <c r="G14" s="135" t="s">
+        <v>329</v>
+      </c>
+      <c r="H14" s="136"/>
+      <c r="I14" s="136"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="128" t="s">
+        <v>278</v>
+      </c>
+      <c r="L14" s="130" t="s">
+        <v>340</v>
+      </c>
       <c r="M14" s="75"/>
       <c r="N14" s="74"/>
-      <c r="O14" s="86"/>
+      <c r="O14" s="177"/>
       <c r="P14" s="64"/>
       <c r="Q14" s="64"/>
     </row>
@@ -9972,10 +10104,10 @@
       <c r="D15" s="63"/>
       <c r="E15" s="63"/>
       <c r="F15" s="63"/>
-      <c r="G15" s="168"/>
-      <c r="H15" s="169"/>
-      <c r="I15" s="169"/>
-      <c r="J15" s="170"/>
+      <c r="G15" s="171"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="173"/>
       <c r="K15" s="123"/>
       <c r="L15" s="123"/>
       <c r="M15" s="75"/>
@@ -9993,10 +10125,10 @@
       <c r="D16" s="63"/>
       <c r="E16" s="63"/>
       <c r="F16" s="40"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="169"/>
-      <c r="I16" s="169"/>
-      <c r="J16" s="170"/>
+      <c r="G16" s="171"/>
+      <c r="H16" s="172"/>
+      <c r="I16" s="172"/>
+      <c r="J16" s="173"/>
       <c r="K16" s="71"/>
       <c r="L16" s="60"/>
       <c r="M16" s="75"/>
@@ -10014,10 +10146,10 @@
       <c r="D17" s="63"/>
       <c r="E17" s="63"/>
       <c r="F17" s="40"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="170"/>
+      <c r="G17" s="171"/>
+      <c r="H17" s="172"/>
+      <c r="I17" s="172"/>
+      <c r="J17" s="173"/>
       <c r="K17" s="60"/>
       <c r="L17" s="60"/>
       <c r="M17" s="75"/>
@@ -10035,10 +10167,10 @@
       <c r="D18" s="63"/>
       <c r="E18" s="63"/>
       <c r="F18" s="40"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="169"/>
-      <c r="I18" s="169"/>
-      <c r="J18" s="170"/>
+      <c r="G18" s="171"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="173"/>
       <c r="K18" s="60"/>
       <c r="L18" s="60"/>
       <c r="M18" s="75"/>
@@ -10056,10 +10188,10 @@
       <c r="D19" s="63"/>
       <c r="E19" s="63"/>
       <c r="F19" s="40"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="170"/>
+      <c r="G19" s="171"/>
+      <c r="H19" s="172"/>
+      <c r="I19" s="172"/>
+      <c r="J19" s="173"/>
       <c r="K19" s="60"/>
       <c r="L19" s="60"/>
       <c r="M19" s="75"/>
@@ -10077,10 +10209,10 @@
       <c r="D20" s="63"/>
       <c r="E20" s="63"/>
       <c r="F20" s="40"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="169"/>
-      <c r="I20" s="169"/>
-      <c r="J20" s="170"/>
+      <c r="G20" s="171"/>
+      <c r="H20" s="172"/>
+      <c r="I20" s="172"/>
+      <c r="J20" s="173"/>
       <c r="K20" s="60"/>
       <c r="L20" s="60"/>
       <c r="M20" s="75"/>
@@ -10098,10 +10230,10 @@
       <c r="D21" s="63"/>
       <c r="E21" s="63"/>
       <c r="F21" s="40"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="169"/>
-      <c r="I21" s="169"/>
-      <c r="J21" s="170"/>
+      <c r="G21" s="171"/>
+      <c r="H21" s="172"/>
+      <c r="I21" s="172"/>
+      <c r="J21" s="173"/>
       <c r="K21" s="60"/>
       <c r="L21" s="60"/>
       <c r="M21" s="75"/>
@@ -10119,10 +10251,10 @@
       <c r="D22" s="63"/>
       <c r="E22" s="63"/>
       <c r="F22" s="40"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="169"/>
-      <c r="I22" s="169"/>
-      <c r="J22" s="170"/>
+      <c r="G22" s="171"/>
+      <c r="H22" s="172"/>
+      <c r="I22" s="172"/>
+      <c r="J22" s="173"/>
       <c r="K22" s="60"/>
       <c r="L22" s="60"/>
       <c r="M22" s="75"/>
@@ -10140,10 +10272,10 @@
       <c r="D23" s="63"/>
       <c r="E23" s="63"/>
       <c r="F23" s="40"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="169"/>
-      <c r="I23" s="169"/>
-      <c r="J23" s="170"/>
+      <c r="G23" s="171"/>
+      <c r="H23" s="172"/>
+      <c r="I23" s="172"/>
+      <c r="J23" s="173"/>
       <c r="K23" s="60"/>
       <c r="L23" s="60"/>
       <c r="M23" s="75"/>
@@ -10161,10 +10293,10 @@
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
       <c r="F24" s="40"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="169"/>
-      <c r="I24" s="169"/>
-      <c r="J24" s="170"/>
+      <c r="G24" s="171"/>
+      <c r="H24" s="172"/>
+      <c r="I24" s="172"/>
+      <c r="J24" s="173"/>
       <c r="K24" s="60"/>
       <c r="L24" s="60"/>
       <c r="M24" s="75"/>
@@ -10182,10 +10314,10 @@
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
       <c r="F25" s="40"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="169"/>
-      <c r="I25" s="169"/>
-      <c r="J25" s="170"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="172"/>
+      <c r="I25" s="172"/>
+      <c r="J25" s="173"/>
       <c r="K25" s="60"/>
       <c r="L25" s="60"/>
       <c r="M25" s="75"/>
@@ -10203,10 +10335,10 @@
       <c r="D26" s="63"/>
       <c r="E26" s="63"/>
       <c r="F26" s="40"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="169"/>
-      <c r="I26" s="169"/>
-      <c r="J26" s="170"/>
+      <c r="G26" s="171"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="173"/>
       <c r="K26" s="60"/>
       <c r="L26" s="60"/>
       <c r="M26" s="75"/>
@@ -10224,10 +10356,10 @@
       <c r="D27" s="63"/>
       <c r="E27" s="63"/>
       <c r="F27" s="40"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="169"/>
-      <c r="I27" s="169"/>
-      <c r="J27" s="170"/>
+      <c r="G27" s="171"/>
+      <c r="H27" s="172"/>
+      <c r="I27" s="172"/>
+      <c r="J27" s="173"/>
       <c r="K27" s="60"/>
       <c r="L27" s="60"/>
       <c r="M27" s="75"/>
@@ -10245,10 +10377,10 @@
       <c r="D28" s="63"/>
       <c r="E28" s="63"/>
       <c r="F28" s="40"/>
-      <c r="G28" s="168"/>
-      <c r="H28" s="169"/>
-      <c r="I28" s="169"/>
-      <c r="J28" s="170"/>
+      <c r="G28" s="171"/>
+      <c r="H28" s="172"/>
+      <c r="I28" s="172"/>
+      <c r="J28" s="173"/>
       <c r="K28" s="60"/>
       <c r="L28" s="60"/>
       <c r="M28" s="75"/>
@@ -10266,10 +10398,10 @@
       <c r="D29" s="63"/>
       <c r="E29" s="63"/>
       <c r="F29" s="40"/>
-      <c r="G29" s="168"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="170"/>
+      <c r="G29" s="171"/>
+      <c r="H29" s="172"/>
+      <c r="I29" s="172"/>
+      <c r="J29" s="173"/>
       <c r="K29" s="60"/>
       <c r="L29" s="60"/>
       <c r="M29" s="75"/>
@@ -10287,10 +10419,10 @@
       <c r="D30" s="63"/>
       <c r="E30" s="63"/>
       <c r="F30" s="40"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="170"/>
+      <c r="G30" s="171"/>
+      <c r="H30" s="172"/>
+      <c r="I30" s="172"/>
+      <c r="J30" s="173"/>
       <c r="K30" s="60"/>
       <c r="L30" s="60"/>
       <c r="M30" s="75"/>
@@ -10308,10 +10440,10 @@
       <c r="D31" s="63"/>
       <c r="E31" s="63"/>
       <c r="F31" s="40"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="170"/>
+      <c r="G31" s="171"/>
+      <c r="H31" s="172"/>
+      <c r="I31" s="172"/>
+      <c r="J31" s="173"/>
       <c r="K31" s="60"/>
       <c r="L31" s="60"/>
       <c r="M31" s="75"/>
@@ -10329,10 +10461,10 @@
       <c r="D32" s="63"/>
       <c r="E32" s="63"/>
       <c r="F32" s="40"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="170"/>
+      <c r="G32" s="171"/>
+      <c r="H32" s="172"/>
+      <c r="I32" s="172"/>
+      <c r="J32" s="173"/>
       <c r="K32" s="60"/>
       <c r="L32" s="60"/>
       <c r="M32" s="75"/>
@@ -10350,10 +10482,10 @@
       <c r="D33" s="63"/>
       <c r="E33" s="63"/>
       <c r="F33" s="40"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="170"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173"/>
       <c r="K33" s="60"/>
       <c r="L33" s="60"/>
       <c r="M33" s="75"/>
@@ -10371,10 +10503,10 @@
       <c r="D34" s="63"/>
       <c r="E34" s="63"/>
       <c r="F34" s="63"/>
-      <c r="G34" s="168"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="170"/>
+      <c r="G34" s="171"/>
+      <c r="H34" s="172"/>
+      <c r="I34" s="172"/>
+      <c r="J34" s="173"/>
       <c r="K34" s="83"/>
       <c r="L34" s="83"/>
       <c r="M34" s="75"/>
@@ -10392,10 +10524,10 @@
       <c r="D35" s="63"/>
       <c r="E35" s="63"/>
       <c r="F35" s="40"/>
-      <c r="G35" s="168"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="170"/>
+      <c r="G35" s="171"/>
+      <c r="H35" s="172"/>
+      <c r="I35" s="172"/>
+      <c r="J35" s="173"/>
       <c r="K35" s="60"/>
       <c r="L35" s="60"/>
       <c r="M35" s="75"/>
@@ -10413,10 +10545,10 @@
       <c r="D36" s="63"/>
       <c r="E36" s="63"/>
       <c r="F36" s="40"/>
-      <c r="G36" s="168"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="170"/>
+      <c r="G36" s="171"/>
+      <c r="H36" s="172"/>
+      <c r="I36" s="172"/>
+      <c r="J36" s="173"/>
       <c r="K36" s="60"/>
       <c r="L36" s="60"/>
       <c r="M36" s="75"/>
@@ -10434,10 +10566,10 @@
       <c r="D37" s="63"/>
       <c r="E37" s="63"/>
       <c r="F37" s="40"/>
-      <c r="G37" s="168"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="170"/>
+      <c r="G37" s="171"/>
+      <c r="H37" s="172"/>
+      <c r="I37" s="172"/>
+      <c r="J37" s="173"/>
       <c r="K37" s="60"/>
       <c r="L37" s="60"/>
       <c r="M37" s="75"/>
@@ -10455,10 +10587,10 @@
       <c r="D38" s="63"/>
       <c r="E38" s="63"/>
       <c r="F38" s="40"/>
-      <c r="G38" s="168"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="170"/>
+      <c r="G38" s="171"/>
+      <c r="H38" s="172"/>
+      <c r="I38" s="172"/>
+      <c r="J38" s="173"/>
       <c r="K38" s="60"/>
       <c r="L38" s="60"/>
       <c r="M38" s="75"/>
@@ -10476,10 +10608,10 @@
       <c r="D39" s="63"/>
       <c r="E39" s="63"/>
       <c r="F39" s="40"/>
-      <c r="G39" s="168"/>
-      <c r="H39" s="169"/>
-      <c r="I39" s="169"/>
-      <c r="J39" s="170"/>
+      <c r="G39" s="171"/>
+      <c r="H39" s="172"/>
+      <c r="I39" s="172"/>
+      <c r="J39" s="173"/>
       <c r="K39" s="60"/>
       <c r="L39" s="60"/>
       <c r="M39" s="75"/>
@@ -10497,10 +10629,10 @@
       <c r="D40" s="63"/>
       <c r="E40" s="63"/>
       <c r="F40" s="40"/>
-      <c r="G40" s="168"/>
-      <c r="H40" s="169"/>
-      <c r="I40" s="169"/>
-      <c r="J40" s="170"/>
+      <c r="G40" s="171"/>
+      <c r="H40" s="172"/>
+      <c r="I40" s="172"/>
+      <c r="J40" s="173"/>
       <c r="K40" s="73"/>
       <c r="L40" s="73"/>
       <c r="M40" s="75"/>
@@ -10518,10 +10650,10 @@
       <c r="D41" s="63"/>
       <c r="E41" s="63"/>
       <c r="F41" s="40"/>
-      <c r="G41" s="168"/>
-      <c r="H41" s="169"/>
-      <c r="I41" s="169"/>
-      <c r="J41" s="170"/>
+      <c r="G41" s="171"/>
+      <c r="H41" s="172"/>
+      <c r="I41" s="172"/>
+      <c r="J41" s="173"/>
       <c r="K41" s="73"/>
       <c r="L41" s="73"/>
       <c r="M41" s="75"/>
@@ -10539,10 +10671,10 @@
       <c r="D42" s="63"/>
       <c r="E42" s="63"/>
       <c r="F42" s="40"/>
-      <c r="G42" s="168"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="169"/>
-      <c r="J42" s="170"/>
+      <c r="G42" s="171"/>
+      <c r="H42" s="172"/>
+      <c r="I42" s="172"/>
+      <c r="J42" s="173"/>
       <c r="K42" s="73"/>
       <c r="L42" s="73"/>
       <c r="M42" s="75"/>
@@ -10560,10 +10692,10 @@
       <c r="D43" s="63"/>
       <c r="E43" s="63"/>
       <c r="F43" s="40"/>
-      <c r="G43" s="168"/>
-      <c r="H43" s="169"/>
-      <c r="I43" s="169"/>
-      <c r="J43" s="170"/>
+      <c r="G43" s="171"/>
+      <c r="H43" s="172"/>
+      <c r="I43" s="172"/>
+      <c r="J43" s="173"/>
       <c r="K43" s="73"/>
       <c r="L43" s="73"/>
       <c r="M43" s="75"/>
@@ -10581,10 +10713,10 @@
       <c r="D44" s="63"/>
       <c r="E44" s="63"/>
       <c r="F44" s="40"/>
-      <c r="G44" s="168"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="169"/>
-      <c r="J44" s="170"/>
+      <c r="G44" s="171"/>
+      <c r="H44" s="172"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="173"/>
       <c r="K44" s="73"/>
       <c r="L44" s="73"/>
       <c r="M44" s="75"/>
@@ -10602,10 +10734,10 @@
       <c r="D45" s="63"/>
       <c r="E45" s="63"/>
       <c r="F45" s="40"/>
-      <c r="G45" s="168"/>
-      <c r="H45" s="169"/>
-      <c r="I45" s="169"/>
-      <c r="J45" s="170"/>
+      <c r="G45" s="171"/>
+      <c r="H45" s="172"/>
+      <c r="I45" s="172"/>
+      <c r="J45" s="173"/>
       <c r="K45" s="73"/>
       <c r="L45" s="73"/>
       <c r="M45" s="75"/>
@@ -10623,10 +10755,10 @@
       <c r="D46" s="63"/>
       <c r="E46" s="63"/>
       <c r="F46" s="40"/>
-      <c r="G46" s="168"/>
-      <c r="H46" s="169"/>
-      <c r="I46" s="169"/>
-      <c r="J46" s="170"/>
+      <c r="G46" s="171"/>
+      <c r="H46" s="172"/>
+      <c r="I46" s="172"/>
+      <c r="J46" s="173"/>
       <c r="K46" s="73"/>
       <c r="L46" s="73"/>
       <c r="M46" s="75"/>
@@ -10644,10 +10776,10 @@
       <c r="D47" s="63"/>
       <c r="E47" s="63"/>
       <c r="F47" s="40"/>
-      <c r="G47" s="168"/>
-      <c r="H47" s="169"/>
-      <c r="I47" s="169"/>
-      <c r="J47" s="170"/>
+      <c r="G47" s="171"/>
+      <c r="H47" s="172"/>
+      <c r="I47" s="172"/>
+      <c r="J47" s="173"/>
       <c r="K47" s="73"/>
       <c r="L47" s="73"/>
       <c r="M47" s="75"/>
@@ -10665,10 +10797,10 @@
       <c r="D48" s="63"/>
       <c r="E48" s="63"/>
       <c r="F48" s="40"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="169"/>
-      <c r="I48" s="169"/>
-      <c r="J48" s="170"/>
+      <c r="G48" s="171"/>
+      <c r="H48" s="172"/>
+      <c r="I48" s="172"/>
+      <c r="J48" s="173"/>
       <c r="K48" s="73"/>
       <c r="L48" s="73"/>
       <c r="M48" s="75"/>
@@ -10686,10 +10818,10 @@
       <c r="D49" s="63"/>
       <c r="E49" s="63"/>
       <c r="F49" s="40"/>
-      <c r="G49" s="168"/>
-      <c r="H49" s="169"/>
-      <c r="I49" s="169"/>
-      <c r="J49" s="170"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="172"/>
+      <c r="I49" s="172"/>
+      <c r="J49" s="173"/>
       <c r="K49" s="73"/>
       <c r="L49" s="73"/>
       <c r="M49" s="75"/>
@@ -10707,10 +10839,10 @@
       <c r="D50" s="63"/>
       <c r="E50" s="63"/>
       <c r="F50" s="40"/>
-      <c r="G50" s="168"/>
-      <c r="H50" s="169"/>
-      <c r="I50" s="169"/>
-      <c r="J50" s="170"/>
+      <c r="G50" s="171"/>
+      <c r="H50" s="172"/>
+      <c r="I50" s="172"/>
+      <c r="J50" s="173"/>
       <c r="K50" s="73"/>
       <c r="L50" s="73"/>
       <c r="M50" s="75"/>
@@ -10728,10 +10860,10 @@
       <c r="D51" s="63"/>
       <c r="E51" s="63"/>
       <c r="F51" s="40"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="169"/>
-      <c r="I51" s="169"/>
-      <c r="J51" s="170"/>
+      <c r="G51" s="171"/>
+      <c r="H51" s="172"/>
+      <c r="I51" s="172"/>
+      <c r="J51" s="173"/>
       <c r="K51" s="73"/>
       <c r="L51" s="73"/>
       <c r="M51" s="75"/>
@@ -10749,10 +10881,10 @@
       <c r="D52" s="63"/>
       <c r="E52" s="63"/>
       <c r="F52" s="40"/>
-      <c r="G52" s="168"/>
-      <c r="H52" s="169"/>
-      <c r="I52" s="169"/>
-      <c r="J52" s="170"/>
+      <c r="G52" s="171"/>
+      <c r="H52" s="172"/>
+      <c r="I52" s="172"/>
+      <c r="J52" s="173"/>
       <c r="K52" s="73"/>
       <c r="L52" s="73"/>
       <c r="M52" s="75"/>
@@ -10770,10 +10902,10 @@
       <c r="D53" s="63"/>
       <c r="E53" s="63"/>
       <c r="F53" s="40"/>
-      <c r="G53" s="168"/>
-      <c r="H53" s="169"/>
-      <c r="I53" s="169"/>
-      <c r="J53" s="170"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="172"/>
+      <c r="I53" s="172"/>
+      <c r="J53" s="173"/>
       <c r="K53" s="73"/>
       <c r="L53" s="73"/>
       <c r="M53" s="75"/>
@@ -10791,10 +10923,10 @@
       <c r="D54" s="63"/>
       <c r="E54" s="63"/>
       <c r="F54" s="40"/>
-      <c r="G54" s="168"/>
-      <c r="H54" s="169"/>
-      <c r="I54" s="169"/>
-      <c r="J54" s="170"/>
+      <c r="G54" s="171"/>
+      <c r="H54" s="172"/>
+      <c r="I54" s="172"/>
+      <c r="J54" s="173"/>
       <c r="K54" s="73"/>
       <c r="L54" s="73"/>
       <c r="M54" s="75"/>
@@ -10812,10 +10944,10 @@
       <c r="D55" s="63"/>
       <c r="E55" s="63"/>
       <c r="F55" s="40"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="169"/>
-      <c r="J55" s="170"/>
+      <c r="G55" s="171"/>
+      <c r="H55" s="172"/>
+      <c r="I55" s="172"/>
+      <c r="J55" s="173"/>
       <c r="K55" s="73"/>
       <c r="L55" s="73"/>
       <c r="M55" s="75"/>
@@ -10833,10 +10965,10 @@
       <c r="D56" s="63"/>
       <c r="E56" s="63"/>
       <c r="F56" s="40"/>
-      <c r="G56" s="168"/>
-      <c r="H56" s="169"/>
-      <c r="I56" s="169"/>
-      <c r="J56" s="170"/>
+      <c r="G56" s="171"/>
+      <c r="H56" s="172"/>
+      <c r="I56" s="172"/>
+      <c r="J56" s="173"/>
       <c r="K56" s="73"/>
       <c r="L56" s="73"/>
       <c r="M56" s="75"/>
@@ -10854,10 +10986,10 @@
       <c r="D57" s="63"/>
       <c r="E57" s="63"/>
       <c r="F57" s="40"/>
-      <c r="G57" s="168"/>
-      <c r="H57" s="169"/>
-      <c r="I57" s="169"/>
-      <c r="J57" s="170"/>
+      <c r="G57" s="171"/>
+      <c r="H57" s="172"/>
+      <c r="I57" s="172"/>
+      <c r="J57" s="173"/>
       <c r="K57" s="73"/>
       <c r="L57" s="73"/>
       <c r="M57" s="75"/>
@@ -10875,10 +11007,10 @@
       <c r="D58" s="63"/>
       <c r="E58" s="63"/>
       <c r="F58" s="40"/>
-      <c r="G58" s="168"/>
-      <c r="H58" s="169"/>
-      <c r="I58" s="169"/>
-      <c r="J58" s="170"/>
+      <c r="G58" s="171"/>
+      <c r="H58" s="172"/>
+      <c r="I58" s="172"/>
+      <c r="J58" s="173"/>
       <c r="K58" s="73"/>
       <c r="L58" s="73"/>
       <c r="M58" s="75"/>
@@ -10896,10 +11028,10 @@
       <c r="D59" s="63"/>
       <c r="E59" s="63"/>
       <c r="F59" s="40"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="169"/>
-      <c r="I59" s="169"/>
-      <c r="J59" s="170"/>
+      <c r="G59" s="171"/>
+      <c r="H59" s="172"/>
+      <c r="I59" s="172"/>
+      <c r="J59" s="173"/>
       <c r="K59" s="73"/>
       <c r="L59" s="73"/>
       <c r="M59" s="75"/>
@@ -10917,10 +11049,10 @@
       <c r="D60" s="63"/>
       <c r="E60" s="63"/>
       <c r="F60" s="40"/>
-      <c r="G60" s="168"/>
-      <c r="H60" s="169"/>
-      <c r="I60" s="169"/>
-      <c r="J60" s="170"/>
+      <c r="G60" s="171"/>
+      <c r="H60" s="172"/>
+      <c r="I60" s="172"/>
+      <c r="J60" s="173"/>
       <c r="K60" s="73"/>
       <c r="L60" s="73"/>
       <c r="M60" s="75"/>
@@ -10938,10 +11070,10 @@
       <c r="D61" s="63"/>
       <c r="E61" s="63"/>
       <c r="F61" s="40"/>
-      <c r="G61" s="168"/>
-      <c r="H61" s="169"/>
-      <c r="I61" s="169"/>
-      <c r="J61" s="170"/>
+      <c r="G61" s="171"/>
+      <c r="H61" s="172"/>
+      <c r="I61" s="172"/>
+      <c r="J61" s="173"/>
       <c r="K61" s="73"/>
       <c r="L61" s="73"/>
       <c r="M61" s="75"/>
@@ -10959,10 +11091,10 @@
       <c r="D62" s="63"/>
       <c r="E62" s="63"/>
       <c r="F62" s="40"/>
-      <c r="G62" s="168"/>
-      <c r="H62" s="169"/>
-      <c r="I62" s="169"/>
-      <c r="J62" s="170"/>
+      <c r="G62" s="171"/>
+      <c r="H62" s="172"/>
+      <c r="I62" s="172"/>
+      <c r="J62" s="173"/>
       <c r="K62" s="82"/>
       <c r="L62" s="82"/>
       <c r="M62" s="75"/>
@@ -10980,10 +11112,10 @@
       <c r="D63" s="63"/>
       <c r="E63" s="63"/>
       <c r="F63" s="40"/>
-      <c r="G63" s="168"/>
-      <c r="H63" s="169"/>
-      <c r="I63" s="169"/>
-      <c r="J63" s="170"/>
+      <c r="G63" s="171"/>
+      <c r="H63" s="172"/>
+      <c r="I63" s="172"/>
+      <c r="J63" s="173"/>
       <c r="K63" s="82"/>
       <c r="L63" s="82"/>
       <c r="M63" s="75"/>
@@ -11001,10 +11133,10 @@
       <c r="D64" s="63"/>
       <c r="E64" s="63"/>
       <c r="F64" s="40"/>
-      <c r="G64" s="168"/>
-      <c r="H64" s="169"/>
-      <c r="I64" s="169"/>
-      <c r="J64" s="170"/>
+      <c r="G64" s="171"/>
+      <c r="H64" s="172"/>
+      <c r="I64" s="172"/>
+      <c r="J64" s="173"/>
       <c r="K64" s="82"/>
       <c r="L64" s="82"/>
       <c r="M64" s="75"/>
@@ -11020,10 +11152,10 @@
       <c r="D65" s="63"/>
       <c r="E65" s="63"/>
       <c r="F65" s="40"/>
-      <c r="G65" s="168"/>
-      <c r="H65" s="169"/>
-      <c r="I65" s="169"/>
-      <c r="J65" s="170"/>
+      <c r="G65" s="171"/>
+      <c r="H65" s="172"/>
+      <c r="I65" s="172"/>
+      <c r="J65" s="173"/>
       <c r="K65" s="82"/>
       <c r="L65" s="82"/>
       <c r="M65" s="75"/>
@@ -11039,10 +11171,10 @@
       <c r="D66" s="63"/>
       <c r="E66" s="63"/>
       <c r="F66" s="40"/>
-      <c r="G66" s="168"/>
-      <c r="H66" s="169"/>
-      <c r="I66" s="169"/>
-      <c r="J66" s="170"/>
+      <c r="G66" s="171"/>
+      <c r="H66" s="172"/>
+      <c r="I66" s="172"/>
+      <c r="J66" s="173"/>
       <c r="K66" s="82"/>
       <c r="L66" s="82"/>
       <c r="M66" s="75"/>
@@ -11058,10 +11190,10 @@
       <c r="D67" s="63"/>
       <c r="E67" s="63"/>
       <c r="F67" s="40"/>
-      <c r="G67" s="168"/>
-      <c r="H67" s="169"/>
-      <c r="I67" s="169"/>
-      <c r="J67" s="170"/>
+      <c r="G67" s="171"/>
+      <c r="H67" s="172"/>
+      <c r="I67" s="172"/>
+      <c r="J67" s="173"/>
       <c r="K67" s="82"/>
       <c r="L67" s="82"/>
       <c r="M67" s="75"/>
@@ -11077,10 +11209,10 @@
       <c r="D68" s="63"/>
       <c r="E68" s="63"/>
       <c r="F68" s="40"/>
-      <c r="G68" s="168"/>
-      <c r="H68" s="169"/>
-      <c r="I68" s="169"/>
-      <c r="J68" s="170"/>
+      <c r="G68" s="171"/>
+      <c r="H68" s="172"/>
+      <c r="I68" s="172"/>
+      <c r="J68" s="173"/>
       <c r="K68" s="82"/>
       <c r="L68" s="82"/>
       <c r="M68" s="75"/>
@@ -11096,10 +11228,10 @@
       <c r="D69" s="63"/>
       <c r="E69" s="63"/>
       <c r="F69" s="40"/>
-      <c r="G69" s="168"/>
-      <c r="H69" s="169"/>
-      <c r="I69" s="169"/>
-      <c r="J69" s="170"/>
+      <c r="G69" s="171"/>
+      <c r="H69" s="172"/>
+      <c r="I69" s="172"/>
+      <c r="J69" s="173"/>
       <c r="K69" s="82"/>
       <c r="L69" s="82"/>
       <c r="M69" s="75"/>
@@ -11115,10 +11247,10 @@
       <c r="D70" s="63"/>
       <c r="E70" s="63"/>
       <c r="F70" s="40"/>
-      <c r="G70" s="168"/>
-      <c r="H70" s="169"/>
-      <c r="I70" s="169"/>
-      <c r="J70" s="170"/>
+      <c r="G70" s="171"/>
+      <c r="H70" s="172"/>
+      <c r="I70" s="172"/>
+      <c r="J70" s="173"/>
       <c r="K70" s="82"/>
       <c r="L70" s="82"/>
       <c r="M70" s="75"/>
@@ -11134,10 +11266,10 @@
       <c r="D71" s="63"/>
       <c r="E71" s="63"/>
       <c r="F71" s="40"/>
-      <c r="G71" s="168"/>
-      <c r="H71" s="169"/>
-      <c r="I71" s="169"/>
-      <c r="J71" s="170"/>
+      <c r="G71" s="171"/>
+      <c r="H71" s="172"/>
+      <c r="I71" s="172"/>
+      <c r="J71" s="173"/>
       <c r="K71" s="82"/>
       <c r="L71" s="82"/>
       <c r="M71" s="75"/>
@@ -11153,10 +11285,10 @@
       <c r="D72" s="63"/>
       <c r="E72" s="63"/>
       <c r="F72" s="40"/>
-      <c r="G72" s="168"/>
-      <c r="H72" s="169"/>
-      <c r="I72" s="169"/>
-      <c r="J72" s="170"/>
+      <c r="G72" s="171"/>
+      <c r="H72" s="172"/>
+      <c r="I72" s="172"/>
+      <c r="J72" s="173"/>
       <c r="K72" s="82"/>
       <c r="L72" s="82"/>
       <c r="M72" s="75"/>
@@ -11172,10 +11304,10 @@
       <c r="D73" s="63"/>
       <c r="E73" s="63"/>
       <c r="F73" s="40"/>
-      <c r="G73" s="168"/>
-      <c r="H73" s="169"/>
-      <c r="I73" s="169"/>
-      <c r="J73" s="170"/>
+      <c r="G73" s="171"/>
+      <c r="H73" s="172"/>
+      <c r="I73" s="172"/>
+      <c r="J73" s="173"/>
       <c r="K73" s="82"/>
       <c r="L73" s="82"/>
       <c r="M73" s="75"/>
@@ -11191,10 +11323,10 @@
       <c r="D74" s="63"/>
       <c r="E74" s="63"/>
       <c r="F74" s="40"/>
-      <c r="G74" s="168"/>
-      <c r="H74" s="169"/>
-      <c r="I74" s="169"/>
-      <c r="J74" s="170"/>
+      <c r="G74" s="171"/>
+      <c r="H74" s="172"/>
+      <c r="I74" s="172"/>
+      <c r="J74" s="173"/>
       <c r="K74" s="82"/>
       <c r="L74" s="82"/>
       <c r="M74" s="75"/>
@@ -11210,10 +11342,10 @@
       <c r="D75" s="63"/>
       <c r="E75" s="63"/>
       <c r="F75" s="40"/>
-      <c r="G75" s="168"/>
-      <c r="H75" s="169"/>
-      <c r="I75" s="169"/>
-      <c r="J75" s="170"/>
+      <c r="G75" s="171"/>
+      <c r="H75" s="172"/>
+      <c r="I75" s="172"/>
+      <c r="J75" s="173"/>
       <c r="K75" s="82"/>
       <c r="L75" s="82"/>
       <c r="M75" s="75"/>
@@ -11229,10 +11361,10 @@
       <c r="D76" s="63"/>
       <c r="E76" s="63"/>
       <c r="F76" s="40"/>
-      <c r="G76" s="168"/>
-      <c r="H76" s="169"/>
-      <c r="I76" s="169"/>
-      <c r="J76" s="170"/>
+      <c r="G76" s="171"/>
+      <c r="H76" s="172"/>
+      <c r="I76" s="172"/>
+      <c r="J76" s="173"/>
       <c r="K76" s="82"/>
       <c r="L76" s="82"/>
       <c r="M76" s="75"/>
@@ -11248,10 +11380,10 @@
       <c r="D77" s="63"/>
       <c r="E77" s="63"/>
       <c r="F77" s="40"/>
-      <c r="G77" s="168"/>
-      <c r="H77" s="169"/>
-      <c r="I77" s="169"/>
-      <c r="J77" s="170"/>
+      <c r="G77" s="171"/>
+      <c r="H77" s="172"/>
+      <c r="I77" s="172"/>
+      <c r="J77" s="173"/>
       <c r="K77" s="82"/>
       <c r="L77" s="82"/>
       <c r="M77" s="75"/>
@@ -11267,10 +11399,10 @@
       <c r="D78" s="63"/>
       <c r="E78" s="63"/>
       <c r="F78" s="40"/>
-      <c r="G78" s="168"/>
-      <c r="H78" s="169"/>
-      <c r="I78" s="169"/>
-      <c r="J78" s="170"/>
+      <c r="G78" s="171"/>
+      <c r="H78" s="172"/>
+      <c r="I78" s="172"/>
+      <c r="J78" s="173"/>
       <c r="K78" s="82"/>
       <c r="L78" s="82"/>
       <c r="M78" s="75"/>
@@ -11286,10 +11418,10 @@
       <c r="D79" s="63"/>
       <c r="E79" s="63"/>
       <c r="F79" s="40"/>
-      <c r="G79" s="168"/>
-      <c r="H79" s="169"/>
-      <c r="I79" s="169"/>
-      <c r="J79" s="170"/>
+      <c r="G79" s="171"/>
+      <c r="H79" s="172"/>
+      <c r="I79" s="172"/>
+      <c r="J79" s="173"/>
       <c r="K79" s="82"/>
       <c r="L79" s="82"/>
       <c r="M79" s="75"/>
@@ -11305,10 +11437,10 @@
       <c r="D80" s="63"/>
       <c r="E80" s="63"/>
       <c r="F80" s="40"/>
-      <c r="G80" s="168"/>
-      <c r="H80" s="169"/>
-      <c r="I80" s="169"/>
-      <c r="J80" s="170"/>
+      <c r="G80" s="171"/>
+      <c r="H80" s="172"/>
+      <c r="I80" s="172"/>
+      <c r="J80" s="173"/>
       <c r="K80" s="82"/>
       <c r="L80" s="82"/>
       <c r="M80" s="75"/>
@@ -11324,10 +11456,10 @@
       <c r="D81" s="63"/>
       <c r="E81" s="63"/>
       <c r="F81" s="40"/>
-      <c r="G81" s="168"/>
-      <c r="H81" s="169"/>
-      <c r="I81" s="169"/>
-      <c r="J81" s="170"/>
+      <c r="G81" s="171"/>
+      <c r="H81" s="172"/>
+      <c r="I81" s="172"/>
+      <c r="J81" s="173"/>
       <c r="K81" s="82"/>
       <c r="L81" s="82"/>
       <c r="M81" s="75"/>
@@ -11343,10 +11475,10 @@
       <c r="D82" s="63"/>
       <c r="E82" s="63"/>
       <c r="F82" s="40"/>
-      <c r="G82" s="168"/>
-      <c r="H82" s="169"/>
-      <c r="I82" s="169"/>
-      <c r="J82" s="170"/>
+      <c r="G82" s="171"/>
+      <c r="H82" s="172"/>
+      <c r="I82" s="172"/>
+      <c r="J82" s="173"/>
       <c r="K82" s="82"/>
       <c r="L82" s="82"/>
       <c r="M82" s="75"/>
@@ -11362,10 +11494,10 @@
       <c r="D83" s="63"/>
       <c r="E83" s="63"/>
       <c r="F83" s="40"/>
-      <c r="G83" s="168"/>
-      <c r="H83" s="169"/>
-      <c r="I83" s="169"/>
-      <c r="J83" s="170"/>
+      <c r="G83" s="171"/>
+      <c r="H83" s="172"/>
+      <c r="I83" s="172"/>
+      <c r="J83" s="173"/>
       <c r="K83" s="82"/>
       <c r="L83" s="82"/>
       <c r="M83" s="75"/>
@@ -11381,10 +11513,10 @@
       <c r="D84" s="63"/>
       <c r="E84" s="63"/>
       <c r="F84" s="40"/>
-      <c r="G84" s="168"/>
-      <c r="H84" s="169"/>
-      <c r="I84" s="169"/>
-      <c r="J84" s="170"/>
+      <c r="G84" s="171"/>
+      <c r="H84" s="172"/>
+      <c r="I84" s="172"/>
+      <c r="J84" s="173"/>
       <c r="K84" s="82"/>
       <c r="L84" s="82"/>
       <c r="M84" s="75"/>
@@ -11400,10 +11532,10 @@
       <c r="D85" s="63"/>
       <c r="E85" s="63"/>
       <c r="F85" s="40"/>
-      <c r="G85" s="168"/>
-      <c r="H85" s="169"/>
-      <c r="I85" s="169"/>
-      <c r="J85" s="170"/>
+      <c r="G85" s="171"/>
+      <c r="H85" s="172"/>
+      <c r="I85" s="172"/>
+      <c r="J85" s="173"/>
       <c r="K85" s="82"/>
       <c r="L85" s="82"/>
       <c r="M85" s="75"/>
@@ -11419,10 +11551,10 @@
       <c r="D86" s="63"/>
       <c r="E86" s="63"/>
       <c r="F86" s="40"/>
-      <c r="G86" s="168"/>
-      <c r="H86" s="169"/>
-      <c r="I86" s="169"/>
-      <c r="J86" s="170"/>
+      <c r="G86" s="171"/>
+      <c r="H86" s="172"/>
+      <c r="I86" s="172"/>
+      <c r="J86" s="173"/>
       <c r="K86" s="82"/>
       <c r="L86" s="82"/>
       <c r="M86" s="75"/>
@@ -11438,10 +11570,10 @@
       <c r="D87" s="63"/>
       <c r="E87" s="63"/>
       <c r="F87" s="40"/>
-      <c r="G87" s="168"/>
-      <c r="H87" s="169"/>
-      <c r="I87" s="169"/>
-      <c r="J87" s="170"/>
+      <c r="G87" s="171"/>
+      <c r="H87" s="172"/>
+      <c r="I87" s="172"/>
+      <c r="J87" s="173"/>
       <c r="K87" s="82"/>
       <c r="L87" s="82"/>
       <c r="M87" s="75"/>
@@ -11457,10 +11589,10 @@
       <c r="D88" s="63"/>
       <c r="E88" s="63"/>
       <c r="F88" s="40"/>
-      <c r="G88" s="168"/>
-      <c r="H88" s="169"/>
-      <c r="I88" s="169"/>
-      <c r="J88" s="170"/>
+      <c r="G88" s="171"/>
+      <c r="H88" s="172"/>
+      <c r="I88" s="172"/>
+      <c r="J88" s="173"/>
       <c r="K88" s="82"/>
       <c r="L88" s="82"/>
       <c r="M88" s="75"/>
@@ -11476,10 +11608,10 @@
       <c r="D89" s="63"/>
       <c r="E89" s="63"/>
       <c r="F89" s="40"/>
-      <c r="G89" s="168"/>
-      <c r="H89" s="169"/>
-      <c r="I89" s="169"/>
-      <c r="J89" s="170"/>
+      <c r="G89" s="171"/>
+      <c r="H89" s="172"/>
+      <c r="I89" s="172"/>
+      <c r="J89" s="173"/>
       <c r="K89" s="82"/>
       <c r="L89" s="82"/>
       <c r="M89" s="75"/>
@@ -11495,10 +11627,10 @@
       <c r="D90" s="63"/>
       <c r="E90" s="63"/>
       <c r="F90" s="40"/>
-      <c r="G90" s="168"/>
-      <c r="H90" s="169"/>
-      <c r="I90" s="169"/>
-      <c r="J90" s="170"/>
+      <c r="G90" s="171"/>
+      <c r="H90" s="172"/>
+      <c r="I90" s="172"/>
+      <c r="J90" s="173"/>
       <c r="K90" s="82"/>
       <c r="L90" s="82"/>
       <c r="M90" s="75"/>
@@ -11514,10 +11646,10 @@
       <c r="D91" s="63"/>
       <c r="E91" s="63"/>
       <c r="F91" s="40"/>
-      <c r="G91" s="168"/>
-      <c r="H91" s="169"/>
-      <c r="I91" s="169"/>
-      <c r="J91" s="170"/>
+      <c r="G91" s="171"/>
+      <c r="H91" s="172"/>
+      <c r="I91" s="172"/>
+      <c r="J91" s="173"/>
       <c r="K91" s="82"/>
       <c r="L91" s="82"/>
       <c r="M91" s="75"/>
@@ -11533,10 +11665,10 @@
       <c r="D92" s="63"/>
       <c r="E92" s="63"/>
       <c r="F92" s="40"/>
-      <c r="G92" s="168"/>
-      <c r="H92" s="169"/>
-      <c r="I92" s="169"/>
-      <c r="J92" s="170"/>
+      <c r="G92" s="171"/>
+      <c r="H92" s="172"/>
+      <c r="I92" s="172"/>
+      <c r="J92" s="173"/>
       <c r="K92" s="82"/>
       <c r="L92" s="82"/>
       <c r="M92" s="75"/>
@@ -11552,10 +11684,10 @@
       <c r="D93" s="63"/>
       <c r="E93" s="63"/>
       <c r="F93" s="40"/>
-      <c r="G93" s="168"/>
-      <c r="H93" s="169"/>
-      <c r="I93" s="169"/>
-      <c r="J93" s="170"/>
+      <c r="G93" s="171"/>
+      <c r="H93" s="172"/>
+      <c r="I93" s="172"/>
+      <c r="J93" s="173"/>
       <c r="K93" s="82"/>
       <c r="L93" s="82"/>
       <c r="M93" s="75"/>
@@ -11571,10 +11703,10 @@
       <c r="D94" s="63"/>
       <c r="E94" s="63"/>
       <c r="F94" s="40"/>
-      <c r="G94" s="168"/>
-      <c r="H94" s="169"/>
-      <c r="I94" s="169"/>
-      <c r="J94" s="170"/>
+      <c r="G94" s="171"/>
+      <c r="H94" s="172"/>
+      <c r="I94" s="172"/>
+      <c r="J94" s="173"/>
       <c r="K94" s="82"/>
       <c r="L94" s="82"/>
       <c r="M94" s="75"/>
@@ -11586,7 +11718,8 @@
     </row>
   </sheetData>
   <dataConsolidate/>
-  <mergeCells count="94">
+  <mergeCells count="95">
+    <mergeCell ref="O10:O14"/>
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="G14:J14"/>
     <mergeCell ref="G15:J15"/>
@@ -11709,8 +11842,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J110"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A40" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" customHeight="1"/>
@@ -11728,10 +11861,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="138"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -11762,8 +11895,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -11822,7 +11955,7 @@
     <row r="6" spans="1:10" ht="12" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="43" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C6" s="43"/>
       <c r="D6" s="43"/>
@@ -11877,7 +12010,7 @@
       <c r="A10" s="79"/>
       <c r="B10" s="79"/>
       <c r="C10" s="43" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D10" s="43"/>
       <c r="E10" s="43"/>
@@ -11891,7 +12024,7 @@
       <c r="A11" s="79"/>
       <c r="B11" s="79"/>
       <c r="C11" s="43" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="D11" s="43"/>
       <c r="E11" s="43"/>
@@ -11905,7 +12038,7 @@
       <c r="A12" s="79"/>
       <c r="B12" s="79"/>
       <c r="C12" s="43" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D12" s="43"/>
       <c r="E12" s="43"/>
@@ -11919,7 +12052,7 @@
       <c r="A13" s="79"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
@@ -11947,7 +12080,7 @@
       <c r="A15" s="79"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="D15" s="43"/>
       <c r="E15" s="43"/>
@@ -12105,7 +12238,7 @@
     <row r="29" spans="1:10" ht="12" customHeight="1">
       <c r="A29" s="72"/>
       <c r="B29" s="84" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C29" s="43"/>
       <c r="D29" s="43"/>
@@ -12120,7 +12253,7 @@
       <c r="A30" s="72"/>
       <c r="B30" s="43"/>
       <c r="C30" s="84" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D30" s="43"/>
       <c r="E30" s="43"/>
@@ -12134,7 +12267,7 @@
       <c r="A31" s="72"/>
       <c r="B31" s="43"/>
       <c r="C31" s="84" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="D31" s="43"/>
       <c r="E31" s="43"/>
@@ -12147,7 +12280,7 @@
     <row r="32" spans="1:10" ht="12" customHeight="1">
       <c r="A32" s="72"/>
       <c r="B32" s="84" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C32" s="43"/>
       <c r="D32" s="43"/>
@@ -12161,7 +12294,7 @@
     <row r="33" spans="1:10" ht="12" customHeight="1">
       <c r="A33" s="72"/>
       <c r="B33" s="84" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C33" s="43"/>
       <c r="D33" s="43"/>
@@ -12175,7 +12308,7 @@
     <row r="34" spans="1:10" ht="12" customHeight="1">
       <c r="A34" s="72"/>
       <c r="B34" s="84" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="C34" s="43"/>
       <c r="D34" s="43"/>
@@ -12189,7 +12322,7 @@
     <row r="35" spans="1:10" ht="12" customHeight="1">
       <c r="A35" s="72"/>
       <c r="B35" s="84" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C35" s="43"/>
       <c r="D35" s="43"/>
@@ -12203,7 +12336,7 @@
     <row r="36" spans="1:10" ht="12" customHeight="1">
       <c r="A36" s="72"/>
       <c r="B36" s="84" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C36" s="43"/>
       <c r="D36" s="43"/>
@@ -12218,7 +12351,7 @@
       <c r="A37" s="72"/>
       <c r="B37" s="43"/>
       <c r="C37" s="84" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="D37" s="43"/>
       <c r="E37" s="43"/>
@@ -12232,7 +12365,7 @@
       <c r="A38" s="72"/>
       <c r="B38" s="43"/>
       <c r="C38" s="126" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D38" s="84"/>
       <c r="E38" s="43"/>
@@ -12245,7 +12378,7 @@
     <row r="39" spans="1:10" ht="12" customHeight="1">
       <c r="A39" s="72"/>
       <c r="B39" s="84" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="C39" s="43"/>
       <c r="D39" s="43"/>
@@ -12259,7 +12392,7 @@
     <row r="40" spans="1:10" ht="12" customHeight="1">
       <c r="A40" s="72"/>
       <c r="B40" s="84" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C40" s="43"/>
       <c r="D40" s="43"/>
@@ -12273,7 +12406,7 @@
     <row r="41" spans="1:10" ht="12" customHeight="1">
       <c r="A41" s="72"/>
       <c r="B41" s="84" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C41" s="43"/>
       <c r="D41" s="43"/>
@@ -12287,7 +12420,7 @@
     <row r="42" spans="1:10" ht="12" customHeight="1">
       <c r="A42" s="72"/>
       <c r="B42" s="127" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C42" s="43"/>
       <c r="D42" s="43"/>
@@ -12301,7 +12434,7 @@
     <row r="43" spans="1:10" ht="12" customHeight="1">
       <c r="A43" s="72"/>
       <c r="B43" s="84" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C43" s="43"/>
       <c r="D43" s="43"/>
@@ -12315,7 +12448,7 @@
     <row r="44" spans="1:10" ht="12" customHeight="1">
       <c r="A44" s="72"/>
       <c r="B44" s="84" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C44" s="43"/>
       <c r="D44" s="43"/>
@@ -12329,7 +12462,7 @@
     <row r="45" spans="1:10" ht="12" customHeight="1">
       <c r="A45" s="72"/>
       <c r="B45" s="84" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C45" s="43"/>
       <c r="D45" s="43"/>
@@ -12343,7 +12476,7 @@
     <row r="46" spans="1:10" ht="12" customHeight="1">
       <c r="A46" s="72"/>
       <c r="B46" s="84" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C46" s="43"/>
       <c r="D46" s="43"/>
@@ -12357,7 +12490,7 @@
     <row r="47" spans="1:10" ht="12" customHeight="1">
       <c r="A47" s="72"/>
       <c r="B47" s="84" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C47" s="43"/>
       <c r="D47" s="43"/>
@@ -12371,7 +12504,7 @@
     <row r="48" spans="1:10" ht="12" customHeight="1">
       <c r="A48" s="72"/>
       <c r="B48" s="84" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C48" s="43"/>
       <c r="D48" s="43"/>
@@ -12385,7 +12518,7 @@
     <row r="49" spans="1:10" ht="12" customHeight="1">
       <c r="A49" s="72"/>
       <c r="B49" s="84" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C49" s="43"/>
       <c r="D49" s="43"/>
@@ -12399,7 +12532,7 @@
     <row r="50" spans="1:10" ht="12" customHeight="1">
       <c r="A50" s="42"/>
       <c r="B50" s="84" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="C50" s="84"/>
       <c r="D50" s="43"/>
@@ -12582,7 +12715,7 @@
     </row>
     <row r="65" spans="1:10" ht="12" customHeight="1">
       <c r="A65" s="72" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B65" s="43"/>
       <c r="C65" s="84"/>
@@ -12610,7 +12743,7 @@
     <row r="67" spans="1:10" ht="12" customHeight="1">
       <c r="B67" s="79"/>
       <c r="C67" s="84" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="D67" s="43"/>
       <c r="E67" s="43"/>
@@ -12647,7 +12780,7 @@
     <row r="70" spans="1:10" ht="12" customHeight="1">
       <c r="B70" s="79"/>
       <c r="C70" s="43" t="s">
-        <v>319</v>
+        <v>341</v>
       </c>
       <c r="D70" s="43"/>
       <c r="E70" s="43"/>
@@ -13169,10 +13302,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="12" customHeight="1">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="135"/>
+      <c r="B1" s="138"/>
       <c r="C1" s="31" t="s">
         <v>1</v>
       </c>
@@ -13203,8 +13336,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" ht="12" customHeight="1">
-      <c r="A2" s="135"/>
-      <c r="B2" s="135"/>
+      <c r="A2" s="138"/>
+      <c r="B2" s="138"/>
       <c r="C2" s="31" t="s">
         <v>2</v>
       </c>
@@ -13618,14 +13751,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7" ht="14.25">
-      <c r="B1" s="172" t="s">
+      <c r="B1" s="178" t="s">
         <v>41</v>
       </c>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
-      <c r="E1" s="172"/>
-      <c r="F1" s="172"/>
-      <c r="G1" s="172"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
     </row>
     <row r="2" spans="2:7" s="17" customFormat="1">
       <c r="B2" s="16"/>
@@ -13818,11 +13951,11 @@
       </c>
     </row>
     <row r="27" spans="2:7" ht="200.25" customHeight="1">
-      <c r="E27" s="173" t="s">
+      <c r="E27" s="179" t="s">
         <v>37</v>
       </c>
-      <c r="F27" s="174"/>
-      <c r="G27" s="175"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="181"/>
     </row>
     <row r="29" spans="2:7">
       <c r="B29" s="19" t="s">
